--- a/Armenian Font Mapping Table.xlsx
+++ b/Armenian Font Mapping Table.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Unconfirmed from PDF RTF" sheetId="6" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Armenian Font Mapping Table'!$A$1:$L$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Armenian Font Mapping Table'!$A$1:$M$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Converted to ArmSCII-7'!$A$1:$G$92</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -92,7 +92,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Code2000 font</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +118,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="K90" authorId="0">
+    <comment ref="D89" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Armenian hyphen is not supported in Times Armenian.
+Workaround was to use \--</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L90" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K91" authorId="0">
+    <comment ref="L91" authorId="0">
       <text>
         <r>
           <rPr>
@@ -275,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="597">
   <si>
     <t>\'a4</t>
   </si>
@@ -2075,7 +2102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2292,6 +2319,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Code2000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Code2000"/>
     </font>
   </fonts>
   <fills count="37">
@@ -2659,7 +2696,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2717,6 +2754,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3054,11 +3100,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3068,14 +3114,15 @@
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
@@ -3098,22 +3145,25 @@
         <v>91</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.5">
+    <row r="2" spans="1:13" ht="19.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3135,25 +3185,28 @@
       <c r="G2" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="I2" s="15">
-        <f>HEX2DEC(H2)</f>
+      <c r="J2" s="15">
+        <f t="shared" ref="J2:J33" si="0">HEX2DEC(I2)</f>
         <v>1417</v>
       </c>
-      <c r="J2" t="str">
-        <f>"\u"&amp;TEXT(I2,"0000")&amp;"?"</f>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K33" si="1">"\u"&amp;TEXT(J2,"0000")&amp;"?"</f>
         <v>\u1417?</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>559</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="M2" s="25" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19.5">
+    <row r="3" spans="1:13" ht="19.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3167,32 +3220,35 @@
         <v>0</v>
       </c>
       <c r="E3" s="24" t="str">
-        <f>F3</f>
+        <f t="shared" ref="E3:E34" si="2">F3</f>
         <v>¤</v>
       </c>
       <c r="F3" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D3,2)))</f>
+        <f t="shared" ref="F3:F34" si="3">CHAR(HEX2DEC(RIGHT(D3,2)))</f>
         <v>¤</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="I3" s="15">
-        <f>HEX2DEC(H3)</f>
+      <c r="J3" s="15">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="J3" t="str">
-        <f>"\u"&amp;TEXT(I3,"0000")&amp;"?"</f>
+      <c r="K3" t="str">
+        <f t="shared" si="1"/>
         <v>\u0041?</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19.5">
+    <row r="4" spans="1:13" ht="19.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3206,32 +3262,35 @@
         <v>1</v>
       </c>
       <c r="E4" s="24" t="str">
-        <f>F4</f>
+        <f t="shared" si="2"/>
         <v>¥</v>
       </c>
       <c r="F4" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D4,2)))</f>
+        <f t="shared" si="3"/>
         <v>¥</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="I4" s="15">
-        <f>HEX2DEC(H4)</f>
+      <c r="J4" s="15">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J4" t="str">
-        <f>"\u"&amp;TEXT(I4,"0000")&amp;"?"</f>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
         <v>\u0040?</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="19.5">
+    <row r="5" spans="1:13" ht="19.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3245,35 +3304,38 @@
         <v>2</v>
       </c>
       <c r="E5" s="24" t="str">
-        <f>F5</f>
+        <f t="shared" si="2"/>
         <v>¦</v>
       </c>
       <c r="F5" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D5,2)))</f>
+        <f t="shared" si="3"/>
         <v>¦</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="I5" s="15">
-        <f>HEX2DEC(H5)</f>
+      <c r="J5" s="15">
+        <f t="shared" si="0"/>
         <v>187</v>
       </c>
-      <c r="J5" t="str">
-        <f>"\u"&amp;TEXT(I5,"0000")&amp;"?"</f>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
         <v>\u0187?</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>105</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="M5" s="25" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="19.5">
+    <row r="6" spans="1:13" ht="19.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3287,35 +3349,38 @@
         <v>3</v>
       </c>
       <c r="E6" s="24" t="str">
-        <f>F6</f>
+        <f t="shared" si="2"/>
         <v>§</v>
       </c>
       <c r="F6" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D6,2)))</f>
+        <f t="shared" si="3"/>
         <v>§</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="I6" s="15">
-        <f>HEX2DEC(H6)</f>
+      <c r="J6" s="15">
+        <f t="shared" si="0"/>
         <v>171</v>
       </c>
-      <c r="J6" t="str">
-        <f>"\u"&amp;TEXT(I6,"0000")&amp;"?"</f>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
         <v>\u0171?</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>100</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="M6" s="25" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="19.5">
+    <row r="7" spans="1:13" ht="19.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3329,32 +3394,35 @@
         <v>4</v>
       </c>
       <c r="E7" s="24" t="str">
-        <f>F7</f>
+        <f t="shared" si="2"/>
         <v>¨</v>
       </c>
       <c r="F7" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D7,2)))</f>
+        <f t="shared" si="3"/>
         <v>¨</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="I7" s="15">
-        <f>HEX2DEC(H7)</f>
+      <c r="J7" s="15">
+        <f t="shared" si="0"/>
         <v>1415</v>
       </c>
-      <c r="J7" t="str">
-        <f>"\u"&amp;TEXT(I7,"0000")&amp;"?"</f>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
         <v>\u1415?</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18.75">
+    <row r="8" spans="1:13" ht="18.75">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3368,35 +3436,38 @@
         <v>5</v>
       </c>
       <c r="E8" s="24" t="str">
-        <f>F8</f>
+        <f t="shared" si="2"/>
         <v>©</v>
       </c>
       <c r="F8" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D8,2)))</f>
+        <f t="shared" si="3"/>
         <v>©</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="I8" s="15">
-        <f>HEX2DEC(H8)</f>
+      <c r="J8" s="15">
+        <f t="shared" si="0"/>
         <v>8228</v>
       </c>
-      <c r="J8" t="str">
-        <f>"\u"&amp;TEXT(I8,"0000")&amp;"?"</f>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
         <v>\u8228?</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="L8" s="27" t="s">
         <v>573</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="M8" s="25" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="19.5">
+    <row r="9" spans="1:13" ht="19.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3410,35 +3481,38 @@
         <v>6</v>
       </c>
       <c r="E9" s="24" t="str">
-        <f>F9</f>
+        <f t="shared" si="2"/>
         <v>ª</v>
       </c>
       <c r="F9" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D9,2)))</f>
+        <f t="shared" si="3"/>
         <v>ª</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I9" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="I9" s="15">
-        <f>HEX2DEC(H9)</f>
+      <c r="J9" s="15">
+        <f t="shared" si="0"/>
         <v>1373</v>
       </c>
-      <c r="J9" t="str">
-        <f>"\u"&amp;TEXT(I9,"0000")&amp;"?"</f>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
         <v>\u1373?</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>202</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="M9" s="25" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="19.5">
+    <row r="10" spans="1:13" ht="19.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3452,35 +3526,38 @@
         <v>7</v>
       </c>
       <c r="E10" s="24" t="str">
-        <f>F10</f>
+        <f t="shared" si="2"/>
         <v>¯</v>
       </c>
       <c r="F10" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D10,2)))</f>
+        <f t="shared" si="3"/>
         <v>¯</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="I10" s="15">
-        <f>HEX2DEC(H10)</f>
+      <c r="J10" s="15">
+        <f t="shared" si="0"/>
         <v>1372</v>
       </c>
-      <c r="J10" t="str">
-        <f>"\u"&amp;TEXT(I10,"0000")&amp;"?"</f>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
         <v>\u1372?</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>199</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="M10" s="25" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="19.5">
+    <row r="11" spans="1:13" ht="19.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3494,35 +3571,38 @@
         <v>8</v>
       </c>
       <c r="E11" s="24" t="str">
-        <f>F11</f>
+        <f t="shared" si="2"/>
         <v>°</v>
       </c>
       <c r="F11" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D11,2)))</f>
+        <f t="shared" si="3"/>
         <v>°</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="I11" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="I11" s="15">
-        <f>HEX2DEC(H11)</f>
+      <c r="J11" s="15">
+        <f t="shared" si="0"/>
         <v>1371</v>
       </c>
-      <c r="J11" t="str">
-        <f>"\u"&amp;TEXT(I11,"0000")&amp;"?"</f>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
         <v>\u1371?</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>196</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="M11" s="25" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="19.5">
+    <row r="12" spans="1:13" ht="19.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3536,35 +3616,38 @@
         <v>9</v>
       </c>
       <c r="E12" s="24" t="str">
-        <f>F12</f>
+        <f t="shared" si="2"/>
         <v>±</v>
       </c>
       <c r="F12" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D12,2)))</f>
+        <f t="shared" si="3"/>
         <v>±</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="I12" s="15">
-        <f>HEX2DEC(H12)</f>
+      <c r="J12" s="15">
+        <f t="shared" si="0"/>
         <v>1374</v>
       </c>
-      <c r="J12" t="str">
-        <f>"\u"&amp;TEXT(I12,"0000")&amp;"?"</f>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
         <v>\u1374?</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>205</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="M12" s="25" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="19.5">
+    <row r="13" spans="1:13" ht="19.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3578,32 +3661,35 @@
         <v>10</v>
       </c>
       <c r="E13" s="24" t="str">
-        <f>F13</f>
+        <f t="shared" si="2"/>
         <v>²</v>
       </c>
       <c r="F13" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D13,2)))</f>
+        <f t="shared" si="3"/>
         <v>²</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="I13" s="15">
-        <f>HEX2DEC(H13)</f>
+      <c r="J13" s="15">
+        <f t="shared" si="0"/>
         <v>1329</v>
       </c>
-      <c r="J13" t="str">
-        <f>"\u"&amp;TEXT(I13,"0000")&amp;"?"</f>
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
         <v>\u1329?</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="19.5">
+    <row r="14" spans="1:13" ht="19.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3617,32 +3703,35 @@
         <v>11</v>
       </c>
       <c r="E14" s="24" t="str">
-        <f>F14</f>
+        <f t="shared" si="2"/>
         <v>³</v>
       </c>
       <c r="F14" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D14,2)))</f>
+        <f t="shared" si="3"/>
         <v>³</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="I14" s="15">
-        <f>HEX2DEC(H14)</f>
+      <c r="J14" s="15">
+        <f t="shared" si="0"/>
         <v>1377</v>
       </c>
-      <c r="J14" t="str">
-        <f>"\u"&amp;TEXT(I14,"0000")&amp;"?"</f>
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
         <v>\u1377?</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="19.5">
+    <row r="15" spans="1:13" ht="19.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3656,32 +3745,35 @@
         <v>12</v>
       </c>
       <c r="E15" s="24" t="str">
-        <f>F15</f>
+        <f t="shared" si="2"/>
         <v>´</v>
       </c>
       <c r="F15" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D15,2)))</f>
+        <f t="shared" si="3"/>
         <v>´</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="I15" s="15">
-        <f>HEX2DEC(H15)</f>
+      <c r="J15" s="15">
+        <f t="shared" si="0"/>
         <v>1330</v>
       </c>
-      <c r="J15" t="str">
-        <f>"\u"&amp;TEXT(I15,"0000")&amp;"?"</f>
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
         <v>\u1330?</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19.5">
+    <row r="16" spans="1:13" ht="19.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3695,32 +3787,35 @@
         <v>13</v>
       </c>
       <c r="E16" s="24" t="str">
-        <f>F16</f>
+        <f t="shared" si="2"/>
         <v>µ</v>
       </c>
       <c r="F16" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D16,2)))</f>
+        <f t="shared" si="3"/>
         <v>µ</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="I16" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="I16" s="15">
-        <f>HEX2DEC(H16)</f>
+      <c r="J16" s="15">
+        <f t="shared" si="0"/>
         <v>1378</v>
       </c>
-      <c r="J16" t="str">
-        <f>"\u"&amp;TEXT(I16,"0000")&amp;"?"</f>
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
         <v>\u1378?</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="19.5">
+    <row r="17" spans="1:12" ht="19.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3734,32 +3829,35 @@
         <v>14</v>
       </c>
       <c r="E17" s="24" t="str">
-        <f>F17</f>
+        <f t="shared" si="2"/>
         <v>¶</v>
       </c>
       <c r="F17" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D17,2)))</f>
+        <f t="shared" si="3"/>
         <v>¶</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="I17" s="15">
-        <f>HEX2DEC(H17)</f>
+      <c r="J17" s="15">
+        <f t="shared" si="0"/>
         <v>1331</v>
       </c>
-      <c r="J17" t="str">
-        <f>"\u"&amp;TEXT(I17,"0000")&amp;"?"</f>
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
         <v>\u1331?</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="19.5">
+    <row r="18" spans="1:12" ht="19.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3773,32 +3871,35 @@
         <v>15</v>
       </c>
       <c r="E18" s="24" t="str">
-        <f>F18</f>
+        <f t="shared" si="2"/>
         <v>·</v>
       </c>
       <c r="F18" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D18,2)))</f>
+        <f t="shared" si="3"/>
         <v>·</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="I18" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="I18" s="15">
-        <f>HEX2DEC(H18)</f>
+      <c r="J18" s="15">
+        <f t="shared" si="0"/>
         <v>1379</v>
       </c>
-      <c r="J18" t="str">
-        <f>"\u"&amp;TEXT(I18,"0000")&amp;"?"</f>
+      <c r="K18" t="str">
+        <f t="shared" si="1"/>
         <v>\u1379?</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="19.5">
+    <row r="19" spans="1:12" ht="19.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3812,32 +3913,35 @@
         <v>16</v>
       </c>
       <c r="E19" s="24" t="str">
-        <f>F19</f>
+        <f t="shared" si="2"/>
         <v>¸</v>
       </c>
       <c r="F19" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D19,2)))</f>
+        <f t="shared" si="3"/>
         <v>¸</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="I19" s="15">
-        <f>HEX2DEC(H19)</f>
+      <c r="J19" s="15">
+        <f t="shared" si="0"/>
         <v>1332</v>
       </c>
-      <c r="J19" t="str">
-        <f>"\u"&amp;TEXT(I19,"0000")&amp;"?"</f>
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
         <v>\u1332?</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="19.5">
+    <row r="20" spans="1:12" ht="19.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3851,32 +3955,35 @@
         <v>17</v>
       </c>
       <c r="E20" s="24" t="str">
-        <f>F20</f>
+        <f t="shared" si="2"/>
         <v>¹</v>
       </c>
       <c r="F20" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D20,2)))</f>
+        <f t="shared" si="3"/>
         <v>¹</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="I20" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="I20" s="15">
-        <f>HEX2DEC(H20)</f>
+      <c r="J20" s="15">
+        <f t="shared" si="0"/>
         <v>1380</v>
       </c>
-      <c r="J20" t="str">
-        <f>"\u"&amp;TEXT(I20,"0000")&amp;"?"</f>
+      <c r="K20" t="str">
+        <f t="shared" si="1"/>
         <v>\u1380?</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="19.5">
+    <row r="21" spans="1:12" ht="19.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3890,32 +3997,35 @@
         <v>18</v>
       </c>
       <c r="E21" s="24" t="str">
-        <f>F21</f>
+        <f t="shared" si="2"/>
         <v>º</v>
       </c>
       <c r="F21" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D21,2)))</f>
+        <f t="shared" si="3"/>
         <v>º</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="I21" s="15">
-        <f>HEX2DEC(H21)</f>
+      <c r="J21" s="15">
+        <f t="shared" si="0"/>
         <v>1333</v>
       </c>
-      <c r="J21" t="str">
-        <f>"\u"&amp;TEXT(I21,"0000")&amp;"?"</f>
+      <c r="K21" t="str">
+        <f t="shared" si="1"/>
         <v>\u1333?</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="19.5">
+    <row r="22" spans="1:12" ht="19.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3929,32 +4039,35 @@
         <v>19</v>
       </c>
       <c r="E22" s="24" t="str">
-        <f>F22</f>
+        <f t="shared" si="2"/>
         <v>»</v>
       </c>
       <c r="F22" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D22,2)))</f>
+        <f t="shared" si="3"/>
         <v>»</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="I22" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="I22" s="15">
-        <f>HEX2DEC(H22)</f>
+      <c r="J22" s="15">
+        <f t="shared" si="0"/>
         <v>1381</v>
       </c>
-      <c r="J22" t="str">
-        <f>"\u"&amp;TEXT(I22,"0000")&amp;"?"</f>
+      <c r="K22" t="str">
+        <f t="shared" si="1"/>
         <v>\u1381?</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="19.5">
+    <row r="23" spans="1:12" ht="19.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3968,32 +4081,35 @@
         <v>20</v>
       </c>
       <c r="E23" s="24" t="str">
-        <f>F23</f>
+        <f t="shared" si="2"/>
         <v>¼</v>
       </c>
       <c r="F23" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D23,2)))</f>
+        <f t="shared" si="3"/>
         <v>¼</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="I23" s="15">
-        <f>HEX2DEC(H23)</f>
+      <c r="J23" s="15">
+        <f t="shared" si="0"/>
         <v>1334</v>
       </c>
-      <c r="J23" t="str">
-        <f>"\u"&amp;TEXT(I23,"0000")&amp;"?"</f>
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
         <v>\u1334?</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="19.5">
+    <row r="24" spans="1:12" ht="19.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4007,32 +4123,35 @@
         <v>21</v>
       </c>
       <c r="E24" s="24" t="str">
-        <f>F24</f>
+        <f t="shared" si="2"/>
         <v>½</v>
       </c>
       <c r="F24" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D24,2)))</f>
+        <f t="shared" si="3"/>
         <v>½</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="I24" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="I24" s="15">
-        <f>HEX2DEC(H24)</f>
+      <c r="J24" s="15">
+        <f t="shared" si="0"/>
         <v>1382</v>
       </c>
-      <c r="J24" t="str">
-        <f>"\u"&amp;TEXT(I24,"0000")&amp;"?"</f>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
         <v>\u1382?</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="19.5">
+    <row r="25" spans="1:12" ht="19.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4046,32 +4165,35 @@
         <v>22</v>
       </c>
       <c r="E25" s="24" t="str">
-        <f>F25</f>
+        <f t="shared" si="2"/>
         <v>¾</v>
       </c>
       <c r="F25" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D25,2)))</f>
+        <f t="shared" si="3"/>
         <v>¾</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="I25" s="15">
-        <f>HEX2DEC(H25)</f>
+      <c r="J25" s="15">
+        <f t="shared" si="0"/>
         <v>1335</v>
       </c>
-      <c r="J25" t="str">
-        <f>"\u"&amp;TEXT(I25,"0000")&amp;"?"</f>
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
         <v>\u1335?</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="19.5">
+    <row r="26" spans="1:12" ht="19.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4085,32 +4207,35 @@
         <v>23</v>
       </c>
       <c r="E26" s="24" t="str">
-        <f>F26</f>
+        <f t="shared" si="2"/>
         <v>¿</v>
       </c>
       <c r="F26" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D26,2)))</f>
+        <f t="shared" si="3"/>
         <v>¿</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="I26" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="I26" s="15">
-        <f>HEX2DEC(H26)</f>
+      <c r="J26" s="15">
+        <f t="shared" si="0"/>
         <v>1383</v>
       </c>
-      <c r="J26" t="str">
-        <f>"\u"&amp;TEXT(I26,"0000")&amp;"?"</f>
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
         <v>\u1383?</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="19.5">
+    <row r="27" spans="1:12" ht="19.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4124,32 +4249,35 @@
         <v>24</v>
       </c>
       <c r="E27" s="24" t="str">
-        <f>F27</f>
+        <f t="shared" si="2"/>
         <v>À</v>
       </c>
       <c r="F27" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D27,2)))</f>
+        <f t="shared" si="3"/>
         <v>À</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="I27" s="15">
-        <f>HEX2DEC(H27)</f>
+      <c r="J27" s="15">
+        <f t="shared" si="0"/>
         <v>1336</v>
       </c>
-      <c r="J27" t="str">
-        <f>"\u"&amp;TEXT(I27,"0000")&amp;"?"</f>
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
         <v>\u1336?</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="19.5">
+    <row r="28" spans="1:12" ht="19.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4163,32 +4291,35 @@
         <v>25</v>
       </c>
       <c r="E28" s="24" t="str">
-        <f>F28</f>
+        <f t="shared" si="2"/>
         <v>Á</v>
       </c>
       <c r="F28" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D28,2)))</f>
+        <f t="shared" si="3"/>
         <v>Á</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="I28" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="I28" s="15">
-        <f>HEX2DEC(H28)</f>
+      <c r="J28" s="15">
+        <f t="shared" si="0"/>
         <v>1384</v>
       </c>
-      <c r="J28" t="str">
-        <f>"\u"&amp;TEXT(I28,"0000")&amp;"?"</f>
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
         <v>\u1384?</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="19.5">
+    <row r="29" spans="1:12" ht="19.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4202,32 +4333,35 @@
         <v>26</v>
       </c>
       <c r="E29" s="24" t="str">
-        <f>F29</f>
+        <f t="shared" si="2"/>
         <v>Â</v>
       </c>
       <c r="F29" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D29,2)))</f>
+        <f t="shared" si="3"/>
         <v>Â</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="I29" s="15">
-        <f>HEX2DEC(H29)</f>
+      <c r="J29" s="15">
+        <f t="shared" si="0"/>
         <v>1337</v>
       </c>
-      <c r="J29" t="str">
-        <f>"\u"&amp;TEXT(I29,"0000")&amp;"?"</f>
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
         <v>\u1337?</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="19.5">
+    <row r="30" spans="1:12" ht="19.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4241,32 +4375,35 @@
         <v>27</v>
       </c>
       <c r="E30" s="24" t="str">
-        <f>F30</f>
+        <f t="shared" si="2"/>
         <v>Ã</v>
       </c>
       <c r="F30" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D30,2)))</f>
+        <f t="shared" si="3"/>
         <v>Ã</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="I30" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="I30" s="15">
-        <f>HEX2DEC(H30)</f>
+      <c r="J30" s="15">
+        <f t="shared" si="0"/>
         <v>1385</v>
       </c>
-      <c r="J30" t="str">
-        <f>"\u"&amp;TEXT(I30,"0000")&amp;"?"</f>
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
         <v>\u1385?</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="19.5">
+    <row r="31" spans="1:12" ht="19.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4280,32 +4417,35 @@
         <v>28</v>
       </c>
       <c r="E31" s="24" t="str">
-        <f>F31</f>
+        <f t="shared" si="2"/>
         <v>Ä</v>
       </c>
       <c r="F31" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D31,2)))</f>
+        <f t="shared" si="3"/>
         <v>Ä</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="I31" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="I31" s="15">
-        <f>HEX2DEC(H31)</f>
+      <c r="J31" s="15">
+        <f t="shared" si="0"/>
         <v>1338</v>
       </c>
-      <c r="J31" t="str">
-        <f>"\u"&amp;TEXT(I31,"0000")&amp;"?"</f>
+      <c r="K31" t="str">
+        <f t="shared" si="1"/>
         <v>\u1338?</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="19.5">
+    <row r="32" spans="1:12" ht="19.5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4319,32 +4459,35 @@
         <v>29</v>
       </c>
       <c r="E32" s="24" t="str">
-        <f>F32</f>
+        <f t="shared" si="2"/>
         <v>Å</v>
       </c>
       <c r="F32" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D32,2)))</f>
+        <f t="shared" si="3"/>
         <v>Å</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="I32" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="I32" s="15">
-        <f>HEX2DEC(H32)</f>
+      <c r="J32" s="15">
+        <f t="shared" si="0"/>
         <v>1386</v>
       </c>
-      <c r="J32" t="str">
-        <f>"\u"&amp;TEXT(I32,"0000")&amp;"?"</f>
+      <c r="K32" t="str">
+        <f t="shared" si="1"/>
         <v>\u1386?</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="19.5">
+    <row r="33" spans="1:12" ht="19.5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4358,32 +4501,35 @@
         <v>30</v>
       </c>
       <c r="E33" s="24" t="str">
-        <f>F33</f>
+        <f t="shared" si="2"/>
         <v>Æ</v>
       </c>
       <c r="F33" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D33,2)))</f>
+        <f t="shared" si="3"/>
         <v>Æ</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="I33" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="I33" s="15">
-        <f>HEX2DEC(H33)</f>
+      <c r="J33" s="15">
+        <f t="shared" si="0"/>
         <v>1339</v>
       </c>
-      <c r="J33" t="str">
-        <f>"\u"&amp;TEXT(I33,"0000")&amp;"?"</f>
+      <c r="K33" t="str">
+        <f t="shared" si="1"/>
         <v>\u1339?</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="19.5">
+    <row r="34" spans="1:12" ht="19.5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4397,32 +4543,35 @@
         <v>31</v>
       </c>
       <c r="E34" s="24" t="str">
-        <f>F34</f>
+        <f t="shared" si="2"/>
         <v>Ç</v>
       </c>
       <c r="F34" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D34,2)))</f>
+        <f t="shared" si="3"/>
         <v>Ç</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="I34" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="I34" s="15">
-        <f>HEX2DEC(H34)</f>
+      <c r="J34" s="15">
+        <f t="shared" ref="J34:J65" si="4">HEX2DEC(I34)</f>
         <v>1387</v>
       </c>
-      <c r="J34" t="str">
-        <f>"\u"&amp;TEXT(I34,"0000")&amp;"?"</f>
+      <c r="K34" t="str">
+        <f t="shared" ref="K34:K65" si="5">"\u"&amp;TEXT(J34,"0000")&amp;"?"</f>
         <v>\u1387?</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="19.5">
+    <row r="35" spans="1:12" ht="19.5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4436,32 +4585,35 @@
         <v>32</v>
       </c>
       <c r="E35" s="24" t="str">
-        <f>F35</f>
+        <f t="shared" ref="E35:E66" si="6">F35</f>
         <v>È</v>
       </c>
       <c r="F35" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D35,2)))</f>
+        <f t="shared" ref="F35:F66" si="7">CHAR(HEX2DEC(RIGHT(D35,2)))</f>
         <v>È</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="I35" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="I35" s="15">
-        <f>HEX2DEC(H35)</f>
+      <c r="J35" s="15">
+        <f t="shared" si="4"/>
         <v>1340</v>
       </c>
-      <c r="J35" t="str">
-        <f>"\u"&amp;TEXT(I35,"0000")&amp;"?"</f>
+      <c r="K35" t="str">
+        <f t="shared" si="5"/>
         <v>\u1340?</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="19.5">
+    <row r="36" spans="1:12" ht="19.5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4475,32 +4627,35 @@
         <v>33</v>
       </c>
       <c r="E36" s="24" t="str">
-        <f>F36</f>
+        <f t="shared" si="6"/>
         <v>É</v>
       </c>
       <c r="F36" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D36,2)))</f>
+        <f t="shared" si="7"/>
         <v>É</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="I36" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="I36" s="15">
-        <f>HEX2DEC(H36)</f>
+      <c r="J36" s="15">
+        <f t="shared" si="4"/>
         <v>1388</v>
       </c>
-      <c r="J36" t="str">
-        <f>"\u"&amp;TEXT(I36,"0000")&amp;"?"</f>
+      <c r="K36" t="str">
+        <f t="shared" si="5"/>
         <v>\u1388?</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="19.5">
+    <row r="37" spans="1:12" ht="19.5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4514,32 +4669,35 @@
         <v>34</v>
       </c>
       <c r="E37" s="24" t="str">
-        <f>F37</f>
+        <f t="shared" si="6"/>
         <v>Ê</v>
       </c>
       <c r="F37" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D37,2)))</f>
+        <f t="shared" si="7"/>
         <v>Ê</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="I37" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="I37" s="15">
-        <f>HEX2DEC(H37)</f>
+      <c r="J37" s="15">
+        <f t="shared" si="4"/>
         <v>1341</v>
       </c>
-      <c r="J37" t="str">
-        <f>"\u"&amp;TEXT(I37,"0000")&amp;"?"</f>
+      <c r="K37" t="str">
+        <f t="shared" si="5"/>
         <v>\u1341?</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="19.5">
+    <row r="38" spans="1:12" ht="19.5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4553,32 +4711,35 @@
         <v>35</v>
       </c>
       <c r="E38" s="24" t="str">
-        <f>F38</f>
+        <f t="shared" si="6"/>
         <v>Ë</v>
       </c>
       <c r="F38" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D38,2)))</f>
+        <f t="shared" si="7"/>
         <v>Ë</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="I38" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="I38" s="15">
-        <f>HEX2DEC(H38)</f>
+      <c r="J38" s="15">
+        <f t="shared" si="4"/>
         <v>1389</v>
       </c>
-      <c r="J38" t="str">
-        <f>"\u"&amp;TEXT(I38,"0000")&amp;"?"</f>
+      <c r="K38" t="str">
+        <f t="shared" si="5"/>
         <v>\u1389?</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="19.5">
+    <row r="39" spans="1:12" ht="19.5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4592,32 +4753,35 @@
         <v>36</v>
       </c>
       <c r="E39" s="24" t="str">
-        <f>F39</f>
+        <f t="shared" si="6"/>
         <v>Ì</v>
       </c>
       <c r="F39" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D39,2)))</f>
+        <f t="shared" si="7"/>
         <v>Ì</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I39" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="I39" s="15">
-        <f>HEX2DEC(H39)</f>
+      <c r="J39" s="15">
+        <f t="shared" si="4"/>
         <v>1342</v>
       </c>
-      <c r="J39" t="str">
-        <f>"\u"&amp;TEXT(I39,"0000")&amp;"?"</f>
+      <c r="K39" t="str">
+        <f t="shared" si="5"/>
         <v>\u1342?</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="19.5">
+    <row r="40" spans="1:12" ht="19.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4631,32 +4795,35 @@
         <v>37</v>
       </c>
       <c r="E40" s="24" t="str">
-        <f>F40</f>
+        <f t="shared" si="6"/>
         <v>Í</v>
       </c>
       <c r="F40" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D40,2)))</f>
+        <f t="shared" si="7"/>
         <v>Í</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="I40" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="I40" s="15">
-        <f>HEX2DEC(H40)</f>
+      <c r="J40" s="15">
+        <f t="shared" si="4"/>
         <v>1390</v>
       </c>
-      <c r="J40" t="str">
-        <f>"\u"&amp;TEXT(I40,"0000")&amp;"?"</f>
+      <c r="K40" t="str">
+        <f t="shared" si="5"/>
         <v>\u1390?</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="19.5">
+    <row r="41" spans="1:12" ht="19.5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4670,32 +4837,35 @@
         <v>38</v>
       </c>
       <c r="E41" s="24" t="str">
-        <f>F41</f>
+        <f t="shared" si="6"/>
         <v>Î</v>
       </c>
       <c r="F41" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D41,2)))</f>
+        <f t="shared" si="7"/>
         <v>Î</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I41" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="I41" s="15">
-        <f>HEX2DEC(H41)</f>
+      <c r="J41" s="15">
+        <f t="shared" si="4"/>
         <v>1343</v>
       </c>
-      <c r="J41" t="str">
-        <f>"\u"&amp;TEXT(I41,"0000")&amp;"?"</f>
+      <c r="K41" t="str">
+        <f t="shared" si="5"/>
         <v>\u1343?</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="19.5">
+    <row r="42" spans="1:12" ht="19.5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4709,32 +4879,35 @@
         <v>39</v>
       </c>
       <c r="E42" s="24" t="str">
-        <f>F42</f>
+        <f t="shared" si="6"/>
         <v>Ï</v>
       </c>
       <c r="F42" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D42,2)))</f>
+        <f t="shared" si="7"/>
         <v>Ï</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="I42" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="I42" s="15">
-        <f>HEX2DEC(H42)</f>
+      <c r="J42" s="15">
+        <f t="shared" si="4"/>
         <v>1391</v>
       </c>
-      <c r="J42" t="str">
-        <f>"\u"&amp;TEXT(I42,"0000")&amp;"?"</f>
+      <c r="K42" t="str">
+        <f t="shared" si="5"/>
         <v>\u1391?</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="19.5">
+    <row r="43" spans="1:12" ht="19.5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4748,32 +4921,35 @@
         <v>40</v>
       </c>
       <c r="E43" s="24" t="str">
-        <f>F43</f>
+        <f t="shared" si="6"/>
         <v>Ð</v>
       </c>
       <c r="F43" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D43,2)))</f>
+        <f t="shared" si="7"/>
         <v>Ð</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="H43" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="I43" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="I43" s="15">
-        <f>HEX2DEC(H43)</f>
+      <c r="J43" s="15">
+        <f t="shared" si="4"/>
         <v>1344</v>
       </c>
-      <c r="J43" t="str">
-        <f>"\u"&amp;TEXT(I43,"0000")&amp;"?"</f>
+      <c r="K43" t="str">
+        <f t="shared" si="5"/>
         <v>\u1344?</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="19.5">
+    <row r="44" spans="1:12" ht="19.5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4787,32 +4963,35 @@
         <v>41</v>
       </c>
       <c r="E44" s="24" t="str">
-        <f>F44</f>
+        <f t="shared" si="6"/>
         <v>Ñ</v>
       </c>
       <c r="F44" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D44,2)))</f>
+        <f t="shared" si="7"/>
         <v>Ñ</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="I44" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="I44" s="15">
-        <f>HEX2DEC(H44)</f>
+      <c r="J44" s="15">
+        <f t="shared" si="4"/>
         <v>1392</v>
       </c>
-      <c r="J44" t="str">
-        <f>"\u"&amp;TEXT(I44,"0000")&amp;"?"</f>
+      <c r="K44" t="str">
+        <f t="shared" si="5"/>
         <v>\u1392?</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="19.5">
+    <row r="45" spans="1:12" ht="19.5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4826,32 +5005,35 @@
         <v>42</v>
       </c>
       <c r="E45" s="24" t="str">
-        <f>F45</f>
+        <f t="shared" si="6"/>
         <v>Ò</v>
       </c>
       <c r="F45" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D45,2)))</f>
+        <f t="shared" si="7"/>
         <v>Ò</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="H45" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="I45" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="I45" s="15">
-        <f>HEX2DEC(H45)</f>
+      <c r="J45" s="15">
+        <f t="shared" si="4"/>
         <v>1345</v>
       </c>
-      <c r="J45" t="str">
-        <f>"\u"&amp;TEXT(I45,"0000")&amp;"?"</f>
+      <c r="K45" t="str">
+        <f t="shared" si="5"/>
         <v>\u1345?</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="19.5">
+    <row r="46" spans="1:12" ht="19.5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4865,32 +5047,35 @@
         <v>43</v>
       </c>
       <c r="E46" s="24" t="str">
-        <f>F46</f>
+        <f t="shared" si="6"/>
         <v>Ó</v>
       </c>
       <c r="F46" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D46,2)))</f>
+        <f t="shared" si="7"/>
         <v>Ó</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="I46" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="I46" s="15">
-        <f>HEX2DEC(H46)</f>
+      <c r="J46" s="15">
+        <f t="shared" si="4"/>
         <v>1393</v>
       </c>
-      <c r="J46" t="str">
-        <f>"\u"&amp;TEXT(I46,"0000")&amp;"?"</f>
+      <c r="K46" t="str">
+        <f t="shared" si="5"/>
         <v>\u1393?</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="19.5">
+    <row r="47" spans="1:12" ht="19.5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4904,32 +5089,35 @@
         <v>44</v>
       </c>
       <c r="E47" s="24" t="str">
-        <f>F47</f>
+        <f t="shared" si="6"/>
         <v>Ô</v>
       </c>
       <c r="F47" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D47,2)))</f>
+        <f t="shared" si="7"/>
         <v>Ô</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H47" s="16" t="s">
+      <c r="H47" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I47" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="I47" s="15">
-        <f>HEX2DEC(H47)</f>
+      <c r="J47" s="15">
+        <f t="shared" si="4"/>
         <v>1346</v>
       </c>
-      <c r="J47" t="str">
-        <f>"\u"&amp;TEXT(I47,"0000")&amp;"?"</f>
+      <c r="K47" t="str">
+        <f t="shared" si="5"/>
         <v>\u1346?</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="19.5">
+    <row r="48" spans="1:12" ht="19.5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4943,32 +5131,35 @@
         <v>45</v>
       </c>
       <c r="E48" s="24" t="str">
-        <f>F48</f>
+        <f t="shared" si="6"/>
         <v>Õ</v>
       </c>
       <c r="F48" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D48,2)))</f>
+        <f t="shared" si="7"/>
         <v>Õ</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="H48" s="16" t="s">
+      <c r="H48" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="I48" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="I48" s="15">
-        <f>HEX2DEC(H48)</f>
+      <c r="J48" s="15">
+        <f t="shared" si="4"/>
         <v>1394</v>
       </c>
-      <c r="J48" t="str">
-        <f>"\u"&amp;TEXT(I48,"0000")&amp;"?"</f>
+      <c r="K48" t="str">
+        <f t="shared" si="5"/>
         <v>\u1394?</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="19.5">
+    <row r="49" spans="1:12" ht="19.5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4982,32 +5173,35 @@
         <v>46</v>
       </c>
       <c r="E49" s="24" t="str">
-        <f>F49</f>
+        <f t="shared" si="6"/>
         <v>Ö</v>
       </c>
       <c r="F49" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D49,2)))</f>
+        <f t="shared" si="7"/>
         <v>Ö</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H49" s="16" t="s">
+      <c r="H49" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="I49" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="I49" s="15">
-        <f>HEX2DEC(H49)</f>
+      <c r="J49" s="15">
+        <f t="shared" si="4"/>
         <v>1347</v>
       </c>
-      <c r="J49" t="str">
-        <f>"\u"&amp;TEXT(I49,"0000")&amp;"?"</f>
+      <c r="K49" t="str">
+        <f t="shared" si="5"/>
         <v>\u1347?</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="19.5">
+    <row r="50" spans="1:12" ht="19.5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5021,32 +5215,35 @@
         <v>47</v>
       </c>
       <c r="E50" s="24" t="str">
-        <f>F50</f>
+        <f t="shared" si="6"/>
         <v>×</v>
       </c>
       <c r="F50" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D50,2)))</f>
+        <f t="shared" si="7"/>
         <v>×</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="H50" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="I50" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="I50" s="15">
-        <f>HEX2DEC(H50)</f>
+      <c r="J50" s="15">
+        <f t="shared" si="4"/>
         <v>1395</v>
       </c>
-      <c r="J50" t="str">
-        <f>"\u"&amp;TEXT(I50,"0000")&amp;"?"</f>
+      <c r="K50" t="str">
+        <f t="shared" si="5"/>
         <v>\u1395?</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="19.5">
+    <row r="51" spans="1:12" ht="19.5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5060,32 +5257,35 @@
         <v>48</v>
       </c>
       <c r="E51" s="24" t="str">
-        <f>F51</f>
+        <f t="shared" si="6"/>
         <v>Ø</v>
       </c>
       <c r="F51" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D51,2)))</f>
+        <f t="shared" si="7"/>
         <v>Ø</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H51" s="16" t="s">
+      <c r="H51" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="I51" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="I51" s="15">
-        <f>HEX2DEC(H51)</f>
+      <c r="J51" s="15">
+        <f t="shared" si="4"/>
         <v>1348</v>
       </c>
-      <c r="J51" t="str">
-        <f>"\u"&amp;TEXT(I51,"0000")&amp;"?"</f>
+      <c r="K51" t="str">
+        <f t="shared" si="5"/>
         <v>\u1348?</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="19.5">
+    <row r="52" spans="1:12" ht="19.5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5099,32 +5299,35 @@
         <v>49</v>
       </c>
       <c r="E52" s="24" t="str">
-        <f>F52</f>
+        <f t="shared" si="6"/>
         <v>Ù</v>
       </c>
       <c r="F52" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D52,2)))</f>
+        <f t="shared" si="7"/>
         <v>Ù</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="H52" s="16" t="s">
+      <c r="H52" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="I52" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="I52" s="15">
-        <f>HEX2DEC(H52)</f>
+      <c r="J52" s="15">
+        <f t="shared" si="4"/>
         <v>1396</v>
       </c>
-      <c r="J52" t="str">
-        <f>"\u"&amp;TEXT(I52,"0000")&amp;"?"</f>
+      <c r="K52" t="str">
+        <f t="shared" si="5"/>
         <v>\u1396?</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="19.5">
+    <row r="53" spans="1:12" ht="19.5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5138,32 +5341,35 @@
         <v>50</v>
       </c>
       <c r="E53" s="24" t="str">
-        <f>F53</f>
+        <f t="shared" si="6"/>
         <v>Ú</v>
       </c>
       <c r="F53" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D53,2)))</f>
+        <f t="shared" si="7"/>
         <v>Ú</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H53" s="16" t="s">
+      <c r="H53" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="I53" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="I53" s="15">
-        <f>HEX2DEC(H53)</f>
+      <c r="J53" s="15">
+        <f t="shared" si="4"/>
         <v>1349</v>
       </c>
-      <c r="J53" t="str">
-        <f>"\u"&amp;TEXT(I53,"0000")&amp;"?"</f>
+      <c r="K53" t="str">
+        <f t="shared" si="5"/>
         <v>\u1349?</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="19.5">
+    <row r="54" spans="1:12" ht="19.5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5177,32 +5383,35 @@
         <v>51</v>
       </c>
       <c r="E54" s="24" t="str">
-        <f>F54</f>
+        <f t="shared" si="6"/>
         <v>Û</v>
       </c>
       <c r="F54" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D54,2)))</f>
+        <f t="shared" si="7"/>
         <v>Û</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="H54" s="16" t="s">
+      <c r="H54" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="I54" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="I54" s="15">
-        <f>HEX2DEC(H54)</f>
+      <c r="J54" s="15">
+        <f t="shared" si="4"/>
         <v>1397</v>
       </c>
-      <c r="J54" t="str">
-        <f>"\u"&amp;TEXT(I54,"0000")&amp;"?"</f>
+      <c r="K54" t="str">
+        <f t="shared" si="5"/>
         <v>\u1397?</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="19.5">
+    <row r="55" spans="1:12" ht="19.5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5216,32 +5425,35 @@
         <v>52</v>
       </c>
       <c r="E55" s="24" t="str">
-        <f>F55</f>
+        <f t="shared" si="6"/>
         <v>Ü</v>
       </c>
       <c r="F55" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D55,2)))</f>
+        <f t="shared" si="7"/>
         <v>Ü</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H55" s="16" t="s">
+      <c r="H55" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="I55" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="I55" s="15">
-        <f>HEX2DEC(H55)</f>
+      <c r="J55" s="15">
+        <f t="shared" si="4"/>
         <v>1350</v>
       </c>
-      <c r="J55" t="str">
-        <f>"\u"&amp;TEXT(I55,"0000")&amp;"?"</f>
+      <c r="K55" t="str">
+        <f t="shared" si="5"/>
         <v>\u1350?</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="19.5">
+    <row r="56" spans="1:12" ht="19.5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5255,32 +5467,35 @@
         <v>53</v>
       </c>
       <c r="E56" s="24" t="str">
-        <f>F56</f>
+        <f t="shared" si="6"/>
         <v>Ý</v>
       </c>
       <c r="F56" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D56,2)))</f>
+        <f t="shared" si="7"/>
         <v>Ý</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="H56" s="16" t="s">
+      <c r="H56" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="I56" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="I56" s="15">
-        <f>HEX2DEC(H56)</f>
+      <c r="J56" s="15">
+        <f t="shared" si="4"/>
         <v>1398</v>
       </c>
-      <c r="J56" t="str">
-        <f>"\u"&amp;TEXT(I56,"0000")&amp;"?"</f>
+      <c r="K56" t="str">
+        <f t="shared" si="5"/>
         <v>\u1398?</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="19.5">
+    <row r="57" spans="1:12" ht="19.5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5294,32 +5509,35 @@
         <v>54</v>
       </c>
       <c r="E57" s="24" t="str">
-        <f>F57</f>
+        <f t="shared" si="6"/>
         <v>Þ</v>
       </c>
       <c r="F57" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D57,2)))</f>
+        <f t="shared" si="7"/>
         <v>Þ</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H57" s="16" t="s">
+      <c r="H57" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="I57" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="I57" s="15">
-        <f>HEX2DEC(H57)</f>
+      <c r="J57" s="15">
+        <f t="shared" si="4"/>
         <v>1351</v>
       </c>
-      <c r="J57" t="str">
-        <f>"\u"&amp;TEXT(I57,"0000")&amp;"?"</f>
+      <c r="K57" t="str">
+        <f t="shared" si="5"/>
         <v>\u1351?</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="19.5">
+    <row r="58" spans="1:12" ht="19.5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5333,32 +5551,35 @@
         <v>55</v>
       </c>
       <c r="E58" s="24" t="str">
-        <f>F58</f>
+        <f t="shared" si="6"/>
         <v>ß</v>
       </c>
       <c r="F58" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D58,2)))</f>
+        <f t="shared" si="7"/>
         <v>ß</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="H58" s="16" t="s">
+      <c r="H58" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="I58" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="I58" s="15">
-        <f>HEX2DEC(H58)</f>
+      <c r="J58" s="15">
+        <f t="shared" si="4"/>
         <v>1399</v>
       </c>
-      <c r="J58" t="str">
-        <f>"\u"&amp;TEXT(I58,"0000")&amp;"?"</f>
+      <c r="K58" t="str">
+        <f t="shared" si="5"/>
         <v>\u1399?</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="19.5">
+    <row r="59" spans="1:12" ht="19.5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5372,32 +5593,35 @@
         <v>56</v>
       </c>
       <c r="E59" s="24" t="str">
-        <f>F59</f>
+        <f t="shared" si="6"/>
         <v>à</v>
       </c>
       <c r="F59" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D59,2)))</f>
+        <f t="shared" si="7"/>
         <v>à</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H59" s="16" t="s">
+      <c r="H59" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="I59" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="I59" s="15">
-        <f>HEX2DEC(H59)</f>
+      <c r="J59" s="15">
+        <f t="shared" si="4"/>
         <v>1352</v>
       </c>
-      <c r="J59" t="str">
-        <f>"\u"&amp;TEXT(I59,"0000")&amp;"?"</f>
+      <c r="K59" t="str">
+        <f t="shared" si="5"/>
         <v>\u1352?</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="19.5">
+    <row r="60" spans="1:12" ht="19.5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5411,32 +5635,35 @@
         <v>57</v>
       </c>
       <c r="E60" s="24" t="str">
-        <f>F60</f>
+        <f t="shared" si="6"/>
         <v>á</v>
       </c>
       <c r="F60" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D60,2)))</f>
+        <f t="shared" si="7"/>
         <v>á</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="H60" s="16" t="s">
+      <c r="H60" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="I60" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="I60" s="15">
-        <f>HEX2DEC(H60)</f>
+      <c r="J60" s="15">
+        <f t="shared" si="4"/>
         <v>1400</v>
       </c>
-      <c r="J60" t="str">
-        <f>"\u"&amp;TEXT(I60,"0000")&amp;"?"</f>
+      <c r="K60" t="str">
+        <f t="shared" si="5"/>
         <v>\u1400?</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="19.5">
+    <row r="61" spans="1:12" ht="19.5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5450,32 +5677,35 @@
         <v>58</v>
       </c>
       <c r="E61" s="24" t="str">
-        <f>F61</f>
+        <f t="shared" si="6"/>
         <v>â</v>
       </c>
       <c r="F61" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D61,2)))</f>
+        <f t="shared" si="7"/>
         <v>â</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H61" s="16" t="s">
+      <c r="H61" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="I61" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="I61" s="15">
-        <f>HEX2DEC(H61)</f>
+      <c r="J61" s="15">
+        <f t="shared" si="4"/>
         <v>1353</v>
       </c>
-      <c r="J61" t="str">
-        <f>"\u"&amp;TEXT(I61,"0000")&amp;"?"</f>
+      <c r="K61" t="str">
+        <f t="shared" si="5"/>
         <v>\u1353?</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="19.5">
+    <row r="62" spans="1:12" ht="19.5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5489,32 +5719,35 @@
         <v>59</v>
       </c>
       <c r="E62" s="24" t="str">
-        <f>F62</f>
+        <f t="shared" si="6"/>
         <v>ã</v>
       </c>
       <c r="F62" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D62,2)))</f>
+        <f t="shared" si="7"/>
         <v>ã</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="H62" s="16" t="s">
+      <c r="H62" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="I62" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="I62" s="15">
-        <f>HEX2DEC(H62)</f>
+      <c r="J62" s="15">
+        <f t="shared" si="4"/>
         <v>1401</v>
       </c>
-      <c r="J62" t="str">
-        <f>"\u"&amp;TEXT(I62,"0000")&amp;"?"</f>
+      <c r="K62" t="str">
+        <f t="shared" si="5"/>
         <v>\u1401?</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="19.5">
+    <row r="63" spans="1:12" ht="19.5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5528,32 +5761,35 @@
         <v>60</v>
       </c>
       <c r="E63" s="24" t="str">
-        <f>F63</f>
+        <f t="shared" si="6"/>
         <v>ä</v>
       </c>
       <c r="F63" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D63,2)))</f>
+        <f t="shared" si="7"/>
         <v>ä</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H63" s="16" t="s">
+      <c r="H63" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="I63" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="I63" s="15">
-        <f>HEX2DEC(H63)</f>
+      <c r="J63" s="15">
+        <f t="shared" si="4"/>
         <v>1354</v>
       </c>
-      <c r="J63" t="str">
-        <f>"\u"&amp;TEXT(I63,"0000")&amp;"?"</f>
+      <c r="K63" t="str">
+        <f t="shared" si="5"/>
         <v>\u1354?</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="19.5">
+    <row r="64" spans="1:12" ht="19.5">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5567,32 +5803,35 @@
         <v>61</v>
       </c>
       <c r="E64" s="24" t="str">
-        <f>F64</f>
+        <f t="shared" si="6"/>
         <v>å</v>
       </c>
       <c r="F64" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D64,2)))</f>
+        <f t="shared" si="7"/>
         <v>å</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="H64" s="16" t="s">
+      <c r="H64" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="I64" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="I64" s="15">
-        <f>HEX2DEC(H64)</f>
+      <c r="J64" s="15">
+        <f t="shared" si="4"/>
         <v>1402</v>
       </c>
-      <c r="J64" t="str">
-        <f>"\u"&amp;TEXT(I64,"0000")&amp;"?"</f>
+      <c r="K64" t="str">
+        <f t="shared" si="5"/>
         <v>\u1402?</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="19.5">
+    <row r="65" spans="1:12" ht="19.5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5606,32 +5845,35 @@
         <v>62</v>
       </c>
       <c r="E65" s="24" t="str">
-        <f>F65</f>
+        <f t="shared" si="6"/>
         <v>æ</v>
       </c>
       <c r="F65" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D65,2)))</f>
+        <f t="shared" si="7"/>
         <v>æ</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H65" s="16" t="s">
+      <c r="H65" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="I65" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="I65" s="15">
-        <f>HEX2DEC(H65)</f>
+      <c r="J65" s="15">
+        <f t="shared" si="4"/>
         <v>1355</v>
       </c>
-      <c r="J65" t="str">
-        <f>"\u"&amp;TEXT(I65,"0000")&amp;"?"</f>
+      <c r="K65" t="str">
+        <f t="shared" si="5"/>
         <v>\u1355?</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="19.5">
+    <row r="66" spans="1:12" ht="19.5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5645,32 +5887,35 @@
         <v>63</v>
       </c>
       <c r="E66" s="24" t="str">
-        <f>F66</f>
+        <f t="shared" si="6"/>
         <v>ç</v>
       </c>
       <c r="F66" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D66,2)))</f>
+        <f t="shared" si="7"/>
         <v>ç</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="H66" s="16" t="s">
+      <c r="H66" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="I66" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="I66" s="15">
-        <f>HEX2DEC(H66)</f>
+      <c r="J66" s="15">
+        <f t="shared" ref="J66:J97" si="8">HEX2DEC(I66)</f>
         <v>1403</v>
       </c>
-      <c r="J66" t="str">
-        <f>"\u"&amp;TEXT(I66,"0000")&amp;"?"</f>
+      <c r="K66" t="str">
+        <f t="shared" ref="K66:K97" si="9">"\u"&amp;TEXT(J66,"0000")&amp;"?"</f>
         <v>\u1403?</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="19.5">
+    <row r="67" spans="1:12" ht="19.5">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5684,32 +5929,35 @@
         <v>64</v>
       </c>
       <c r="E67" s="24" t="str">
-        <f>F67</f>
+        <f t="shared" ref="E67:E98" si="10">F67</f>
         <v>è</v>
       </c>
       <c r="F67" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D67,2)))</f>
+        <f t="shared" ref="F67:F89" si="11">CHAR(HEX2DEC(RIGHT(D67,2)))</f>
         <v>è</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H67" s="16" t="s">
+      <c r="H67" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="I67" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="I67" s="15">
-        <f>HEX2DEC(H67)</f>
+      <c r="J67" s="15">
+        <f t="shared" si="8"/>
         <v>1356</v>
       </c>
-      <c r="J67" t="str">
-        <f>"\u"&amp;TEXT(I67,"0000")&amp;"?"</f>
+      <c r="K67" t="str">
+        <f t="shared" si="9"/>
         <v>\u1356?</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="19.5">
+    <row r="68" spans="1:12" ht="19.5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5723,32 +5971,35 @@
         <v>65</v>
       </c>
       <c r="E68" s="24" t="str">
-        <f>F68</f>
+        <f t="shared" si="10"/>
         <v>é</v>
       </c>
       <c r="F68" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D68,2)))</f>
+        <f t="shared" si="11"/>
         <v>é</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="H68" s="16" t="s">
+      <c r="H68" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="I68" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="I68" s="15">
-        <f>HEX2DEC(H68)</f>
+      <c r="J68" s="15">
+        <f t="shared" si="8"/>
         <v>1404</v>
       </c>
-      <c r="J68" t="str">
-        <f>"\u"&amp;TEXT(I68,"0000")&amp;"?"</f>
+      <c r="K68" t="str">
+        <f t="shared" si="9"/>
         <v>\u1404?</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="19.5">
+    <row r="69" spans="1:12" ht="19.5">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5762,32 +6013,35 @@
         <v>66</v>
       </c>
       <c r="E69" s="24" t="str">
-        <f>F69</f>
+        <f t="shared" si="10"/>
         <v>ê</v>
       </c>
       <c r="F69" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D69,2)))</f>
+        <f t="shared" si="11"/>
         <v>ê</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H69" s="16" t="s">
+      <c r="H69" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="I69" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I69" s="15">
-        <f>HEX2DEC(H69)</f>
+      <c r="J69" s="15">
+        <f t="shared" si="8"/>
         <v>1357</v>
       </c>
-      <c r="J69" t="str">
-        <f>"\u"&amp;TEXT(I69,"0000")&amp;"?"</f>
+      <c r="K69" t="str">
+        <f t="shared" si="9"/>
         <v>\u1357?</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="19.5">
+    <row r="70" spans="1:12" ht="19.5">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5801,32 +6055,35 @@
         <v>67</v>
       </c>
       <c r="E70" s="24" t="str">
-        <f>F70</f>
+        <f t="shared" si="10"/>
         <v>ë</v>
       </c>
       <c r="F70" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D70,2)))</f>
+        <f t="shared" si="11"/>
         <v>ë</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="H70" s="16" t="s">
+      <c r="H70" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="I70" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="I70" s="15">
-        <f>HEX2DEC(H70)</f>
+      <c r="J70" s="15">
+        <f t="shared" si="8"/>
         <v>1405</v>
       </c>
-      <c r="J70" t="str">
-        <f>"\u"&amp;TEXT(I70,"0000")&amp;"?"</f>
+      <c r="K70" t="str">
+        <f t="shared" si="9"/>
         <v>\u1405?</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="19.5">
+    <row r="71" spans="1:12" ht="19.5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5840,32 +6097,35 @@
         <v>68</v>
       </c>
       <c r="E71" s="24" t="str">
-        <f>F71</f>
+        <f t="shared" si="10"/>
         <v>ì</v>
       </c>
       <c r="F71" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D71,2)))</f>
+        <f t="shared" si="11"/>
         <v>ì</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H71" s="16" t="s">
+      <c r="H71" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="I71" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="I71" s="15">
-        <f>HEX2DEC(H71)</f>
+      <c r="J71" s="15">
+        <f t="shared" si="8"/>
         <v>1358</v>
       </c>
-      <c r="J71" t="str">
-        <f>"\u"&amp;TEXT(I71,"0000")&amp;"?"</f>
+      <c r="K71" t="str">
+        <f t="shared" si="9"/>
         <v>\u1358?</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="19.5">
+    <row r="72" spans="1:12" ht="19.5">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5879,32 +6139,35 @@
         <v>69</v>
       </c>
       <c r="E72" s="24" t="str">
-        <f>F72</f>
+        <f t="shared" si="10"/>
         <v>í</v>
       </c>
       <c r="F72" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D72,2)))</f>
+        <f t="shared" si="11"/>
         <v>í</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="H72" s="16" t="s">
+      <c r="H72" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="I72" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="I72" s="15">
-        <f>HEX2DEC(H72)</f>
+      <c r="J72" s="15">
+        <f t="shared" si="8"/>
         <v>1406</v>
       </c>
-      <c r="J72" t="str">
-        <f>"\u"&amp;TEXT(I72,"0000")&amp;"?"</f>
+      <c r="K72" t="str">
+        <f t="shared" si="9"/>
         <v>\u1406?</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="19.5">
+    <row r="73" spans="1:12" ht="19.5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5918,32 +6181,35 @@
         <v>70</v>
       </c>
       <c r="E73" s="24" t="str">
-        <f>F73</f>
+        <f t="shared" si="10"/>
         <v>î</v>
       </c>
       <c r="F73" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D73,2)))</f>
+        <f t="shared" si="11"/>
         <v>î</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="H73" s="16" t="s">
+      <c r="H73" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="I73" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="I73" s="15">
-        <f>HEX2DEC(H73)</f>
+      <c r="J73" s="15">
+        <f t="shared" si="8"/>
         <v>1359</v>
       </c>
-      <c r="J73" t="str">
-        <f>"\u"&amp;TEXT(I73,"0000")&amp;"?"</f>
+      <c r="K73" t="str">
+        <f t="shared" si="9"/>
         <v>\u1359?</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="19.5">
+    <row r="74" spans="1:12" ht="19.5">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5957,32 +6223,35 @@
         <v>71</v>
       </c>
       <c r="E74" s="24" t="str">
-        <f>F74</f>
+        <f t="shared" si="10"/>
         <v>ï</v>
       </c>
       <c r="F74" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D74,2)))</f>
+        <f t="shared" si="11"/>
         <v>ï</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="H74" s="16" t="s">
+      <c r="H74" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="I74" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="I74" s="15">
-        <f>HEX2DEC(H74)</f>
+      <c r="J74" s="15">
+        <f t="shared" si="8"/>
         <v>1407</v>
       </c>
-      <c r="J74" t="str">
-        <f>"\u"&amp;TEXT(I74,"0000")&amp;"?"</f>
+      <c r="K74" t="str">
+        <f t="shared" si="9"/>
         <v>\u1407?</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="19.5">
+    <row r="75" spans="1:12" ht="19.5">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5996,32 +6265,35 @@
         <v>72</v>
       </c>
       <c r="E75" s="24" t="str">
-        <f>F75</f>
+        <f t="shared" si="10"/>
         <v>ð</v>
       </c>
       <c r="F75" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D75,2)))</f>
+        <f t="shared" si="11"/>
         <v>ð</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H75" s="16" t="s">
+      <c r="H75" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="I75" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="I75" s="15">
-        <f>HEX2DEC(H75)</f>
+      <c r="J75" s="15">
+        <f t="shared" si="8"/>
         <v>1360</v>
       </c>
-      <c r="J75" t="str">
-        <f>"\u"&amp;TEXT(I75,"0000")&amp;"?"</f>
+      <c r="K75" t="str">
+        <f t="shared" si="9"/>
         <v>\u1360?</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="19.5">
+    <row r="76" spans="1:12" ht="19.5">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6035,32 +6307,35 @@
         <v>73</v>
       </c>
       <c r="E76" s="24" t="str">
-        <f>F76</f>
+        <f t="shared" si="10"/>
         <v>ñ</v>
       </c>
       <c r="F76" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D76,2)))</f>
+        <f t="shared" si="11"/>
         <v>ñ</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="H76" s="16" t="s">
+      <c r="H76" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="I76" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="I76" s="15">
-        <f>HEX2DEC(H76)</f>
+      <c r="J76" s="15">
+        <f t="shared" si="8"/>
         <v>1408</v>
       </c>
-      <c r="J76" t="str">
-        <f>"\u"&amp;TEXT(I76,"0000")&amp;"?"</f>
+      <c r="K76" t="str">
+        <f t="shared" si="9"/>
         <v>\u1408?</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="19.5">
+    <row r="77" spans="1:12" ht="19.5">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6074,32 +6349,35 @@
         <v>74</v>
       </c>
       <c r="E77" s="24" t="str">
-        <f>F77</f>
+        <f t="shared" si="10"/>
         <v>ò</v>
       </c>
       <c r="F77" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D77,2)))</f>
+        <f t="shared" si="11"/>
         <v>ò</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H77" s="16" t="s">
+      <c r="H77" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="I77" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="I77" s="15">
-        <f>HEX2DEC(H77)</f>
+      <c r="J77" s="15">
+        <f t="shared" si="8"/>
         <v>1361</v>
       </c>
-      <c r="J77" t="str">
-        <f>"\u"&amp;TEXT(I77,"0000")&amp;"?"</f>
+      <c r="K77" t="str">
+        <f t="shared" si="9"/>
         <v>\u1361?</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="19.5">
+    <row r="78" spans="1:12" ht="19.5">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6113,32 +6391,35 @@
         <v>75</v>
       </c>
       <c r="E78" s="24" t="str">
-        <f>F78</f>
+        <f t="shared" si="10"/>
         <v>ó</v>
       </c>
       <c r="F78" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D78,2)))</f>
+        <f t="shared" si="11"/>
         <v>ó</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="H78" s="16" t="s">
+      <c r="H78" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="I78" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="I78" s="15">
-        <f>HEX2DEC(H78)</f>
+      <c r="J78" s="15">
+        <f t="shared" si="8"/>
         <v>1409</v>
       </c>
-      <c r="J78" t="str">
-        <f>"\u"&amp;TEXT(I78,"0000")&amp;"?"</f>
+      <c r="K78" t="str">
+        <f t="shared" si="9"/>
         <v>\u1409?</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="19.5">
+    <row r="79" spans="1:12" ht="19.5">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6152,32 +6433,35 @@
         <v>76</v>
       </c>
       <c r="E79" s="24" t="str">
-        <f>F79</f>
+        <f t="shared" si="10"/>
         <v>ô</v>
       </c>
       <c r="F79" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D79,2)))</f>
+        <f t="shared" si="11"/>
         <v>ô</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="H79" s="16" t="s">
+      <c r="H79" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="I79" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="I79" s="15">
-        <f>HEX2DEC(H79)</f>
+      <c r="J79" s="15">
+        <f t="shared" si="8"/>
         <v>1362</v>
       </c>
-      <c r="J79" t="str">
-        <f>"\u"&amp;TEXT(I79,"0000")&amp;"?"</f>
+      <c r="K79" t="str">
+        <f t="shared" si="9"/>
         <v>\u1362?</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="19.5">
+    <row r="80" spans="1:12" ht="19.5">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6191,32 +6475,35 @@
         <v>77</v>
       </c>
       <c r="E80" s="24" t="str">
-        <f>F80</f>
+        <f t="shared" si="10"/>
         <v>õ</v>
       </c>
       <c r="F80" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D80,2)))</f>
+        <f t="shared" si="11"/>
         <v>õ</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="H80" s="16" t="s">
+      <c r="H80" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="I80" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="I80" s="15">
-        <f>HEX2DEC(H80)</f>
+      <c r="J80" s="15">
+        <f t="shared" si="8"/>
         <v>1410</v>
       </c>
-      <c r="J80" t="str">
-        <f>"\u"&amp;TEXT(I80,"0000")&amp;"?"</f>
+      <c r="K80" t="str">
+        <f t="shared" si="9"/>
         <v>\u1410?</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="19.5">
+    <row r="81" spans="1:13" ht="19.5">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6230,32 +6517,35 @@
         <v>78</v>
       </c>
       <c r="E81" s="24" t="str">
-        <f>F81</f>
+        <f t="shared" si="10"/>
         <v>ö</v>
       </c>
       <c r="F81" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D81,2)))</f>
+        <f t="shared" si="11"/>
         <v>ö</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H81" s="16" t="s">
+      <c r="H81" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I81" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="I81" s="15">
-        <f>HEX2DEC(H81)</f>
+      <c r="J81" s="15">
+        <f t="shared" si="8"/>
         <v>1363</v>
       </c>
-      <c r="J81" t="str">
-        <f>"\u"&amp;TEXT(I81,"0000")&amp;"?"</f>
+      <c r="K81" t="str">
+        <f t="shared" si="9"/>
         <v>\u1363?</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="19.5">
+    <row r="82" spans="1:13" ht="19.5">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6269,32 +6559,35 @@
         <v>79</v>
       </c>
       <c r="E82" s="24" t="str">
-        <f>F82</f>
+        <f t="shared" si="10"/>
         <v>÷</v>
       </c>
       <c r="F82" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D82,2)))</f>
+        <f t="shared" si="11"/>
         <v>÷</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="H82" s="16" t="s">
+      <c r="H82" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="I82" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="I82" s="15">
-        <f>HEX2DEC(H82)</f>
+      <c r="J82" s="15">
+        <f t="shared" si="8"/>
         <v>1411</v>
       </c>
-      <c r="J82" t="str">
-        <f>"\u"&amp;TEXT(I82,"0000")&amp;"?"</f>
+      <c r="K82" t="str">
+        <f t="shared" si="9"/>
         <v>\u1411?</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="19.5">
+    <row r="83" spans="1:13" ht="19.5">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6308,32 +6601,35 @@
         <v>80</v>
       </c>
       <c r="E83" s="24" t="str">
-        <f>F83</f>
+        <f t="shared" si="10"/>
         <v>ø</v>
       </c>
       <c r="F83" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D83,2)))</f>
+        <f t="shared" si="11"/>
         <v>ø</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H83" s="16" t="s">
+      <c r="H83" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="I83" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="I83" s="15">
-        <f>HEX2DEC(H83)</f>
+      <c r="J83" s="15">
+        <f t="shared" si="8"/>
         <v>1364</v>
       </c>
-      <c r="J83" t="str">
-        <f>"\u"&amp;TEXT(I83,"0000")&amp;"?"</f>
+      <c r="K83" t="str">
+        <f t="shared" si="9"/>
         <v>\u1364?</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="19.5">
+    <row r="84" spans="1:13" ht="19.5">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6347,32 +6643,35 @@
         <v>81</v>
       </c>
       <c r="E84" s="24" t="str">
-        <f>F84</f>
+        <f t="shared" si="10"/>
         <v>ù</v>
       </c>
       <c r="F84" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D84,2)))</f>
+        <f t="shared" si="11"/>
         <v>ù</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="H84" s="16" t="s">
+      <c r="H84" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="I84" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="I84" s="15">
-        <f>HEX2DEC(H84)</f>
+      <c r="J84" s="15">
+        <f t="shared" si="8"/>
         <v>1412</v>
       </c>
-      <c r="J84" t="str">
-        <f>"\u"&amp;TEXT(I84,"0000")&amp;"?"</f>
+      <c r="K84" t="str">
+        <f t="shared" si="9"/>
         <v>\u1412?</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="19.5">
+    <row r="85" spans="1:13" ht="19.5">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6386,32 +6685,35 @@
         <v>82</v>
       </c>
       <c r="E85" s="24" t="str">
-        <f>F85</f>
+        <f t="shared" si="10"/>
         <v>ú</v>
       </c>
       <c r="F85" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D85,2)))</f>
+        <f t="shared" si="11"/>
         <v>ú</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="H85" s="16" t="s">
+      <c r="H85" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="I85" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="I85" s="15">
-        <f>HEX2DEC(H85)</f>
+      <c r="J85" s="15">
+        <f t="shared" si="8"/>
         <v>1365</v>
       </c>
-      <c r="J85" t="str">
-        <f>"\u"&amp;TEXT(I85,"0000")&amp;"?"</f>
+      <c r="K85" t="str">
+        <f t="shared" si="9"/>
         <v>\u1365?</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="19.5">
+    <row r="86" spans="1:13" ht="19.5">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6425,32 +6727,35 @@
         <v>83</v>
       </c>
       <c r="E86" s="24" t="str">
-        <f>F86</f>
+        <f t="shared" si="10"/>
         <v>û</v>
       </c>
       <c r="F86" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D86,2)))</f>
+        <f t="shared" si="11"/>
         <v>û</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H86" s="16" t="s">
+      <c r="H86" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="I86" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="I86" s="15">
-        <f>HEX2DEC(H86)</f>
+      <c r="J86" s="15">
+        <f t="shared" si="8"/>
         <v>1413</v>
       </c>
-      <c r="J86" t="str">
-        <f>"\u"&amp;TEXT(I86,"0000")&amp;"?"</f>
+      <c r="K86" t="str">
+        <f t="shared" si="9"/>
         <v>\u1413?</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="19.5">
+    <row r="87" spans="1:13" ht="19.5">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6464,32 +6769,35 @@
         <v>84</v>
       </c>
       <c r="E87" s="24" t="str">
-        <f>F87</f>
+        <f t="shared" si="10"/>
         <v>ü</v>
       </c>
       <c r="F87" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D87,2)))</f>
+        <f t="shared" si="11"/>
         <v>ü</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H87" s="16" t="s">
+      <c r="H87" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="I87" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="I87" s="15">
-        <f>HEX2DEC(H87)</f>
+      <c r="J87" s="15">
+        <f t="shared" si="8"/>
         <v>1366</v>
       </c>
-      <c r="J87" t="str">
-        <f>"\u"&amp;TEXT(I87,"0000")&amp;"?"</f>
+      <c r="K87" t="str">
+        <f t="shared" si="9"/>
         <v>\u1366?</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="19.5">
+    <row r="88" spans="1:13" ht="19.5">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6503,32 +6811,35 @@
         <v>85</v>
       </c>
       <c r="E88" s="24" t="str">
-        <f>F88</f>
+        <f t="shared" si="10"/>
         <v>ý</v>
       </c>
       <c r="F88" s="7" t="str">
-        <f>CHAR(HEX2DEC(RIGHT(D88,2)))</f>
+        <f t="shared" si="11"/>
         <v>ý</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="H88" s="16" t="s">
+      <c r="H88" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="I88" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="I88" s="15">
-        <f>HEX2DEC(H88)</f>
+      <c r="J88" s="15">
+        <f t="shared" si="8"/>
         <v>1414</v>
       </c>
-      <c r="J88" t="str">
-        <f>"\u"&amp;TEXT(I88,"0000")&amp;"?"</f>
+      <c r="K88" t="str">
+        <f t="shared" si="9"/>
         <v>\u1414?</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="19.5">
+    <row r="89" spans="1:13" ht="19.5">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6544,25 +6855,28 @@
       <c r="G89" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="H89" s="16" t="s">
+      <c r="H89" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="I89" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="I89" s="15">
-        <f>HEX2DEC(H89)</f>
+      <c r="J89" s="15">
+        <f t="shared" si="8"/>
         <v>1418</v>
       </c>
-      <c r="J89" t="str">
-        <f>"\u"&amp;TEXT(I89,"0000")&amp;"?"</f>
+      <c r="K89" t="str">
+        <f t="shared" si="9"/>
         <v>\u1418?</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>296</v>
       </c>
-      <c r="L89" s="25" t="s">
+      <c r="M89" s="25" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="19.5">
+    <row r="90" spans="1:13" ht="19.5">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6578,25 +6892,28 @@
       <c r="G90" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="H90" s="16" t="s">
+      <c r="H90" s="31" t="s">
+        <v>594</v>
+      </c>
+      <c r="I90" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="I90" s="15">
-        <f>HEX2DEC(H90)</f>
+      <c r="J90" s="15">
+        <f t="shared" si="8"/>
         <v>1375</v>
       </c>
-      <c r="J90" t="str">
-        <f>"\u"&amp;TEXT(I90,"0000")&amp;"?"</f>
+      <c r="K90" t="str">
+        <f t="shared" si="9"/>
         <v>\u1375?</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>592</v>
       </c>
-      <c r="L90" s="25" t="s">
+      <c r="M90" s="25" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="19.5">
+    <row r="91" spans="1:13" ht="19.5">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6612,25 +6929,28 @@
       <c r="G91" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="H91" s="16" t="s">
+      <c r="H91" s="31" t="s">
+        <v>590</v>
+      </c>
+      <c r="I91" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="I91" s="15">
-        <f>HEX2DEC(H91)</f>
+      <c r="J91" s="15">
+        <f t="shared" si="8"/>
         <v>1423</v>
       </c>
-      <c r="J91" t="str">
-        <f>"\u"&amp;TEXT(I91,"0000")&amp;"?"</f>
+      <c r="K91" t="str">
+        <f t="shared" si="9"/>
         <v>\u1423?</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>562</v>
       </c>
-      <c r="L91" s="25" t="s">
+      <c r="M91" s="25" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="19.5">
+    <row r="92" spans="1:13" ht="19.5">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6646,22 +6966,25 @@
       <c r="G92" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="H92" s="17" t="s">
+      <c r="H92" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="I92" s="17" t="s">
         <v>578</v>
       </c>
-      <c r="I92" s="15">
-        <f>HEX2DEC(H92)</f>
+      <c r="J92" s="15">
+        <f t="shared" si="8"/>
         <v>64275</v>
       </c>
-      <c r="J92" t="str">
-        <f>"\u"&amp;TEXT(I92,"0000")&amp;"?"</f>
+      <c r="K92" t="str">
+        <f t="shared" si="9"/>
         <v>\u64275?</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="19.5">
+    <row r="93" spans="1:13" ht="19.5">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6677,22 +7000,25 @@
       <c r="G93" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="H93" s="17" t="s">
+      <c r="H93" s="31" t="s">
+        <v>586</v>
+      </c>
+      <c r="I93" s="17" t="s">
         <v>579</v>
       </c>
-      <c r="I93" s="15">
-        <f>HEX2DEC(H93)</f>
+      <c r="J93" s="15">
+        <f t="shared" si="8"/>
         <v>64276</v>
       </c>
-      <c r="J93" t="str">
-        <f>"\u"&amp;TEXT(I93,"0000")&amp;"?"</f>
+      <c r="K93" t="str">
+        <f t="shared" si="9"/>
         <v>\u64276?</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="19.5">
+    <row r="94" spans="1:13" ht="19.5">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6708,22 +7034,25 @@
       <c r="G94" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="H94" s="17" t="s">
+      <c r="H94" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="I94" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I94" s="15">
-        <f>HEX2DEC(H94)</f>
+      <c r="J94" s="15">
+        <f t="shared" si="8"/>
         <v>64277</v>
       </c>
-      <c r="J94" t="str">
-        <f>"\u"&amp;TEXT(I94,"0000")&amp;"?"</f>
+      <c r="K94" t="str">
+        <f t="shared" si="9"/>
         <v>\u64277?</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="19.5">
+    <row r="95" spans="1:13" ht="19.5">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6739,22 +7068,25 @@
       <c r="G95" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="H95" s="17" t="s">
+      <c r="H95" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="I95" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="I95" s="15">
-        <f>HEX2DEC(H95)</f>
+      <c r="J95" s="15">
+        <f t="shared" si="8"/>
         <v>64278</v>
       </c>
-      <c r="J95" t="str">
-        <f>"\u"&amp;TEXT(I95,"0000")&amp;"?"</f>
+      <c r="K95" t="str">
+        <f t="shared" si="9"/>
         <v>\u64278?</v>
       </c>
-      <c r="K95" t="s">
+      <c r="L95" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="19.5">
+    <row r="96" spans="1:13" ht="19.5">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6770,27 +7102,33 @@
       <c r="G96" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="H96" s="17" t="s">
+      <c r="H96" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="I96" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I96" s="15">
-        <f>HEX2DEC(H96)</f>
+      <c r="J96" s="15">
+        <f t="shared" si="8"/>
         <v>64279</v>
       </c>
-      <c r="J96" t="str">
-        <f>"\u"&amp;TEXT(I96,"0000")&amp;"?"</f>
+      <c r="K96" t="str">
+        <f t="shared" si="9"/>
         <v>\u64279?</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="98" spans="7:7" ht="19.5">
+    <row r="98" spans="7:8" ht="19.5">
       <c r="G98" s="3"/>
+      <c r="H98" s="31"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
-  <autoFilter ref="A1:L96"/>
+  <autoFilter ref="A1:M96">
+    <filterColumn colId="7"/>
+  </autoFilter>
   <sortState ref="A2:L96">
     <sortCondition ref="A1"/>
   </sortState>

--- a/Armenian Font Mapping Table.xlsx
+++ b/Armenian Font Mapping Table.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Unconfirmed from PDF RTF" sheetId="6" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Armenian Font Mapping Table'!$A$1:$M$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Armenian Font Mapping Table'!$A$1:$N$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Converted to ArmSCII-7'!$A$1:$G$92</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -101,11 +101,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Code2000 font</t>
+          <t>DejaVu Sans font</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DejaVu Sans font Italics</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L90" authorId="0">
+    <comment ref="M90" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L91" authorId="0">
+    <comment ref="M91" authorId="0">
       <text>
         <r>
           <rPr>
@@ -302,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="597">
   <si>
     <t>\'a4</t>
   </si>
@@ -2102,7 +2115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2323,12 +2336,28 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Code2000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Code2000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="37">
@@ -2696,7 +2725,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2763,6 +2792,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3100,11 +3138,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3115,14 +3153,15 @@
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="36" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
@@ -3148,22 +3187,25 @@
         <v>91</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19.5">
+    <row r="2" spans="1:14" ht="19.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3188,25 +3230,28 @@
       <c r="H2" s="31" t="s">
         <v>561</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="34" t="s">
+        <v>561</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="J2" s="15">
-        <f t="shared" ref="J2:J33" si="0">HEX2DEC(I2)</f>
+      <c r="K2" s="15">
+        <f t="shared" ref="K2:K33" si="0">HEX2DEC(J2)</f>
         <v>1417</v>
       </c>
-      <c r="K2" t="str">
-        <f t="shared" ref="K2:K33" si="1">"\u"&amp;TEXT(J2,"0000")&amp;"?"</f>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L33" si="1">"\u"&amp;TEXT(K2,"0000")&amp;"?"</f>
         <v>\u1417?</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>559</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="N2" s="25" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="19.5">
+    <row r="3" spans="1:14" ht="19.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3233,22 +3278,25 @@
       <c r="H3" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="J3" s="15">
+      <c r="K3" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <f t="shared" si="1"/>
         <v>\u0041?</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="19.5">
+    <row r="4" spans="1:14" ht="19.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3275,22 +3323,25 @@
       <c r="H4" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="J4" s="15">
+      <c r="K4" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <f t="shared" si="1"/>
         <v>\u0040?</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="19.5">
+    <row r="5" spans="1:14" ht="19.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3317,25 +3368,28 @@
       <c r="H5" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="J5" s="15">
+      <c r="K5" s="15">
         <f t="shared" si="0"/>
         <v>187</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f t="shared" si="1"/>
         <v>\u0187?</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>105</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="N5" s="25" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="19.5">
+    <row r="6" spans="1:14" ht="19.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3362,25 +3416,28 @@
       <c r="H6" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="15">
+      <c r="K6" s="15">
         <f t="shared" si="0"/>
         <v>171</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f t="shared" si="1"/>
         <v>\u0171?</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>100</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="N6" s="25" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="19.5">
+    <row r="7" spans="1:14" ht="19.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3407,22 +3464,25 @@
       <c r="H7" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="J7" s="15">
+      <c r="K7" s="15">
         <f t="shared" si="0"/>
         <v>1415</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <f t="shared" si="1"/>
         <v>\u1415?</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75">
+    <row r="8" spans="1:14" ht="18.75">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3449,25 +3509,28 @@
       <c r="H8" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="36" t="s">
+        <v>572</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="J8" s="15">
+      <c r="K8" s="15">
         <f t="shared" si="0"/>
         <v>8228</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f t="shared" si="1"/>
         <v>\u8228?</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="M8" s="27" t="s">
         <v>573</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="N8" s="25" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="19.5">
+    <row r="9" spans="1:14" ht="19.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3494,25 +3557,28 @@
       <c r="H9" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="J9" s="15">
+      <c r="K9" s="15">
         <f t="shared" si="0"/>
         <v>1373</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f t="shared" si="1"/>
         <v>\u1373?</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>202</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="N9" s="25" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="19.5">
+    <row r="10" spans="1:14" ht="19.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3539,25 +3605,28 @@
       <c r="H10" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="J10" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="J10" s="15">
+      <c r="K10" s="15">
         <f t="shared" si="0"/>
         <v>1372</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f t="shared" si="1"/>
         <v>\u1372?</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>199</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="N10" s="25" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="19.5">
+    <row r="11" spans="1:14" ht="19.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3584,25 +3653,28 @@
       <c r="H11" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="J11" s="15">
+      <c r="K11" s="15">
         <f t="shared" si="0"/>
         <v>1371</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f t="shared" si="1"/>
         <v>\u1371?</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>196</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="N11" s="25" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="19.5">
+    <row r="12" spans="1:14" ht="19.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3629,25 +3701,28 @@
       <c r="H12" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="J12" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="J12" s="15">
+      <c r="K12" s="15">
         <f t="shared" si="0"/>
         <v>1374</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f t="shared" si="1"/>
         <v>\u1374?</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>205</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="N12" s="25" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="19.5">
+    <row r="13" spans="1:14" ht="19.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3674,22 +3749,25 @@
       <c r="H13" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="J13" s="15">
+      <c r="K13" s="15">
         <f t="shared" si="0"/>
         <v>1329</v>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <f t="shared" si="1"/>
         <v>\u1329?</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="19.5">
+    <row r="14" spans="1:14" ht="19.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3716,22 +3794,25 @@
       <c r="H14" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="J14" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="J14" s="15">
+      <c r="K14" s="15">
         <f t="shared" si="0"/>
         <v>1377</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f t="shared" si="1"/>
         <v>\u1377?</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="19.5">
+    <row r="15" spans="1:14" ht="19.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3758,22 +3839,25 @@
       <c r="H15" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="J15" s="15">
+      <c r="K15" s="15">
         <f t="shared" si="0"/>
         <v>1330</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <f t="shared" si="1"/>
         <v>\u1330?</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19.5">
+    <row r="16" spans="1:14" ht="19.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3800,22 +3884,25 @@
       <c r="H16" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="J16" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="J16" s="15">
+      <c r="K16" s="15">
         <f t="shared" si="0"/>
         <v>1378</v>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <f t="shared" si="1"/>
         <v>\u1378?</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="19.5">
+    <row r="17" spans="1:13" ht="19.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3842,22 +3929,25 @@
       <c r="H17" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="J17" s="15">
+      <c r="K17" s="15">
         <f t="shared" si="0"/>
         <v>1331</v>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <f t="shared" si="1"/>
         <v>\u1331?</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="19.5">
+    <row r="18" spans="1:13" ht="19.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3884,22 +3974,25 @@
       <c r="H18" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="J18" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="J18" s="15">
+      <c r="K18" s="15">
         <f t="shared" si="0"/>
         <v>1379</v>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <f t="shared" si="1"/>
         <v>\u1379?</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="19.5">
+    <row r="19" spans="1:13" ht="19.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3926,22 +4019,25 @@
       <c r="H19" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="J19" s="15">
+      <c r="K19" s="15">
         <f t="shared" si="0"/>
         <v>1332</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f t="shared" si="1"/>
         <v>\u1332?</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="19.5">
+    <row r="20" spans="1:13" ht="19.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3968,22 +4064,25 @@
       <c r="H20" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="J20" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="J20" s="15">
+      <c r="K20" s="15">
         <f t="shared" si="0"/>
         <v>1380</v>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <f t="shared" si="1"/>
         <v>\u1380?</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="19.5">
+    <row r="21" spans="1:13" ht="19.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4010,22 +4109,25 @@
       <c r="H21" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="J21" s="15">
+      <c r="K21" s="15">
         <f t="shared" si="0"/>
         <v>1333</v>
       </c>
-      <c r="K21" t="str">
+      <c r="L21" t="str">
         <f t="shared" si="1"/>
         <v>\u1333?</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="19.5">
+    <row r="22" spans="1:13" ht="19.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4052,22 +4154,25 @@
       <c r="H22" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="J22" s="15">
+      <c r="K22" s="15">
         <f t="shared" si="0"/>
         <v>1381</v>
       </c>
-      <c r="K22" t="str">
+      <c r="L22" t="str">
         <f t="shared" si="1"/>
         <v>\u1381?</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="19.5">
+    <row r="23" spans="1:13" ht="19.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4094,22 +4199,25 @@
       <c r="H23" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="J23" s="15">
+      <c r="K23" s="15">
         <f t="shared" si="0"/>
         <v>1334</v>
       </c>
-      <c r="K23" t="str">
+      <c r="L23" t="str">
         <f t="shared" si="1"/>
         <v>\u1334?</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="19.5">
+    <row r="24" spans="1:13" ht="19.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4136,22 +4244,25 @@
       <c r="H24" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="J24" s="15">
+      <c r="K24" s="15">
         <f t="shared" si="0"/>
         <v>1382</v>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <f t="shared" si="1"/>
         <v>\u1382?</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="19.5">
+    <row r="25" spans="1:13" ht="19.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4178,22 +4289,25 @@
       <c r="H25" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="J25" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="J25" s="15">
+      <c r="K25" s="15">
         <f t="shared" si="0"/>
         <v>1335</v>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <f t="shared" si="1"/>
         <v>\u1335?</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19.5">
+    <row r="26" spans="1:13" ht="19.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4220,22 +4334,25 @@
       <c r="H26" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="J26" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="J26" s="15">
+      <c r="K26" s="15">
         <f t="shared" si="0"/>
         <v>1383</v>
       </c>
-      <c r="K26" t="str">
+      <c r="L26" t="str">
         <f t="shared" si="1"/>
         <v>\u1383?</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="19.5">
+    <row r="27" spans="1:13" ht="19.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4262,22 +4379,25 @@
       <c r="H27" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="I27" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="J27" s="15">
+      <c r="K27" s="15">
         <f t="shared" si="0"/>
         <v>1336</v>
       </c>
-      <c r="K27" t="str">
+      <c r="L27" t="str">
         <f t="shared" si="1"/>
         <v>\u1336?</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="19.5">
+    <row r="28" spans="1:13" ht="19.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4304,22 +4424,25 @@
       <c r="H28" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="J28" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="J28" s="15">
+      <c r="K28" s="15">
         <f t="shared" si="0"/>
         <v>1384</v>
       </c>
-      <c r="K28" t="str">
+      <c r="L28" t="str">
         <f t="shared" si="1"/>
         <v>\u1384?</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="19.5">
+    <row r="29" spans="1:13" ht="19.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4346,22 +4469,25 @@
       <c r="H29" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I29" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="J29" s="15">
+      <c r="K29" s="15">
         <f t="shared" si="0"/>
         <v>1337</v>
       </c>
-      <c r="K29" t="str">
+      <c r="L29" t="str">
         <f t="shared" si="1"/>
         <v>\u1337?</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="19.5">
+    <row r="30" spans="1:13" ht="19.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4388,22 +4514,25 @@
       <c r="H30" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="I30" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="J30" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="J30" s="15">
+      <c r="K30" s="15">
         <f t="shared" si="0"/>
         <v>1385</v>
       </c>
-      <c r="K30" t="str">
+      <c r="L30" t="str">
         <f t="shared" si="1"/>
         <v>\u1385?</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="19.5">
+    <row r="31" spans="1:13" ht="19.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4430,22 +4559,25 @@
       <c r="H31" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="I31" s="16" t="s">
+      <c r="I31" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="J31" s="15">
+      <c r="K31" s="15">
         <f t="shared" si="0"/>
         <v>1338</v>
       </c>
-      <c r="K31" t="str">
+      <c r="L31" t="str">
         <f t="shared" si="1"/>
         <v>\u1338?</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="19.5">
+    <row r="32" spans="1:13" ht="19.5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4472,22 +4604,25 @@
       <c r="H32" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="I32" s="16" t="s">
+      <c r="I32" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="J32" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="J32" s="15">
+      <c r="K32" s="15">
         <f t="shared" si="0"/>
         <v>1386</v>
       </c>
-      <c r="K32" t="str">
+      <c r="L32" t="str">
         <f t="shared" si="1"/>
         <v>\u1386?</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="19.5">
+    <row r="33" spans="1:13" ht="19.5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4514,22 +4649,25 @@
       <c r="H33" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="I33" s="16" t="s">
+      <c r="I33" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="J33" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="J33" s="15">
+      <c r="K33" s="15">
         <f t="shared" si="0"/>
         <v>1339</v>
       </c>
-      <c r="K33" t="str">
+      <c r="L33" t="str">
         <f t="shared" si="1"/>
         <v>\u1339?</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="19.5">
+    <row r="34" spans="1:13" ht="19.5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4556,22 +4694,25 @@
       <c r="H34" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="I34" s="16" t="s">
+      <c r="I34" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="J34" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="J34" s="15">
-        <f t="shared" ref="J34:J65" si="4">HEX2DEC(I34)</f>
+      <c r="K34" s="15">
+        <f t="shared" ref="K34:K65" si="4">HEX2DEC(J34)</f>
         <v>1387</v>
       </c>
-      <c r="K34" t="str">
-        <f t="shared" ref="K34:K65" si="5">"\u"&amp;TEXT(J34,"0000")&amp;"?"</f>
+      <c r="L34" t="str">
+        <f t="shared" ref="L34:L65" si="5">"\u"&amp;TEXT(K34,"0000")&amp;"?"</f>
         <v>\u1387?</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="19.5">
+    <row r="35" spans="1:13" ht="19.5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4598,22 +4739,25 @@
       <c r="H35" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="I35" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="J35" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="J35" s="15">
+      <c r="K35" s="15">
         <f t="shared" si="4"/>
         <v>1340</v>
       </c>
-      <c r="K35" t="str">
+      <c r="L35" t="str">
         <f t="shared" si="5"/>
         <v>\u1340?</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="19.5">
+    <row r="36" spans="1:13" ht="19.5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4640,22 +4784,25 @@
       <c r="H36" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="I36" s="16" t="s">
+      <c r="I36" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="J36" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="J36" s="15">
+      <c r="K36" s="15">
         <f t="shared" si="4"/>
         <v>1388</v>
       </c>
-      <c r="K36" t="str">
+      <c r="L36" t="str">
         <f t="shared" si="5"/>
         <v>\u1388?</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="19.5">
+    <row r="37" spans="1:13" ht="19.5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4682,22 +4829,25 @@
       <c r="H37" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="I37" s="16" t="s">
+      <c r="I37" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="J37" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="J37" s="15">
+      <c r="K37" s="15">
         <f t="shared" si="4"/>
         <v>1341</v>
       </c>
-      <c r="K37" t="str">
+      <c r="L37" t="str">
         <f t="shared" si="5"/>
         <v>\u1341?</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="19.5">
+    <row r="38" spans="1:13" ht="19.5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4724,22 +4874,25 @@
       <c r="H38" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="I38" s="16" t="s">
+      <c r="I38" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="J38" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="J38" s="15">
+      <c r="K38" s="15">
         <f t="shared" si="4"/>
         <v>1389</v>
       </c>
-      <c r="K38" t="str">
+      <c r="L38" t="str">
         <f t="shared" si="5"/>
         <v>\u1389?</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="19.5">
+    <row r="39" spans="1:13" ht="19.5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4766,22 +4919,25 @@
       <c r="H39" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="I39" s="16" t="s">
+      <c r="I39" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="J39" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="J39" s="15">
+      <c r="K39" s="15">
         <f t="shared" si="4"/>
         <v>1342</v>
       </c>
-      <c r="K39" t="str">
+      <c r="L39" t="str">
         <f t="shared" si="5"/>
         <v>\u1342?</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="19.5">
+    <row r="40" spans="1:13" ht="19.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4808,22 +4964,25 @@
       <c r="H40" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="I40" s="16" t="s">
+      <c r="I40" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="J40" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="J40" s="15">
+      <c r="K40" s="15">
         <f t="shared" si="4"/>
         <v>1390</v>
       </c>
-      <c r="K40" t="str">
+      <c r="L40" t="str">
         <f t="shared" si="5"/>
         <v>\u1390?</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="19.5">
+    <row r="41" spans="1:13" ht="19.5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4850,22 +5009,25 @@
       <c r="H41" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="I41" s="16" t="s">
+      <c r="I41" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="J41" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="J41" s="15">
+      <c r="K41" s="15">
         <f t="shared" si="4"/>
         <v>1343</v>
       </c>
-      <c r="K41" t="str">
+      <c r="L41" t="str">
         <f t="shared" si="5"/>
         <v>\u1343?</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="19.5">
+    <row r="42" spans="1:13" ht="19.5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4892,22 +5054,25 @@
       <c r="H42" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="I42" s="16" t="s">
+      <c r="I42" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="J42" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="J42" s="15">
+      <c r="K42" s="15">
         <f t="shared" si="4"/>
         <v>1391</v>
       </c>
-      <c r="K42" t="str">
+      <c r="L42" t="str">
         <f t="shared" si="5"/>
         <v>\u1391?</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="19.5">
+    <row r="43" spans="1:13" ht="19.5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4934,22 +5099,25 @@
       <c r="H43" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="I43" s="16" t="s">
+      <c r="I43" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J43" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="J43" s="15">
+      <c r="K43" s="15">
         <f t="shared" si="4"/>
         <v>1344</v>
       </c>
-      <c r="K43" t="str">
+      <c r="L43" t="str">
         <f t="shared" si="5"/>
         <v>\u1344?</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="19.5">
+    <row r="44" spans="1:13" ht="19.5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4976,22 +5144,25 @@
       <c r="H44" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="I44" s="16" t="s">
+      <c r="I44" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="J44" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="J44" s="15">
+      <c r="K44" s="15">
         <f t="shared" si="4"/>
         <v>1392</v>
       </c>
-      <c r="K44" t="str">
+      <c r="L44" t="str">
         <f t="shared" si="5"/>
         <v>\u1392?</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="19.5">
+    <row r="45" spans="1:13" ht="19.5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5018,22 +5189,25 @@
       <c r="H45" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="I45" s="16" t="s">
+      <c r="I45" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="J45" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="J45" s="15">
+      <c r="K45" s="15">
         <f t="shared" si="4"/>
         <v>1345</v>
       </c>
-      <c r="K45" t="str">
+      <c r="L45" t="str">
         <f t="shared" si="5"/>
         <v>\u1345?</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="19.5">
+    <row r="46" spans="1:13" ht="19.5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5060,22 +5234,25 @@
       <c r="H46" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="I46" s="16" t="s">
+      <c r="I46" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="J46" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="J46" s="15">
+      <c r="K46" s="15">
         <f t="shared" si="4"/>
         <v>1393</v>
       </c>
-      <c r="K46" t="str">
+      <c r="L46" t="str">
         <f t="shared" si="5"/>
         <v>\u1393?</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="19.5">
+    <row r="47" spans="1:13" ht="19.5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5102,22 +5279,25 @@
       <c r="H47" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="I47" s="16" t="s">
+      <c r="I47" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J47" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="J47" s="15">
+      <c r="K47" s="15">
         <f t="shared" si="4"/>
         <v>1346</v>
       </c>
-      <c r="K47" t="str">
+      <c r="L47" t="str">
         <f t="shared" si="5"/>
         <v>\u1346?</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="19.5">
+    <row r="48" spans="1:13" ht="19.5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5144,22 +5324,25 @@
       <c r="H48" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="I48" s="16" t="s">
+      <c r="I48" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="J48" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="J48" s="15">
+      <c r="K48" s="15">
         <f t="shared" si="4"/>
         <v>1394</v>
       </c>
-      <c r="K48" t="str">
+      <c r="L48" t="str">
         <f t="shared" si="5"/>
         <v>\u1394?</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="19.5">
+    <row r="49" spans="1:13" ht="19.5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5186,22 +5369,25 @@
       <c r="H49" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="I49" s="16" t="s">
+      <c r="I49" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="J49" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="J49" s="15">
+      <c r="K49" s="15">
         <f t="shared" si="4"/>
         <v>1347</v>
       </c>
-      <c r="K49" t="str">
+      <c r="L49" t="str">
         <f t="shared" si="5"/>
         <v>\u1347?</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="19.5">
+    <row r="50" spans="1:13" ht="19.5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5228,22 +5414,25 @@
       <c r="H50" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="I50" s="16" t="s">
+      <c r="I50" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="J50" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="J50" s="15">
+      <c r="K50" s="15">
         <f t="shared" si="4"/>
         <v>1395</v>
       </c>
-      <c r="K50" t="str">
+      <c r="L50" t="str">
         <f t="shared" si="5"/>
         <v>\u1395?</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="19.5">
+    <row r="51" spans="1:13" ht="19.5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5270,22 +5459,25 @@
       <c r="H51" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="I51" s="16" t="s">
+      <c r="I51" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="J51" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="J51" s="15">
+      <c r="K51" s="15">
         <f t="shared" si="4"/>
         <v>1348</v>
       </c>
-      <c r="K51" t="str">
+      <c r="L51" t="str">
         <f t="shared" si="5"/>
         <v>\u1348?</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="19.5">
+    <row r="52" spans="1:13" ht="19.5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5312,22 +5504,25 @@
       <c r="H52" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="I52" s="16" t="s">
+      <c r="I52" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="J52" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="J52" s="15">
+      <c r="K52" s="15">
         <f t="shared" si="4"/>
         <v>1396</v>
       </c>
-      <c r="K52" t="str">
+      <c r="L52" t="str">
         <f t="shared" si="5"/>
         <v>\u1396?</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="19.5">
+    <row r="53" spans="1:13" ht="19.5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5354,22 +5549,25 @@
       <c r="H53" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="I53" s="16" t="s">
+      <c r="I53" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="J53" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="J53" s="15">
+      <c r="K53" s="15">
         <f t="shared" si="4"/>
         <v>1349</v>
       </c>
-      <c r="K53" t="str">
+      <c r="L53" t="str">
         <f t="shared" si="5"/>
         <v>\u1349?</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="19.5">
+    <row r="54" spans="1:13" ht="19.5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5396,22 +5594,25 @@
       <c r="H54" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="I54" s="16" t="s">
+      <c r="I54" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="J54" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="J54" s="15">
+      <c r="K54" s="15">
         <f t="shared" si="4"/>
         <v>1397</v>
       </c>
-      <c r="K54" t="str">
+      <c r="L54" t="str">
         <f t="shared" si="5"/>
         <v>\u1397?</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="19.5">
+    <row r="55" spans="1:13" ht="19.5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5438,22 +5639,25 @@
       <c r="H55" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="I55" s="16" t="s">
+      <c r="I55" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="J55" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="J55" s="15">
+      <c r="K55" s="15">
         <f t="shared" si="4"/>
         <v>1350</v>
       </c>
-      <c r="K55" t="str">
+      <c r="L55" t="str">
         <f t="shared" si="5"/>
         <v>\u1350?</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="19.5">
+    <row r="56" spans="1:13" ht="19.5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5480,22 +5684,25 @@
       <c r="H56" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="I56" s="16" t="s">
+      <c r="I56" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="J56" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="J56" s="15">
+      <c r="K56" s="15">
         <f t="shared" si="4"/>
         <v>1398</v>
       </c>
-      <c r="K56" t="str">
+      <c r="L56" t="str">
         <f t="shared" si="5"/>
         <v>\u1398?</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="19.5">
+    <row r="57" spans="1:13" ht="19.5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5522,22 +5729,25 @@
       <c r="H57" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="I57" s="16" t="s">
+      <c r="I57" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="J57" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="J57" s="15">
+      <c r="K57" s="15">
         <f t="shared" si="4"/>
         <v>1351</v>
       </c>
-      <c r="K57" t="str">
+      <c r="L57" t="str">
         <f t="shared" si="5"/>
         <v>\u1351?</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="19.5">
+    <row r="58" spans="1:13" ht="19.5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5564,22 +5774,25 @@
       <c r="H58" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="I58" s="16" t="s">
+      <c r="I58" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J58" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="J58" s="15">
+      <c r="K58" s="15">
         <f t="shared" si="4"/>
         <v>1399</v>
       </c>
-      <c r="K58" t="str">
+      <c r="L58" t="str">
         <f t="shared" si="5"/>
         <v>\u1399?</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="19.5">
+    <row r="59" spans="1:13" ht="19.5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5606,22 +5819,25 @@
       <c r="H59" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="I59" s="16" t="s">
+      <c r="I59" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J59" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="J59" s="15">
+      <c r="K59" s="15">
         <f t="shared" si="4"/>
         <v>1352</v>
       </c>
-      <c r="K59" t="str">
+      <c r="L59" t="str">
         <f t="shared" si="5"/>
         <v>\u1352?</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="19.5">
+    <row r="60" spans="1:13" ht="19.5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5648,22 +5864,25 @@
       <c r="H60" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="I60" s="16" t="s">
+      <c r="I60" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="J60" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="J60" s="15">
+      <c r="K60" s="15">
         <f t="shared" si="4"/>
         <v>1400</v>
       </c>
-      <c r="K60" t="str">
+      <c r="L60" t="str">
         <f t="shared" si="5"/>
         <v>\u1400?</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="19.5">
+    <row r="61" spans="1:13" ht="19.5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5690,22 +5909,25 @@
       <c r="H61" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="I61" s="16" t="s">
+      <c r="I61" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="J61" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="J61" s="15">
+      <c r="K61" s="15">
         <f t="shared" si="4"/>
         <v>1353</v>
       </c>
-      <c r="K61" t="str">
+      <c r="L61" t="str">
         <f t="shared" si="5"/>
         <v>\u1353?</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="19.5">
+    <row r="62" spans="1:13" ht="19.5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5732,22 +5954,25 @@
       <c r="H62" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="I62" s="16" t="s">
+      <c r="I62" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="J62" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="J62" s="15">
+      <c r="K62" s="15">
         <f t="shared" si="4"/>
         <v>1401</v>
       </c>
-      <c r="K62" t="str">
+      <c r="L62" t="str">
         <f t="shared" si="5"/>
         <v>\u1401?</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="19.5">
+    <row r="63" spans="1:13" ht="19.5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5774,22 +5999,25 @@
       <c r="H63" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="I63" s="16" t="s">
+      <c r="I63" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="J63" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="J63" s="15">
+      <c r="K63" s="15">
         <f t="shared" si="4"/>
         <v>1354</v>
       </c>
-      <c r="K63" t="str">
+      <c r="L63" t="str">
         <f t="shared" si="5"/>
         <v>\u1354?</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="19.5">
+    <row r="64" spans="1:13" ht="19.5">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5816,22 +6044,25 @@
       <c r="H64" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="I64" s="16" t="s">
+      <c r="I64" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J64" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="J64" s="15">
+      <c r="K64" s="15">
         <f t="shared" si="4"/>
         <v>1402</v>
       </c>
-      <c r="K64" t="str">
+      <c r="L64" t="str">
         <f t="shared" si="5"/>
         <v>\u1402?</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="19.5">
+    <row r="65" spans="1:13" ht="19.5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5858,22 +6089,25 @@
       <c r="H65" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="I65" s="16" t="s">
+      <c r="I65" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="J65" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="J65" s="15">
+      <c r="K65" s="15">
         <f t="shared" si="4"/>
         <v>1355</v>
       </c>
-      <c r="K65" t="str">
+      <c r="L65" t="str">
         <f t="shared" si="5"/>
         <v>\u1355?</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="19.5">
+    <row r="66" spans="1:13" ht="19.5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5900,22 +6134,25 @@
       <c r="H66" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="I66" s="16" t="s">
+      <c r="I66" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="J66" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="J66" s="15">
-        <f t="shared" ref="J66:J97" si="8">HEX2DEC(I66)</f>
+      <c r="K66" s="15">
+        <f t="shared" ref="K66:K96" si="8">HEX2DEC(J66)</f>
         <v>1403</v>
       </c>
-      <c r="K66" t="str">
-        <f t="shared" ref="K66:K97" si="9">"\u"&amp;TEXT(J66,"0000")&amp;"?"</f>
+      <c r="L66" t="str">
+        <f t="shared" ref="L66:L96" si="9">"\u"&amp;TEXT(K66,"0000")&amp;"?"</f>
         <v>\u1403?</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="19.5">
+    <row r="67" spans="1:13" ht="19.5">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5929,11 +6166,11 @@
         <v>64</v>
       </c>
       <c r="E67" s="24" t="str">
-        <f t="shared" ref="E67:E98" si="10">F67</f>
+        <f t="shared" ref="E67:E88" si="10">F67</f>
         <v>è</v>
       </c>
       <c r="F67" s="7" t="str">
-        <f t="shared" ref="F67:F89" si="11">CHAR(HEX2DEC(RIGHT(D67,2)))</f>
+        <f t="shared" ref="F67:F88" si="11">CHAR(HEX2DEC(RIGHT(D67,2)))</f>
         <v>è</v>
       </c>
       <c r="G67" s="3" t="s">
@@ -5942,22 +6179,25 @@
       <c r="H67" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="I67" s="16" t="s">
+      <c r="I67" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="J67" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="J67" s="15">
+      <c r="K67" s="15">
         <f t="shared" si="8"/>
         <v>1356</v>
       </c>
-      <c r="K67" t="str">
+      <c r="L67" t="str">
         <f t="shared" si="9"/>
         <v>\u1356?</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="19.5">
+    <row r="68" spans="1:13" ht="19.5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5984,22 +6224,25 @@
       <c r="H68" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="I68" s="16" t="s">
+      <c r="I68" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="J68" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="J68" s="15">
+      <c r="K68" s="15">
         <f t="shared" si="8"/>
         <v>1404</v>
       </c>
-      <c r="K68" t="str">
+      <c r="L68" t="str">
         <f t="shared" si="9"/>
         <v>\u1404?</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="19.5">
+    <row r="69" spans="1:13" ht="19.5">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6026,22 +6269,25 @@
       <c r="H69" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="I69" s="16" t="s">
+      <c r="I69" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="J69" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="J69" s="15">
+      <c r="K69" s="15">
         <f t="shared" si="8"/>
         <v>1357</v>
       </c>
-      <c r="K69" t="str">
+      <c r="L69" t="str">
         <f t="shared" si="9"/>
         <v>\u1357?</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="19.5">
+    <row r="70" spans="1:13" ht="19.5">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6068,22 +6314,25 @@
       <c r="H70" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="I70" s="16" t="s">
+      <c r="I70" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="J70" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="J70" s="15">
+      <c r="K70" s="15">
         <f t="shared" si="8"/>
         <v>1405</v>
       </c>
-      <c r="K70" t="str">
+      <c r="L70" t="str">
         <f t="shared" si="9"/>
         <v>\u1405?</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="19.5">
+    <row r="71" spans="1:13" ht="19.5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6110,22 +6359,25 @@
       <c r="H71" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="I71" s="16" t="s">
+      <c r="I71" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="J71" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="J71" s="15">
+      <c r="K71" s="15">
         <f t="shared" si="8"/>
         <v>1358</v>
       </c>
-      <c r="K71" t="str">
+      <c r="L71" t="str">
         <f t="shared" si="9"/>
         <v>\u1358?</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="19.5">
+    <row r="72" spans="1:13" ht="19.5">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6152,22 +6404,25 @@
       <c r="H72" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="I72" s="16" t="s">
+      <c r="I72" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="J72" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="J72" s="15">
+      <c r="K72" s="15">
         <f t="shared" si="8"/>
         <v>1406</v>
       </c>
-      <c r="K72" t="str">
+      <c r="L72" t="str">
         <f t="shared" si="9"/>
         <v>\u1406?</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="19.5">
+    <row r="73" spans="1:13" ht="19.5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6194,22 +6449,25 @@
       <c r="H73" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="I73" s="16" t="s">
+      <c r="I73" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="J73" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="J73" s="15">
+      <c r="K73" s="15">
         <f t="shared" si="8"/>
         <v>1359</v>
       </c>
-      <c r="K73" t="str">
+      <c r="L73" t="str">
         <f t="shared" si="9"/>
         <v>\u1359?</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="19.5">
+    <row r="74" spans="1:13" ht="19.5">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6236,22 +6494,25 @@
       <c r="H74" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I74" s="16" t="s">
+      <c r="I74" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="J74" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="J74" s="15">
+      <c r="K74" s="15">
         <f t="shared" si="8"/>
         <v>1407</v>
       </c>
-      <c r="K74" t="str">
+      <c r="L74" t="str">
         <f t="shared" si="9"/>
         <v>\u1407?</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="19.5">
+    <row r="75" spans="1:13" ht="19.5">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6278,22 +6539,25 @@
       <c r="H75" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="I75" s="16" t="s">
+      <c r="I75" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="J75" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="J75" s="15">
+      <c r="K75" s="15">
         <f t="shared" si="8"/>
         <v>1360</v>
       </c>
-      <c r="K75" t="str">
+      <c r="L75" t="str">
         <f t="shared" si="9"/>
         <v>\u1360?</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="19.5">
+    <row r="76" spans="1:13" ht="19.5">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6320,22 +6584,25 @@
       <c r="H76" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="I76" s="16" t="s">
+      <c r="I76" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="J76" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="J76" s="15">
+      <c r="K76" s="15">
         <f t="shared" si="8"/>
         <v>1408</v>
       </c>
-      <c r="K76" t="str">
+      <c r="L76" t="str">
         <f t="shared" si="9"/>
         <v>\u1408?</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="19.5">
+    <row r="77" spans="1:13" ht="19.5">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6362,22 +6629,25 @@
       <c r="H77" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="I77" s="16" t="s">
+      <c r="I77" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="J77" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="J77" s="15">
+      <c r="K77" s="15">
         <f t="shared" si="8"/>
         <v>1361</v>
       </c>
-      <c r="K77" t="str">
+      <c r="L77" t="str">
         <f t="shared" si="9"/>
         <v>\u1361?</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="19.5">
+    <row r="78" spans="1:13" ht="19.5">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6404,22 +6674,25 @@
       <c r="H78" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="I78" s="16" t="s">
+      <c r="I78" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="J78" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="J78" s="15">
+      <c r="K78" s="15">
         <f t="shared" si="8"/>
         <v>1409</v>
       </c>
-      <c r="K78" t="str">
+      <c r="L78" t="str">
         <f t="shared" si="9"/>
         <v>\u1409?</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="19.5">
+    <row r="79" spans="1:13" ht="19.5">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6446,22 +6719,25 @@
       <c r="H79" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="I79" s="16" t="s">
+      <c r="I79" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="J79" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="J79" s="15">
+      <c r="K79" s="15">
         <f t="shared" si="8"/>
         <v>1362</v>
       </c>
-      <c r="K79" t="str">
+      <c r="L79" t="str">
         <f t="shared" si="9"/>
         <v>\u1362?</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="19.5">
+    <row r="80" spans="1:13" ht="19.5">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6488,22 +6764,25 @@
       <c r="H80" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="I80" s="16" t="s">
+      <c r="I80" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="J80" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="J80" s="15">
+      <c r="K80" s="15">
         <f t="shared" si="8"/>
         <v>1410</v>
       </c>
-      <c r="K80" t="str">
+      <c r="L80" t="str">
         <f t="shared" si="9"/>
         <v>\u1410?</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="19.5">
+    <row r="81" spans="1:14" ht="19.5">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6530,22 +6809,25 @@
       <c r="H81" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="I81" s="16" t="s">
+      <c r="I81" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="J81" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="J81" s="15">
+      <c r="K81" s="15">
         <f t="shared" si="8"/>
         <v>1363</v>
       </c>
-      <c r="K81" t="str">
+      <c r="L81" t="str">
         <f t="shared" si="9"/>
         <v>\u1363?</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="19.5">
+    <row r="82" spans="1:14" ht="19.5">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6572,22 +6854,25 @@
       <c r="H82" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="I82" s="16" t="s">
+      <c r="I82" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="J82" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="J82" s="15">
+      <c r="K82" s="15">
         <f t="shared" si="8"/>
         <v>1411</v>
       </c>
-      <c r="K82" t="str">
+      <c r="L82" t="str">
         <f t="shared" si="9"/>
         <v>\u1411?</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="19.5">
+    <row r="83" spans="1:14" ht="19.5">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6614,22 +6899,25 @@
       <c r="H83" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="I83" s="16" t="s">
+      <c r="I83" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="J83" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="J83" s="15">
+      <c r="K83" s="15">
         <f t="shared" si="8"/>
         <v>1364</v>
       </c>
-      <c r="K83" t="str">
+      <c r="L83" t="str">
         <f t="shared" si="9"/>
         <v>\u1364?</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="19.5">
+    <row r="84" spans="1:14" ht="19.5">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6656,22 +6944,25 @@
       <c r="H84" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="I84" s="16" t="s">
+      <c r="I84" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="J84" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="J84" s="15">
+      <c r="K84" s="15">
         <f t="shared" si="8"/>
         <v>1412</v>
       </c>
-      <c r="K84" t="str">
+      <c r="L84" t="str">
         <f t="shared" si="9"/>
         <v>\u1412?</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="19.5">
+    <row r="85" spans="1:14" ht="19.5">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6698,22 +6989,25 @@
       <c r="H85" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="I85" s="16" t="s">
+      <c r="I85" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="J85" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="J85" s="15">
+      <c r="K85" s="15">
         <f t="shared" si="8"/>
         <v>1365</v>
       </c>
-      <c r="K85" t="str">
+      <c r="L85" t="str">
         <f t="shared" si="9"/>
         <v>\u1365?</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="19.5">
+    <row r="86" spans="1:14" ht="19.5">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6740,22 +7034,25 @@
       <c r="H86" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="I86" s="16" t="s">
+      <c r="I86" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="J86" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="J86" s="15">
+      <c r="K86" s="15">
         <f t="shared" si="8"/>
         <v>1413</v>
       </c>
-      <c r="K86" t="str">
+      <c r="L86" t="str">
         <f t="shared" si="9"/>
         <v>\u1413?</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="19.5">
+    <row r="87" spans="1:14" ht="19.5">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6782,22 +7079,25 @@
       <c r="H87" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="I87" s="16" t="s">
+      <c r="I87" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="J87" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="J87" s="15">
+      <c r="K87" s="15">
         <f t="shared" si="8"/>
         <v>1366</v>
       </c>
-      <c r="K87" t="str">
+      <c r="L87" t="str">
         <f t="shared" si="9"/>
         <v>\u1366?</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="19.5">
+    <row r="88" spans="1:14" ht="19.5">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6824,22 +7124,25 @@
       <c r="H88" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="I88" s="16" t="s">
+      <c r="I88" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="J88" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="J88" s="15">
+      <c r="K88" s="15">
         <f t="shared" si="8"/>
         <v>1414</v>
       </c>
-      <c r="K88" t="str">
+      <c r="L88" t="str">
         <f t="shared" si="9"/>
         <v>\u1414?</v>
       </c>
-      <c r="L88" t="s">
+      <c r="M88" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="19.5">
+    <row r="89" spans="1:14" ht="19.5">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6858,25 +7161,28 @@
       <c r="H89" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="I89" s="16" t="s">
+      <c r="I89" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="J89" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="J89" s="15">
+      <c r="K89" s="15">
         <f t="shared" si="8"/>
         <v>1418</v>
       </c>
-      <c r="K89" t="str">
+      <c r="L89" t="str">
         <f t="shared" si="9"/>
         <v>\u1418?</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" t="s">
         <v>296</v>
       </c>
-      <c r="M89" s="25" t="s">
+      <c r="N89" s="25" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="19.5">
+    <row r="90" spans="1:14" ht="19.5">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6895,25 +7201,28 @@
       <c r="H90" s="31" t="s">
         <v>594</v>
       </c>
-      <c r="I90" s="16" t="s">
+      <c r="I90" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="J90" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="J90" s="15">
+      <c r="K90" s="15">
         <f t="shared" si="8"/>
         <v>1375</v>
       </c>
-      <c r="K90" t="str">
+      <c r="L90" t="str">
         <f t="shared" si="9"/>
         <v>\u1375?</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>592</v>
       </c>
-      <c r="M90" s="25" t="s">
+      <c r="N90" s="25" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="19.5">
+    <row r="91" spans="1:14" ht="19.5">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6932,25 +7241,28 @@
       <c r="H91" s="31" t="s">
         <v>590</v>
       </c>
-      <c r="I91" s="16" t="s">
+      <c r="I91" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="J91" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="J91" s="15">
+      <c r="K91" s="15">
         <f t="shared" si="8"/>
         <v>1423</v>
       </c>
-      <c r="K91" t="str">
+      <c r="L91" t="str">
         <f t="shared" si="9"/>
         <v>\u1423?</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>562</v>
       </c>
-      <c r="M91" s="25" t="s">
+      <c r="N91" s="25" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="19.5">
+    <row r="92" spans="1:14" ht="19.5">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6969,22 +7281,25 @@
       <c r="H92" s="31" t="s">
         <v>577</v>
       </c>
-      <c r="I92" s="17" t="s">
+      <c r="I92" s="34" t="s">
+        <v>577</v>
+      </c>
+      <c r="J92" s="17" t="s">
         <v>578</v>
       </c>
-      <c r="J92" s="15">
+      <c r="K92" s="15">
         <f t="shared" si="8"/>
         <v>64275</v>
       </c>
-      <c r="K92" t="str">
+      <c r="L92" t="str">
         <f t="shared" si="9"/>
         <v>\u64275?</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="19.5">
+    <row r="93" spans="1:14" ht="19.5">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7003,22 +7318,25 @@
       <c r="H93" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="I93" s="17" t="s">
+      <c r="I93" s="34" t="s">
+        <v>586</v>
+      </c>
+      <c r="J93" s="17" t="s">
         <v>579</v>
       </c>
-      <c r="J93" s="15">
+      <c r="K93" s="15">
         <f t="shared" si="8"/>
         <v>64276</v>
       </c>
-      <c r="K93" t="str">
+      <c r="L93" t="str">
         <f t="shared" si="9"/>
         <v>\u64276?</v>
       </c>
-      <c r="L93" t="s">
+      <c r="M93" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="19.5">
+    <row r="94" spans="1:14" ht="19.5">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7037,22 +7355,25 @@
       <c r="H94" s="31" t="s">
         <v>587</v>
       </c>
-      <c r="I94" s="17" t="s">
+      <c r="I94" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="J94" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="J94" s="15">
+      <c r="K94" s="15">
         <f t="shared" si="8"/>
         <v>64277</v>
       </c>
-      <c r="K94" t="str">
+      <c r="L94" t="str">
         <f t="shared" si="9"/>
         <v>\u64277?</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="19.5">
+    <row r="95" spans="1:14" ht="19.5">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7071,22 +7392,25 @@
       <c r="H95" s="31" t="s">
         <v>588</v>
       </c>
-      <c r="I95" s="17" t="s">
+      <c r="I95" s="34" t="s">
+        <v>588</v>
+      </c>
+      <c r="J95" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="J95" s="15">
+      <c r="K95" s="15">
         <f t="shared" si="8"/>
         <v>64278</v>
       </c>
-      <c r="K95" t="str">
+      <c r="L95" t="str">
         <f t="shared" si="9"/>
         <v>\u64278?</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="19.5">
+    <row r="96" spans="1:14" ht="19.5">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7105,29 +7429,34 @@
       <c r="H96" s="31" t="s">
         <v>589</v>
       </c>
-      <c r="I96" s="17" t="s">
+      <c r="I96" s="34" t="s">
+        <v>589</v>
+      </c>
+      <c r="J96" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="J96" s="15">
+      <c r="K96" s="15">
         <f t="shared" si="8"/>
         <v>64279</v>
       </c>
-      <c r="K96" t="str">
+      <c r="L96" t="str">
         <f t="shared" si="9"/>
         <v>\u64279?</v>
       </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="98" spans="7:8" ht="19.5">
+    <row r="98" spans="7:9" ht="19.5">
       <c r="G98" s="3"/>
       <c r="H98" s="31"/>
+      <c r="I98" s="34"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
-  <autoFilter ref="A1:M96">
+  <autoFilter ref="A1:N96">
     <filterColumn colId="7"/>
+    <filterColumn colId="8"/>
   </autoFilter>
   <sortState ref="A2:L96">
     <sortCondition ref="A1"/>

--- a/Armenian Font Mapping Table.xlsx
+++ b/Armenian Font Mapping Table.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Unconfirmed from PDF RTF" sheetId="6" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Armenian Font Mapping Table'!$A$1:$N$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Armenian Font Mapping Table'!$A$1:$O$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Converted to ArmSCII-7'!$A$1:$G$92</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -53,7 +53,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In RTF file for the 2012 edition of Armenian Bible</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +144,46 @@
         </r>
       </text>
     </comment>
-    <comment ref="D89" authorId="0">
+    <comment ref="N8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Armenian semicolon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B89" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Before improvement to conversion map</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C89" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Before improvement to conversion map</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E89" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +197,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="M90" authorId="0">
+    <comment ref="H89" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sylfaen font doesn't display it right.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N90" authorId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M91" authorId="0">
+    <comment ref="N91" authorId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="598">
   <si>
     <t>\'a4</t>
   </si>
@@ -2106,6 +2171,9 @@
   </si>
   <si>
     <t>\xE2\x80\xA4</t>
+  </si>
+  <si>
+    <t>ARMENIAN SMALL LIGATURE VEW NOW</t>
   </si>
 </sst>
 </file>
@@ -3138,30 +3206,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="36" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="33" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="36" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
@@ -3171,17 +3239,17 @@
       <c r="C1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>91</v>
@@ -3190,22 +3258,25 @@
         <v>91</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="19.5">
+    <row r="2" spans="1:15" ht="19.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3215,43 +3286,46 @@
       <c r="C2" s="13">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="13">
+        <v>30387</v>
+      </c>
+      <c r="E2" t="s">
         <v>374</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="24" t="s">
         <v>558</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="I2" s="31" t="s">
         <v>561</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="J2" s="34" t="s">
         <v>561</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="K2" s="15">
-        <f t="shared" ref="K2:K33" si="0">HEX2DEC(J2)</f>
+      <c r="L2" s="15">
+        <f>HEX2DEC(K2)</f>
         <v>1417</v>
       </c>
-      <c r="L2" t="str">
-        <f t="shared" ref="L2:L33" si="1">"\u"&amp;TEXT(K2,"0000")&amp;"?"</f>
+      <c r="M2" t="str">
+        <f>"\u"&amp;TEXT(L2,"0000")&amp;"?"</f>
         <v>\u1417?</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>559</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="O2" s="25" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="19.5">
+    <row r="3" spans="1:15" ht="19.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3261,42 +3335,45 @@
       <c r="C3" s="13">
         <v>90</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="13">
+        <v>841</v>
+      </c>
+      <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="24" t="str">
-        <f t="shared" ref="E3:E34" si="2">F3</f>
+      <c r="F3" s="24" t="str">
+        <f>G3</f>
         <v>¤</v>
       </c>
-      <c r="F3" s="7" t="str">
-        <f t="shared" ref="F3:F34" si="3">CHAR(HEX2DEC(RIGHT(D3,2)))</f>
+      <c r="G3" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E3,2)))</f>
         <v>¤</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="I3" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="J3" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="K3" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="K3" s="15">
-        <f t="shared" si="0"/>
+      <c r="L3" s="15">
+        <f>HEX2DEC(K3)</f>
         <v>41</v>
       </c>
-      <c r="L3" t="str">
-        <f t="shared" si="1"/>
+      <c r="M3" t="str">
+        <f>"\u"&amp;TEXT(L3,"0000")&amp;"?"</f>
         <v>\u0041?</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="19.5">
+    <row r="4" spans="1:15" ht="19.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3306,42 +3383,45 @@
       <c r="C4" s="13">
         <v>294</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="13">
+        <v>841</v>
+      </c>
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F4" s="24" t="str">
+        <f>G4</f>
         <v>¥</v>
       </c>
-      <c r="F4" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G4" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E4,2)))</f>
         <v>¥</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="I4" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="J4" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="K4" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="K4" s="15">
-        <f t="shared" si="0"/>
+      <c r="L4" s="15">
+        <f>HEX2DEC(K4)</f>
         <v>40</v>
       </c>
-      <c r="L4" t="str">
-        <f t="shared" si="1"/>
+      <c r="M4" t="str">
+        <f>"\u"&amp;TEXT(L4,"0000")&amp;"?"</f>
         <v>\u0040?</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="19.5">
+    <row r="5" spans="1:15" ht="19.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3351,45 +3431,48 @@
       <c r="C5" s="13">
         <v>1954</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="13">
+        <v>6546</v>
+      </c>
+      <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F5" s="24" t="str">
+        <f>G5</f>
         <v>¦</v>
       </c>
-      <c r="F5" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G5" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E5,2)))</f>
         <v>¦</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="I5" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="J5" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="K5" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="K5" s="15">
-        <f t="shared" si="0"/>
+      <c r="L5" s="15">
+        <f>HEX2DEC(K5)</f>
         <v>187</v>
       </c>
-      <c r="L5" t="str">
-        <f t="shared" si="1"/>
+      <c r="M5" t="str">
+        <f>"\u"&amp;TEXT(L5,"0000")&amp;"?"</f>
         <v>\u0187?</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>105</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="O5" s="25" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="19.5">
+    <row r="6" spans="1:15" ht="19.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3399,45 +3482,48 @@
       <c r="C6" s="13">
         <v>2062</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="13">
+        <v>7296</v>
+      </c>
+      <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F6" s="24" t="str">
+        <f>G6</f>
         <v>§</v>
       </c>
-      <c r="F6" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G6" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E6,2)))</f>
         <v>§</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="I6" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="J6" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="K6" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="K6" s="15">
-        <f t="shared" si="0"/>
+      <c r="L6" s="15">
+        <f>HEX2DEC(K6)</f>
         <v>171</v>
       </c>
-      <c r="L6" t="str">
-        <f t="shared" si="1"/>
+      <c r="M6" t="str">
+        <f>"\u"&amp;TEXT(L6,"0000")&amp;"?"</f>
         <v>\u0171?</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>100</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="O6" s="25" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="19.5">
+    <row r="7" spans="1:15" ht="19.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3447,42 +3533,45 @@
       <c r="C7" s="13">
         <v>7435</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="13">
+        <v>26600</v>
+      </c>
+      <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F7" s="24" t="str">
+        <f>G7</f>
         <v>¨</v>
       </c>
-      <c r="F7" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G7" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E7,2)))</f>
         <v>¨</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="I7" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="J7" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="K7" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="K7" s="15">
-        <f t="shared" si="0"/>
+      <c r="L7" s="15">
+        <f>HEX2DEC(K7)</f>
         <v>1415</v>
       </c>
-      <c r="L7" t="str">
-        <f t="shared" si="1"/>
+      <c r="M7" t="str">
+        <f>"\u"&amp;TEXT(L7,"0000")&amp;"?"</f>
         <v>\u1415?</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="N7" s="9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.75">
+    <row r="8" spans="1:15" ht="18.75">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3492,45 +3581,48 @@
       <c r="C8" s="13">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="13">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F8" s="24" t="str">
+        <f>G8</f>
         <v>©</v>
       </c>
-      <c r="F8" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G8" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E8,2)))</f>
         <v>©</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="I8" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="J8" s="36" t="s">
         <v>572</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="K8" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="K8" s="15">
-        <f t="shared" si="0"/>
+      <c r="L8" s="15">
+        <f>HEX2DEC(K8)</f>
         <v>8228</v>
       </c>
-      <c r="L8" t="str">
-        <f t="shared" si="1"/>
+      <c r="M8" t="str">
+        <f>"\u"&amp;TEXT(L8,"0000")&amp;"?"</f>
         <v>\u8228?</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="N8" s="27" t="s">
         <v>573</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="O8" s="25" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="19.5">
+    <row r="9" spans="1:15" ht="19.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3540,45 +3632,48 @@
       <c r="C9" s="13">
         <v>2492</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="13">
+        <v>70854</v>
+      </c>
+      <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F9" s="24" t="str">
+        <f>G9</f>
         <v>ª</v>
       </c>
-      <c r="F9" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G9" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E9,2)))</f>
         <v>ª</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="I9" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="J9" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="K9" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="K9" s="15">
-        <f t="shared" si="0"/>
+      <c r="L9" s="15">
+        <f>HEX2DEC(K9)</f>
         <v>1373</v>
       </c>
-      <c r="L9" t="str">
-        <f t="shared" si="1"/>
+      <c r="M9" t="str">
+        <f>"\u"&amp;TEXT(L9,"0000")&amp;"?"</f>
         <v>\u1373?</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>202</v>
       </c>
-      <c r="N9" s="25" t="s">
+      <c r="O9" s="25" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="19.5">
+    <row r="10" spans="1:15" ht="19.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3588,45 +3683,48 @@
       <c r="C10" s="13">
         <v>117</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="13">
+        <v>449</v>
+      </c>
+      <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F10" s="24" t="str">
+        <f>G10</f>
         <v>¯</v>
       </c>
-      <c r="F10" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G10" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E10,2)))</f>
         <v>¯</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="I10" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="J10" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="K10" s="15">
-        <f t="shared" si="0"/>
+      <c r="L10" s="15">
+        <f>HEX2DEC(K10)</f>
         <v>1372</v>
       </c>
-      <c r="L10" t="str">
-        <f t="shared" si="1"/>
+      <c r="M10" t="str">
+        <f>"\u"&amp;TEXT(L10,"0000")&amp;"?"</f>
         <v>\u1372?</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>199</v>
       </c>
-      <c r="N10" s="25" t="s">
+      <c r="O10" s="25" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="19.5">
+    <row r="11" spans="1:15" ht="19.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3636,45 +3734,48 @@
       <c r="C11" s="13">
         <v>2969</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="13">
+        <v>11573</v>
+      </c>
+      <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F11" s="24" t="str">
+        <f>G11</f>
         <v>°</v>
       </c>
-      <c r="F11" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G11" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E11,2)))</f>
         <v>°</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="I11" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="J11" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="K11" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="K11" s="15">
-        <f t="shared" si="0"/>
+      <c r="L11" s="15">
+        <f>HEX2DEC(K11)</f>
         <v>1371</v>
       </c>
-      <c r="L11" t="str">
-        <f t="shared" si="1"/>
+      <c r="M11" t="str">
+        <f>"\u"&amp;TEXT(L11,"0000")&amp;"?"</f>
         <v>\u1371?</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>196</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="O11" s="25" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="19.5">
+    <row r="12" spans="1:15" ht="19.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3684,45 +3785,48 @@
       <c r="C12" s="13">
         <v>1153</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="13">
+        <v>3530</v>
+      </c>
+      <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F12" s="24" t="str">
+        <f>G12</f>
         <v>±</v>
       </c>
-      <c r="F12" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G12" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E12,2)))</f>
         <v>±</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="I12" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="J12" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="K12" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="K12" s="15">
-        <f t="shared" si="0"/>
+      <c r="L12" s="15">
+        <f>HEX2DEC(K12)</f>
         <v>1374</v>
       </c>
-      <c r="L12" t="str">
-        <f t="shared" si="1"/>
+      <c r="M12" t="str">
+        <f>"\u"&amp;TEXT(L12,"0000")&amp;"?"</f>
         <v>\u1374?</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>205</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="O12" s="25" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="19.5">
+    <row r="13" spans="1:15" ht="19.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3732,42 +3836,45 @@
       <c r="C13" s="13">
         <v>3199</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="13">
+        <v>14110</v>
+      </c>
+      <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F13" s="24" t="str">
+        <f>G13</f>
         <v>²</v>
       </c>
-      <c r="F13" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G13" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E13,2)))</f>
         <v>²</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="I13" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="J13" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="K13" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="K13" s="15">
-        <f t="shared" si="0"/>
+      <c r="L13" s="15">
+        <f>HEX2DEC(K13)</f>
         <v>1329</v>
       </c>
-      <c r="L13" t="str">
-        <f t="shared" si="1"/>
+      <c r="M13" t="str">
+        <f>"\u"&amp;TEXT(L13,"0000")&amp;"?"</f>
         <v>\u1329?</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="19.5">
+    <row r="14" spans="1:15" ht="19.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3777,42 +3884,45 @@
       <c r="C14" s="13">
         <v>85984</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="13">
+        <v>365072</v>
+      </c>
+      <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F14" s="24" t="str">
+        <f>G14</f>
         <v>³</v>
       </c>
-      <c r="F14" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G14" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E14,2)))</f>
         <v>³</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="I14" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="J14" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="K14" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="K14" s="15">
-        <f t="shared" si="0"/>
+      <c r="L14" s="15">
+        <f>HEX2DEC(K14)</f>
         <v>1377</v>
       </c>
-      <c r="L14" t="str">
-        <f t="shared" si="1"/>
+      <c r="M14" t="str">
+        <f>"\u"&amp;TEXT(L14,"0000")&amp;"?"</f>
         <v>\u1377?</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="19.5">
+    <row r="15" spans="1:15" ht="19.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3822,42 +3932,45 @@
       <c r="C15" s="13">
         <v>715</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="13">
+        <v>3149</v>
+      </c>
+      <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F15" s="24" t="str">
+        <f>G15</f>
         <v>´</v>
       </c>
-      <c r="F15" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G15" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E15,2)))</f>
         <v>´</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="I15" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="J15" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="K15" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="K15" s="15">
-        <f t="shared" si="0"/>
+      <c r="L15" s="15">
+        <f>HEX2DEC(K15)</f>
         <v>1330</v>
       </c>
-      <c r="L15" t="str">
-        <f t="shared" si="1"/>
+      <c r="M15" t="str">
+        <f>"\u"&amp;TEXT(L15,"0000")&amp;"?"</f>
         <v>\u1330?</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="19.5">
+    <row r="16" spans="1:15" ht="19.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3867,42 +3980,45 @@
       <c r="C16" s="13">
         <v>6970</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="13">
+        <v>31575</v>
+      </c>
+      <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F16" s="24" t="str">
+        <f>G16</f>
         <v>µ</v>
       </c>
-      <c r="F16" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G16" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E16,2)))</f>
         <v>µ</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="I16" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="J16" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="K16" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="K16" s="15">
-        <f t="shared" si="0"/>
+      <c r="L16" s="15">
+        <f>HEX2DEC(K16)</f>
         <v>1378</v>
       </c>
-      <c r="L16" t="str">
-        <f t="shared" si="1"/>
+      <c r="M16" t="str">
+        <f>"\u"&amp;TEXT(L16,"0000")&amp;"?"</f>
         <v>\u1378?</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.5">
+    <row r="17" spans="1:14" ht="19.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3912,42 +4028,45 @@
       <c r="C17" s="13">
         <v>594</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="13">
+        <v>1821</v>
+      </c>
+      <c r="E17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F17" s="24" t="str">
+        <f>G17</f>
         <v>¶</v>
       </c>
-      <c r="F17" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G17" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E17,2)))</f>
         <v>¶</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="I17" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="J17" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="K17" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K17" s="15">
-        <f t="shared" si="0"/>
+      <c r="L17" s="15">
+        <f>HEX2DEC(K17)</f>
         <v>1331</v>
       </c>
-      <c r="L17" t="str">
-        <f t="shared" si="1"/>
+      <c r="M17" t="str">
+        <f>"\u"&amp;TEXT(L17,"0000")&amp;"?"</f>
         <v>\u1331?</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.5">
+    <row r="18" spans="1:14" ht="19.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3957,42 +4076,45 @@
       <c r="C18" s="13">
         <v>6186</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="13">
+        <v>28273</v>
+      </c>
+      <c r="E18" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F18" s="24" t="str">
+        <f>G18</f>
         <v>·</v>
       </c>
-      <c r="F18" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G18" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E18,2)))</f>
         <v>·</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="I18" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="J18" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="K18" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="K18" s="15">
-        <f t="shared" si="0"/>
+      <c r="L18" s="15">
+        <f>HEX2DEC(K18)</f>
         <v>1379</v>
       </c>
-      <c r="L18" t="str">
-        <f t="shared" si="1"/>
+      <c r="M18" t="str">
+        <f>"\u"&amp;TEXT(L18,"0000")&amp;"?"</f>
         <v>\u1379?</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.5">
+    <row r="19" spans="1:14" ht="19.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4002,42 +4124,45 @@
       <c r="C19" s="13">
         <v>560</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="13">
+        <v>3316</v>
+      </c>
+      <c r="E19" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F19" s="24" t="str">
+        <f>G19</f>
         <v>¸</v>
       </c>
-      <c r="F19" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G19" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E19,2)))</f>
         <v>¸</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="I19" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="J19" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="K19" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="K19" s="15">
-        <f t="shared" si="0"/>
+      <c r="L19" s="15">
+        <f>HEX2DEC(K19)</f>
         <v>1332</v>
       </c>
-      <c r="L19" t="str">
-        <f t="shared" si="1"/>
+      <c r="M19" t="str">
+        <f>"\u"&amp;TEXT(L19,"0000")&amp;"?"</f>
         <v>\u1332?</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.5">
+    <row r="20" spans="1:14" ht="19.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4047,42 +4172,45 @@
       <c r="C20" s="13">
         <v>8055</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="13">
+        <v>40545</v>
+      </c>
+      <c r="E20" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F20" s="24" t="str">
+        <f>G20</f>
         <v>¹</v>
       </c>
-      <c r="F20" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G20" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E20,2)))</f>
         <v>¹</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="I20" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="J20" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="K20" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="K20" s="15">
-        <f t="shared" si="0"/>
+      <c r="L20" s="15">
+        <f>HEX2DEC(K20)</f>
         <v>1380</v>
       </c>
-      <c r="L20" t="str">
-        <f t="shared" si="1"/>
+      <c r="M20" t="str">
+        <f>"\u"&amp;TEXT(L20,"0000")&amp;"?"</f>
         <v>\u1380?</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.5">
+    <row r="21" spans="1:14" ht="19.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4092,42 +4220,45 @@
       <c r="C21" s="13">
         <v>3928</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="13">
+        <v>19607</v>
+      </c>
+      <c r="E21" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F21" s="24" t="str">
+        <f>G21</f>
         <v>º</v>
       </c>
-      <c r="F21" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G21" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E21,2)))</f>
         <v>º</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="I21" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="J21" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="K21" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="K21" s="15">
-        <f t="shared" si="0"/>
+      <c r="L21" s="15">
+        <f>HEX2DEC(K21)</f>
         <v>1333</v>
       </c>
-      <c r="L21" t="str">
-        <f t="shared" si="1"/>
+      <c r="M21" t="str">
+        <f>"\u"&amp;TEXT(L21,"0000")&amp;"?"</f>
         <v>\u1333?</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="19.5">
+    <row r="22" spans="1:14" ht="19.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4137,42 +4268,45 @@
       <c r="C22" s="13">
         <v>53048</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="13">
+        <v>217237</v>
+      </c>
+      <c r="E22" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F22" s="24" t="str">
+        <f>G22</f>
         <v>»</v>
       </c>
-      <c r="F22" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G22" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E22,2)))</f>
         <v>»</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="H22" s="31" t="s">
+      <c r="I22" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="J22" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="K22" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="K22" s="15">
-        <f t="shared" si="0"/>
+      <c r="L22" s="15">
+        <f>HEX2DEC(K22)</f>
         <v>1381</v>
       </c>
-      <c r="L22" t="str">
-        <f t="shared" si="1"/>
+      <c r="M22" t="str">
+        <f>"\u"&amp;TEXT(L22,"0000")&amp;"?"</f>
         <v>\u1381?</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="19.5">
+    <row r="23" spans="1:14" ht="19.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4182,42 +4316,45 @@
       <c r="C23" s="13">
         <v>111</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="13">
+        <v>828</v>
+      </c>
+      <c r="E23" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F23" s="24" t="str">
+        <f>G23</f>
         <v>¼</v>
       </c>
-      <c r="F23" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G23" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E23,2)))</f>
         <v>¼</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="I23" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="J23" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="K23" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="K23" s="15">
-        <f t="shared" si="0"/>
+      <c r="L23" s="15">
+        <f>HEX2DEC(K23)</f>
         <v>1334</v>
       </c>
-      <c r="L23" t="str">
-        <f t="shared" si="1"/>
+      <c r="M23" t="str">
+        <f>"\u"&amp;TEXT(L23,"0000")&amp;"?"</f>
         <v>\u1334?</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="19.5">
+    <row r="24" spans="1:14" ht="19.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4227,42 +4364,45 @@
       <c r="C24" s="13">
         <v>4515</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="13">
+        <v>19229</v>
+      </c>
+      <c r="E24" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F24" s="24" t="str">
+        <f>G24</f>
         <v>½</v>
       </c>
-      <c r="F24" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G24" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E24,2)))</f>
         <v>½</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H24" s="31" t="s">
+      <c r="I24" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="J24" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="K24" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="K24" s="15">
-        <f t="shared" si="0"/>
+      <c r="L24" s="15">
+        <f>HEX2DEC(K24)</f>
         <v>1382</v>
       </c>
-      <c r="L24" t="str">
-        <f t="shared" si="1"/>
+      <c r="M24" t="str">
+        <f>"\u"&amp;TEXT(L24,"0000")&amp;"?"</f>
         <v>\u1382?</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="19.5">
+    <row r="25" spans="1:14" ht="19.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4272,42 +4412,45 @@
       <c r="C25" s="13">
         <v>136</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="13">
+        <v>548</v>
+      </c>
+      <c r="E25" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F25" s="24" t="str">
+        <f>G25</f>
         <v>¾</v>
       </c>
-      <c r="F25" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G25" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E25,2)))</f>
         <v>¾</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="I25" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="I25" s="34" t="s">
+      <c r="J25" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="K25" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="K25" s="15">
-        <f t="shared" si="0"/>
+      <c r="L25" s="15">
+        <f>HEX2DEC(K25)</f>
         <v>1335</v>
       </c>
-      <c r="L25" t="str">
-        <f t="shared" si="1"/>
+      <c r="M25" t="str">
+        <f>"\u"&amp;TEXT(L25,"0000")&amp;"?"</f>
         <v>\u1335?</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="19.5">
+    <row r="26" spans="1:14" ht="19.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4317,42 +4460,45 @@
       <c r="C26" s="13">
         <v>6894</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="13">
+        <v>24365</v>
+      </c>
+      <c r="E26" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F26" s="24" t="str">
+        <f>G26</f>
         <v>¿</v>
       </c>
-      <c r="F26" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G26" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E26,2)))</f>
         <v>¿</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="I26" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="I26" s="34" t="s">
+      <c r="J26" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="K26" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="K26" s="15">
-        <f t="shared" si="0"/>
+      <c r="L26" s="15">
+        <f>HEX2DEC(K26)</f>
         <v>1383</v>
       </c>
-      <c r="L26" t="str">
-        <f t="shared" si="1"/>
+      <c r="M26" t="str">
+        <f>"\u"&amp;TEXT(L26,"0000")&amp;"?"</f>
         <v>\u1383?</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="19.5">
+    <row r="27" spans="1:14" ht="19.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4362,42 +4508,45 @@
       <c r="C27" s="13">
         <v>62</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="13">
+        <v>2565</v>
+      </c>
+      <c r="E27" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F27" s="24" t="str">
+        <f>G27</f>
         <v>À</v>
       </c>
-      <c r="F27" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G27" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E27,2)))</f>
         <v>À</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="I27" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="J27" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="J27" s="16" t="s">
+      <c r="K27" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="K27" s="15">
-        <f t="shared" si="0"/>
+      <c r="L27" s="15">
+        <f>HEX2DEC(K27)</f>
         <v>1336</v>
       </c>
-      <c r="L27" t="str">
-        <f t="shared" si="1"/>
+      <c r="M27" t="str">
+        <f>"\u"&amp;TEXT(L27,"0000")&amp;"?"</f>
         <v>\u1336?</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="19.5">
+    <row r="28" spans="1:14" ht="19.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4407,42 +4556,45 @@
       <c r="C28" s="13">
         <v>9459</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="13">
+        <v>42415</v>
+      </c>
+      <c r="E28" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F28" s="24" t="str">
+        <f>G28</f>
         <v>Á</v>
       </c>
-      <c r="F28" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G28" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E28,2)))</f>
         <v>Á</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="I28" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="I28" s="34" t="s">
+      <c r="J28" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="J28" s="16" t="s">
+      <c r="K28" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="K28" s="15">
-        <f t="shared" si="0"/>
+      <c r="L28" s="15">
+        <f>HEX2DEC(K28)</f>
         <v>1384</v>
       </c>
-      <c r="L28" t="str">
-        <f t="shared" si="1"/>
+      <c r="M28" t="str">
+        <f>"\u"&amp;TEXT(L28,"0000")&amp;"?"</f>
         <v>\u1384?</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="19.5">
+    <row r="29" spans="1:14" ht="19.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4452,42 +4604,45 @@
       <c r="C29" s="13">
         <v>219</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="13">
+        <v>1154</v>
+      </c>
+      <c r="E29" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F29" s="24" t="str">
+        <f>G29</f>
         <v>Â</v>
       </c>
-      <c r="F29" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G29" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E29,2)))</f>
         <v>Â</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="I29" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="I29" s="34" t="s">
+      <c r="J29" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="J29" s="16" t="s">
+      <c r="K29" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="K29" s="15">
-        <f t="shared" si="0"/>
+      <c r="L29" s="15">
+        <f>HEX2DEC(K29)</f>
         <v>1337</v>
       </c>
-      <c r="L29" t="str">
-        <f t="shared" si="1"/>
+      <c r="M29" t="str">
+        <f>"\u"&amp;TEXT(L29,"0000")&amp;"?"</f>
         <v>\u1337?</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="19.5">
+    <row r="30" spans="1:14" ht="19.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4497,42 +4652,45 @@
       <c r="C30" s="13">
         <v>8424</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="13">
+        <v>34057</v>
+      </c>
+      <c r="E30" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F30" s="24" t="str">
+        <f>G30</f>
         <v>Ã</v>
       </c>
-      <c r="F30" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G30" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E30,2)))</f>
         <v>Ã</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="H30" s="31" t="s">
+      <c r="I30" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="I30" s="34" t="s">
+      <c r="J30" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="K30" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="K30" s="15">
-        <f t="shared" si="0"/>
+      <c r="L30" s="15">
+        <f>HEX2DEC(K30)</f>
         <v>1385</v>
       </c>
-      <c r="L30" t="str">
-        <f t="shared" si="1"/>
+      <c r="M30" t="str">
+        <f>"\u"&amp;TEXT(L30,"0000")&amp;"?"</f>
         <v>\u1385?</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="19.5">
+    <row r="31" spans="1:14" ht="19.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4542,42 +4700,45 @@
       <c r="C31" s="13">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="13">
+        <v>162</v>
+      </c>
+      <c r="E31" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F31" s="24" t="str">
+        <f>G31</f>
         <v>Ä</v>
       </c>
-      <c r="F31" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G31" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E31,2)))</f>
         <v>Ä</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H31" s="31" t="s">
+      <c r="I31" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="I31" s="34" t="s">
+      <c r="J31" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="J31" s="16" t="s">
+      <c r="K31" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="K31" s="15">
-        <f t="shared" si="0"/>
+      <c r="L31" s="15">
+        <f>HEX2DEC(K31)</f>
         <v>1338</v>
       </c>
-      <c r="L31" t="str">
-        <f t="shared" si="1"/>
+      <c r="M31" t="str">
+        <f>"\u"&amp;TEXT(L31,"0000")&amp;"?"</f>
         <v>\u1338?</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="19.5">
+    <row r="32" spans="1:14" ht="19.5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4587,42 +4748,45 @@
       <c r="C32" s="13">
         <v>1510</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="13">
+        <v>6920</v>
+      </c>
+      <c r="E32" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F32" s="24" t="str">
+        <f>G32</f>
         <v>Å</v>
       </c>
-      <c r="F32" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G32" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E32,2)))</f>
         <v>Å</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="I32" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="I32" s="34" t="s">
+      <c r="J32" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="K32" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="K32" s="15">
-        <f t="shared" si="0"/>
+      <c r="L32" s="15">
+        <f>HEX2DEC(K32)</f>
         <v>1386</v>
       </c>
-      <c r="L32" t="str">
-        <f t="shared" si="1"/>
+      <c r="M32" t="str">
+        <f>"\u"&amp;TEXT(L32,"0000")&amp;"?"</f>
         <v>\u1386?</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="19.5">
+    <row r="33" spans="1:14" ht="19.5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4632,42 +4796,45 @@
       <c r="C33" s="13">
         <v>2084</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="13">
+        <v>11871</v>
+      </c>
+      <c r="E33" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F33" s="24" t="str">
+        <f>G33</f>
         <v>Æ</v>
       </c>
-      <c r="F33" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G33" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E33,2)))</f>
         <v>Æ</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H33" s="31" t="s">
+      <c r="I33" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="I33" s="34" t="s">
+      <c r="J33" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="J33" s="16" t="s">
+      <c r="K33" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="K33" s="15">
-        <f t="shared" si="0"/>
+      <c r="L33" s="15">
+        <f>HEX2DEC(K33)</f>
         <v>1339</v>
       </c>
-      <c r="L33" t="str">
-        <f t="shared" si="1"/>
+      <c r="M33" t="str">
+        <f>"\u"&amp;TEXT(L33,"0000")&amp;"?"</f>
         <v>\u1339?</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="19.5">
+    <row r="34" spans="1:14" ht="19.5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4677,42 +4844,45 @@
       <c r="C34" s="13">
         <v>40059</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="13">
+        <v>179917</v>
+      </c>
+      <c r="E34" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F34" s="24" t="str">
+        <f>G34</f>
         <v>Ç</v>
       </c>
-      <c r="F34" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="G34" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E34,2)))</f>
         <v>Ç</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="H34" s="31" t="s">
+      <c r="I34" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="I34" s="34" t="s">
+      <c r="J34" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="J34" s="16" t="s">
+      <c r="K34" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="K34" s="15">
-        <f t="shared" ref="K34:K65" si="4">HEX2DEC(J34)</f>
+      <c r="L34" s="15">
+        <f>HEX2DEC(K34)</f>
         <v>1387</v>
       </c>
-      <c r="L34" t="str">
-        <f t="shared" ref="L34:L65" si="5">"\u"&amp;TEXT(K34,"0000")&amp;"?"</f>
+      <c r="M34" t="str">
+        <f>"\u"&amp;TEXT(L34,"0000")&amp;"?"</f>
         <v>\u1387?</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="19.5">
+    <row r="35" spans="1:14" ht="19.5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4722,42 +4892,45 @@
       <c r="C35" s="13">
         <v>107</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="13">
+        <v>570</v>
+      </c>
+      <c r="E35" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="24" t="str">
-        <f t="shared" ref="E35:E66" si="6">F35</f>
+      <c r="F35" s="24" t="str">
+        <f>G35</f>
         <v>È</v>
       </c>
-      <c r="F35" s="7" t="str">
-        <f t="shared" ref="F35:F66" si="7">CHAR(HEX2DEC(RIGHT(D35,2)))</f>
+      <c r="G35" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E35,2)))</f>
         <v>È</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H35" s="31" t="s">
+      <c r="I35" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="I35" s="34" t="s">
+      <c r="J35" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="J35" s="16" t="s">
+      <c r="K35" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="K35" s="15">
-        <f t="shared" si="4"/>
+      <c r="L35" s="15">
+        <f>HEX2DEC(K35)</f>
         <v>1340</v>
       </c>
-      <c r="L35" t="str">
-        <f t="shared" si="5"/>
+      <c r="M35" t="str">
+        <f>"\u"&amp;TEXT(L35,"0000")&amp;"?"</f>
         <v>\u1340?</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="19.5">
+    <row r="36" spans="1:14" ht="19.5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4767,42 +4940,45 @@
       <c r="C36" s="13">
         <v>11658</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="13">
+        <v>48200</v>
+      </c>
+      <c r="E36" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F36" s="24" t="str">
+        <f>G36</f>
         <v>É</v>
       </c>
-      <c r="F36" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G36" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E36,2)))</f>
         <v>É</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="H36" s="31" t="s">
+      <c r="I36" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="I36" s="34" t="s">
+      <c r="J36" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="J36" s="16" t="s">
+      <c r="K36" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="K36" s="15">
-        <f t="shared" si="4"/>
+      <c r="L36" s="15">
+        <f>HEX2DEC(K36)</f>
         <v>1388</v>
       </c>
-      <c r="L36" t="str">
-        <f t="shared" si="5"/>
+      <c r="M36" t="str">
+        <f>"\u"&amp;TEXT(L36,"0000")&amp;"?"</f>
         <v>\u1388?</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="19.5">
+    <row r="37" spans="1:14" ht="19.5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4812,42 +4988,45 @@
       <c r="C37" s="13">
         <v>200</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="13">
+        <v>531</v>
+      </c>
+      <c r="E37" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F37" s="24" t="str">
+        <f>G37</f>
         <v>Ê</v>
       </c>
-      <c r="F37" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G37" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E37,2)))</f>
         <v>Ê</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H37" s="31" t="s">
+      <c r="I37" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="I37" s="34" t="s">
+      <c r="J37" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="J37" s="16" t="s">
+      <c r="K37" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="K37" s="15">
-        <f t="shared" si="4"/>
+      <c r="L37" s="15">
+        <f>HEX2DEC(K37)</f>
         <v>1341</v>
       </c>
-      <c r="L37" t="str">
-        <f t="shared" si="5"/>
+      <c r="M37" t="str">
+        <f>"\u"&amp;TEXT(L37,"0000")&amp;"?"</f>
         <v>\u1341?</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="19.5">
+    <row r="38" spans="1:14" ht="19.5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4857,42 +5036,45 @@
       <c r="C38" s="13">
         <v>3818</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="13">
+        <v>15574</v>
+      </c>
+      <c r="E38" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F38" s="24" t="str">
+        <f>G38</f>
         <v>Ë</v>
       </c>
-      <c r="F38" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G38" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E38,2)))</f>
         <v>Ë</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H38" s="31" t="s">
+      <c r="I38" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="I38" s="34" t="s">
+      <c r="J38" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="J38" s="16" t="s">
+      <c r="K38" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="K38" s="15">
-        <f t="shared" si="4"/>
+      <c r="L38" s="15">
+        <f>HEX2DEC(K38)</f>
         <v>1389</v>
       </c>
-      <c r="L38" t="str">
-        <f t="shared" si="5"/>
+      <c r="M38" t="str">
+        <f>"\u"&amp;TEXT(L38,"0000")&amp;"?"</f>
         <v>\u1389?</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="19.5">
+    <row r="39" spans="1:14" ht="19.5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4902,42 +5084,45 @@
       <c r="C39" s="13">
         <v>53</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="13">
+        <v>175</v>
+      </c>
+      <c r="E39" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F39" s="24" t="str">
+        <f>G39</f>
         <v>Ì</v>
       </c>
-      <c r="F39" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G39" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E39,2)))</f>
         <v>Ì</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H39" s="31" t="s">
+      <c r="I39" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="I39" s="34" t="s">
+      <c r="J39" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="J39" s="16" t="s">
+      <c r="K39" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="K39" s="15">
-        <f t="shared" si="4"/>
+      <c r="L39" s="15">
+        <f>HEX2DEC(K39)</f>
         <v>1342</v>
       </c>
-      <c r="L39" t="str">
-        <f t="shared" si="5"/>
+      <c r="M39" t="str">
+        <f>"\u"&amp;TEXT(L39,"0000")&amp;"?"</f>
         <v>\u1342?</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="19.5">
+    <row r="40" spans="1:14" ht="19.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4947,42 +5132,45 @@
       <c r="C40" s="13">
         <v>5975</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="13">
+        <v>23747</v>
+      </c>
+      <c r="E40" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F40" s="24" t="str">
+        <f>G40</f>
         <v>Í</v>
       </c>
-      <c r="F40" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G40" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E40,2)))</f>
         <v>Í</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="H40" s="31" t="s">
+      <c r="I40" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="I40" s="34" t="s">
+      <c r="J40" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="J40" s="16" t="s">
+      <c r="K40" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="K40" s="15">
-        <f t="shared" si="4"/>
+      <c r="L40" s="15">
+        <f>HEX2DEC(K40)</f>
         <v>1390</v>
       </c>
-      <c r="L40" t="str">
-        <f t="shared" si="5"/>
+      <c r="M40" t="str">
+        <f>"\u"&amp;TEXT(L40,"0000")&amp;"?"</f>
         <v>\u1390?</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="19.5">
+    <row r="41" spans="1:14" ht="19.5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4992,42 +5180,45 @@
       <c r="C41" s="13">
         <v>511</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="13">
+        <v>1251</v>
+      </c>
+      <c r="E41" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F41" s="24" t="str">
+        <f>G41</f>
         <v>Î</v>
       </c>
-      <c r="F41" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G41" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E41,2)))</f>
         <v>Î</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H41" s="31" t="s">
+      <c r="I41" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="I41" s="34" t="s">
+      <c r="J41" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="J41" s="16" t="s">
+      <c r="K41" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="K41" s="15">
-        <f t="shared" si="4"/>
+      <c r="L41" s="15">
+        <f>HEX2DEC(K41)</f>
         <v>1343</v>
       </c>
-      <c r="L41" t="str">
-        <f t="shared" si="5"/>
+      <c r="M41" t="str">
+        <f>"\u"&amp;TEXT(L41,"0000")&amp;"?"</f>
         <v>\u1343?</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="19.5">
+    <row r="42" spans="1:14" ht="19.5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5037,42 +5228,45 @@
       <c r="C42" s="13">
         <v>15372</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="13">
+        <v>62167</v>
+      </c>
+      <c r="E42" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F42" s="24" t="str">
+        <f>G42</f>
         <v>Ï</v>
       </c>
-      <c r="F42" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G42" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E42,2)))</f>
         <v>Ï</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H42" s="31" t="s">
+      <c r="I42" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="I42" s="34" t="s">
+      <c r="J42" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="J42" s="16" t="s">
+      <c r="K42" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="K42" s="15">
-        <f t="shared" si="4"/>
+      <c r="L42" s="15">
+        <f>HEX2DEC(K42)</f>
         <v>1391</v>
       </c>
-      <c r="L42" t="str">
-        <f t="shared" si="5"/>
+      <c r="M42" t="str">
+        <f>"\u"&amp;TEXT(L42,"0000")&amp;"?"</f>
         <v>\u1391?</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="19.5">
+    <row r="43" spans="1:14" ht="19.5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5082,42 +5276,45 @@
       <c r="C43" s="13">
         <v>3220</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="13">
+        <v>7913</v>
+      </c>
+      <c r="E43" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F43" s="24" t="str">
+        <f>G43</f>
         <v>Ð</v>
       </c>
-      <c r="F43" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G43" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E43,2)))</f>
         <v>Ð</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H43" s="31" t="s">
+      <c r="I43" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="I43" s="34" t="s">
+      <c r="J43" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="J43" s="16" t="s">
+      <c r="K43" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="K43" s="15">
-        <f t="shared" si="4"/>
+      <c r="L43" s="15">
+        <f>HEX2DEC(K43)</f>
         <v>1344</v>
       </c>
-      <c r="L43" t="str">
-        <f t="shared" si="5"/>
+      <c r="M43" t="str">
+        <f>"\u"&amp;TEXT(L43,"0000")&amp;"?"</f>
         <v>\u1344?</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="19.5">
+    <row r="44" spans="1:14" ht="19.5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5127,42 +5324,45 @@
       <c r="C44" s="13">
         <v>11686</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="13">
+        <v>44377</v>
+      </c>
+      <c r="E44" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F44" s="24" t="str">
+        <f>G44</f>
         <v>Ñ</v>
       </c>
-      <c r="F44" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G44" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E44,2)))</f>
         <v>Ñ</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="H44" s="31" t="s">
+      <c r="I44" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="I44" s="34" t="s">
+      <c r="J44" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="J44" s="16" t="s">
+      <c r="K44" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="K44" s="15">
-        <f t="shared" si="4"/>
+      <c r="L44" s="15">
+        <f>HEX2DEC(K44)</f>
         <v>1392</v>
       </c>
-      <c r="L44" t="str">
-        <f t="shared" si="5"/>
+      <c r="M44" t="str">
+        <f>"\u"&amp;TEXT(L44,"0000")&amp;"?"</f>
         <v>\u1392?</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="19.5">
+    <row r="45" spans="1:14" ht="19.5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5172,42 +5372,45 @@
       <c r="C45" s="13">
         <v>94</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="13">
+        <v>328</v>
+      </c>
+      <c r="E45" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F45" s="24" t="str">
+        <f>G45</f>
         <v>Ò</v>
       </c>
-      <c r="F45" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G45" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E45,2)))</f>
         <v>Ò</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H45" s="31" t="s">
+      <c r="I45" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="I45" s="34" t="s">
+      <c r="J45" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="J45" s="16" t="s">
+      <c r="K45" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="K45" s="15">
-        <f t="shared" si="4"/>
+      <c r="L45" s="15">
+        <f>HEX2DEC(K45)</f>
         <v>1345</v>
       </c>
-      <c r="L45" t="str">
-        <f t="shared" si="5"/>
+      <c r="M45" t="str">
+        <f>"\u"&amp;TEXT(L45,"0000")&amp;"?"</f>
         <v>\u1345?</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="19.5">
+    <row r="46" spans="1:14" ht="19.5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5217,42 +5420,45 @@
       <c r="C46" s="13">
         <v>4246</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="13">
+        <v>16563</v>
+      </c>
+      <c r="E46" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F46" s="24" t="str">
+        <f>G46</f>
         <v>Ó</v>
       </c>
-      <c r="F46" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G46" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E46,2)))</f>
         <v>Ó</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="H46" s="31" t="s">
+      <c r="I46" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="I46" s="34" t="s">
+      <c r="J46" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="J46" s="16" t="s">
+      <c r="K46" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="K46" s="15">
-        <f t="shared" si="4"/>
+      <c r="L46" s="15">
+        <f>HEX2DEC(K46)</f>
         <v>1393</v>
       </c>
-      <c r="L46" t="str">
-        <f t="shared" si="5"/>
+      <c r="M46" t="str">
+        <f>"\u"&amp;TEXT(L46,"0000")&amp;"?"</f>
         <v>\u1393?</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="19.5">
+    <row r="47" spans="1:14" ht="19.5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5262,42 +5468,45 @@
       <c r="C47" s="13">
         <v>353</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="13">
+        <v>499</v>
+      </c>
+      <c r="E47" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F47" s="24" t="str">
+        <f>G47</f>
         <v>Ô</v>
       </c>
-      <c r="F47" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G47" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E47,2)))</f>
         <v>Ô</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H47" s="31" t="s">
+      <c r="I47" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="I47" s="34" t="s">
+      <c r="J47" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="J47" s="16" t="s">
+      <c r="K47" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="K47" s="15">
-        <f t="shared" si="4"/>
+      <c r="L47" s="15">
+        <f>HEX2DEC(K47)</f>
         <v>1346</v>
       </c>
-      <c r="L47" t="str">
-        <f t="shared" si="5"/>
+      <c r="M47" t="str">
+        <f>"\u"&amp;TEXT(L47,"0000")&amp;"?"</f>
         <v>\u1346?</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="19.5">
+    <row r="48" spans="1:14" ht="19.5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5307,42 +5516,45 @@
       <c r="C48" s="13">
         <v>8019</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="13">
+        <v>40351</v>
+      </c>
+      <c r="E48" t="s">
         <v>45</v>
       </c>
-      <c r="E48" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F48" s="24" t="str">
+        <f>G48</f>
         <v>Õ</v>
       </c>
-      <c r="F48" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G48" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E48,2)))</f>
         <v>Õ</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="H48" s="31" t="s">
+      <c r="I48" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="I48" s="34" t="s">
+      <c r="J48" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="J48" s="16" t="s">
+      <c r="K48" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="K48" s="15">
-        <f t="shared" si="4"/>
+      <c r="L48" s="15">
+        <f>HEX2DEC(K48)</f>
         <v>1394</v>
       </c>
-      <c r="L48" t="str">
-        <f t="shared" si="5"/>
+      <c r="M48" t="str">
+        <f>"\u"&amp;TEXT(L48,"0000")&amp;"?"</f>
         <v>\u1394?</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="19.5">
+    <row r="49" spans="1:14" ht="19.5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5352,42 +5564,45 @@
       <c r="C49" s="13">
         <v>112</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="13">
+        <v>172</v>
+      </c>
+      <c r="E49" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F49" s="24" t="str">
+        <f>G49</f>
         <v>Ö</v>
       </c>
-      <c r="F49" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G49" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E49,2)))</f>
         <v>Ö</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H49" s="31" t="s">
+      <c r="I49" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="I49" s="34" t="s">
+      <c r="J49" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="J49" s="16" t="s">
+      <c r="K49" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="K49" s="15">
-        <f t="shared" si="4"/>
+      <c r="L49" s="15">
+        <f>HEX2DEC(K49)</f>
         <v>1347</v>
       </c>
-      <c r="L49" t="str">
-        <f t="shared" si="5"/>
+      <c r="M49" t="str">
+        <f>"\u"&amp;TEXT(L49,"0000")&amp;"?"</f>
         <v>\u1347?</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="19.5">
+    <row r="50" spans="1:14" ht="19.5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5397,42 +5612,45 @@
       <c r="C50" s="13">
         <v>1243</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="13">
+        <v>4674</v>
+      </c>
+      <c r="E50" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F50" s="24" t="str">
+        <f>G50</f>
         <v>×</v>
       </c>
-      <c r="F50" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G50" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E50,2)))</f>
         <v>×</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H50" s="31" t="s">
+      <c r="I50" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="I50" s="34" t="s">
+      <c r="J50" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="J50" s="16" t="s">
+      <c r="K50" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="K50" s="15">
-        <f t="shared" si="4"/>
+      <c r="L50" s="15">
+        <f>HEX2DEC(K50)</f>
         <v>1395</v>
       </c>
-      <c r="L50" t="str">
-        <f t="shared" si="5"/>
+      <c r="M50" t="str">
+        <f>"\u"&amp;TEXT(L50,"0000")&amp;"?"</f>
         <v>\u1395?</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="19.5">
+    <row r="51" spans="1:14" ht="19.5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5442,42 +5660,45 @@
       <c r="C51" s="13">
         <v>1558</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="13">
+        <v>4951</v>
+      </c>
+      <c r="E51" t="s">
         <v>48</v>
       </c>
-      <c r="E51" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F51" s="24" t="str">
+        <f>G51</f>
         <v>Ø</v>
       </c>
-      <c r="F51" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G51" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E51,2)))</f>
         <v>Ø</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H51" s="31" t="s">
+      <c r="I51" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="I51" s="34" t="s">
+      <c r="J51" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="J51" s="16" t="s">
+      <c r="K51" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="K51" s="15">
-        <f t="shared" si="4"/>
+      <c r="L51" s="15">
+        <f>HEX2DEC(K51)</f>
         <v>1348</v>
       </c>
-      <c r="L51" t="str">
-        <f t="shared" si="5"/>
+      <c r="M51" t="str">
+        <f>"\u"&amp;TEXT(L51,"0000")&amp;"?"</f>
         <v>\u1348?</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="19.5">
+    <row r="52" spans="1:14" ht="19.5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5487,42 +5708,45 @@
       <c r="C52" s="13">
         <v>27358</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="13">
+        <v>103479</v>
+      </c>
+      <c r="E52" t="s">
         <v>49</v>
       </c>
-      <c r="E52" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F52" s="24" t="str">
+        <f>G52</f>
         <v>Ù</v>
       </c>
-      <c r="F52" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G52" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E52,2)))</f>
         <v>Ù</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="H52" s="31" t="s">
+      <c r="I52" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="I52" s="34" t="s">
+      <c r="J52" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="J52" s="16" t="s">
+      <c r="K52" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="K52" s="15">
-        <f t="shared" si="4"/>
+      <c r="L52" s="15">
+        <f>HEX2DEC(K52)</f>
         <v>1396</v>
       </c>
-      <c r="L52" t="str">
-        <f t="shared" si="5"/>
+      <c r="M52" t="str">
+        <f>"\u"&amp;TEXT(L52,"0000")&amp;"?"</f>
         <v>\u1396?</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="19.5">
+    <row r="53" spans="1:14" ht="19.5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5532,42 +5756,45 @@
       <c r="C53" s="13">
         <v>43</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="13">
+        <v>223</v>
+      </c>
+      <c r="E53" t="s">
         <v>50</v>
       </c>
-      <c r="E53" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F53" s="24" t="str">
+        <f>G53</f>
         <v>Ú</v>
       </c>
-      <c r="F53" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G53" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E53,2)))</f>
         <v>Ú</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H53" s="31" t="s">
+      <c r="I53" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="I53" s="34" t="s">
+      <c r="J53" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="J53" s="16" t="s">
+      <c r="K53" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="K53" s="15">
-        <f t="shared" si="4"/>
+      <c r="L53" s="15">
+        <f>HEX2DEC(K53)</f>
         <v>1349</v>
       </c>
-      <c r="L53" t="str">
-        <f t="shared" si="5"/>
+      <c r="M53" t="str">
+        <f>"\u"&amp;TEXT(L53,"0000")&amp;"?"</f>
         <v>\u1349?</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="19.5">
+    <row r="54" spans="1:14" ht="19.5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5577,42 +5804,45 @@
       <c r="C54" s="13">
         <v>14057</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="13">
+        <v>56643</v>
+      </c>
+      <c r="E54" t="s">
         <v>51</v>
       </c>
-      <c r="E54" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F54" s="24" t="str">
+        <f>G54</f>
         <v>Û</v>
       </c>
-      <c r="F54" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G54" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E54,2)))</f>
         <v>Û</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="H54" s="31" t="s">
+      <c r="I54" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="I54" s="34" t="s">
+      <c r="J54" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="J54" s="16" t="s">
+      <c r="K54" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="K54" s="15">
-        <f t="shared" si="4"/>
+      <c r="L54" s="15">
+        <f>HEX2DEC(K54)</f>
         <v>1397</v>
       </c>
-      <c r="L54" t="str">
-        <f t="shared" si="5"/>
+      <c r="M54" t="str">
+        <f>"\u"&amp;TEXT(L54,"0000")&amp;"?"</f>
         <v>\u1397?</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="19.5">
+    <row r="55" spans="1:14" ht="19.5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5622,42 +5852,45 @@
       <c r="C55" s="13">
         <v>2546</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="13">
+        <v>7273</v>
+      </c>
+      <c r="E55" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F55" s="24" t="str">
+        <f>G55</f>
         <v>Ü</v>
       </c>
-      <c r="F55" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G55" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E55,2)))</f>
         <v>Ü</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H55" s="31" t="s">
+      <c r="I55" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="I55" s="34" t="s">
+      <c r="J55" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="J55" s="16" t="s">
+      <c r="K55" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="K55" s="15">
-        <f t="shared" si="4"/>
+      <c r="L55" s="15">
+        <f>HEX2DEC(K55)</f>
         <v>1350</v>
       </c>
-      <c r="L55" t="str">
-        <f t="shared" si="5"/>
+      <c r="M55" t="str">
+        <f>"\u"&amp;TEXT(L55,"0000")&amp;"?"</f>
         <v>\u1350?</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="19.5">
+    <row r="56" spans="1:14" ht="19.5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5667,42 +5900,45 @@
       <c r="C56" s="13">
         <v>61797</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="13">
+        <v>256891</v>
+      </c>
+      <c r="E56" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F56" s="24" t="str">
+        <f>G56</f>
         <v>Ý</v>
       </c>
-      <c r="F56" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G56" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E56,2)))</f>
         <v>Ý</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="H56" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="H56" s="31" t="s">
+      <c r="I56" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="I56" s="34" t="s">
+      <c r="J56" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="J56" s="16" t="s">
+      <c r="K56" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="K56" s="15">
-        <f t="shared" si="4"/>
+      <c r="L56" s="15">
+        <f>HEX2DEC(K56)</f>
         <v>1398</v>
       </c>
-      <c r="L56" t="str">
-        <f t="shared" si="5"/>
+      <c r="M56" t="str">
+        <f>"\u"&amp;TEXT(L56,"0000")&amp;"?"</f>
         <v>\u1398?</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="19.5">
+    <row r="57" spans="1:14" ht="19.5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5712,42 +5948,45 @@
       <c r="C57" s="13">
         <v>66</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="13">
+        <v>318</v>
+      </c>
+      <c r="E57" t="s">
         <v>54</v>
       </c>
-      <c r="E57" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F57" s="24" t="str">
+        <f>G57</f>
         <v>Þ</v>
       </c>
-      <c r="F57" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G57" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E57,2)))</f>
         <v>Þ</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="H57" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H57" s="31" t="s">
+      <c r="I57" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="I57" s="34" t="s">
+      <c r="J57" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="J57" s="16" t="s">
+      <c r="K57" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="K57" s="15">
-        <f t="shared" si="4"/>
+      <c r="L57" s="15">
+        <f>HEX2DEC(K57)</f>
         <v>1351</v>
       </c>
-      <c r="L57" t="str">
-        <f t="shared" si="5"/>
+      <c r="M57" t="str">
+        <f>"\u"&amp;TEXT(L57,"0000")&amp;"?"</f>
         <v>\u1351?</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="19.5">
+    <row r="58" spans="1:14" ht="19.5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5757,42 +5996,45 @@
       <c r="C58" s="13">
         <v>3908</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="13">
+        <v>13915</v>
+      </c>
+      <c r="E58" t="s">
         <v>55</v>
       </c>
-      <c r="E58" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F58" s="24" t="str">
+        <f>G58</f>
         <v>ß</v>
       </c>
-      <c r="F58" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G58" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E58,2)))</f>
         <v>ß</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="H58" s="31" t="s">
+      <c r="I58" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="I58" s="34" t="s">
+      <c r="J58" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="J58" s="16" t="s">
+      <c r="K58" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="K58" s="15">
-        <f t="shared" si="4"/>
+      <c r="L58" s="15">
+        <f>HEX2DEC(K58)</f>
         <v>1399</v>
       </c>
-      <c r="L58" t="str">
-        <f t="shared" si="5"/>
+      <c r="M58" t="str">
+        <f>"\u"&amp;TEXT(L58,"0000")&amp;"?"</f>
         <v>\u1399?</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="19.5">
+    <row r="59" spans="1:14" ht="19.5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5802,42 +6044,45 @@
       <c r="C59" s="13">
         <v>1601</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="13">
+        <v>6970</v>
+      </c>
+      <c r="E59" t="s">
         <v>56</v>
       </c>
-      <c r="E59" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F59" s="24" t="str">
+        <f>G59</f>
         <v>à</v>
       </c>
-      <c r="F59" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G59" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E59,2)))</f>
         <v>à</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H59" s="31" t="s">
+      <c r="I59" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="I59" s="34" t="s">
+      <c r="J59" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="J59" s="16" t="s">
+      <c r="K59" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="K59" s="15">
-        <f t="shared" si="4"/>
+      <c r="L59" s="15">
+        <f>HEX2DEC(K59)</f>
         <v>1352</v>
       </c>
-      <c r="L59" t="str">
-        <f t="shared" si="5"/>
+      <c r="M59" t="str">
+        <f>"\u"&amp;TEXT(L59,"0000")&amp;"?"</f>
         <v>\u1352?</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="19.5">
+    <row r="60" spans="1:14" ht="19.5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5847,42 +6092,45 @@
       <c r="C60" s="13">
         <v>56082</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="13">
+        <v>230838</v>
+      </c>
+      <c r="E60" t="s">
         <v>57</v>
       </c>
-      <c r="E60" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F60" s="24" t="str">
+        <f>G60</f>
         <v>á</v>
       </c>
-      <c r="F60" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G60" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E60,2)))</f>
         <v>á</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="H60" s="31" t="s">
+      <c r="I60" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="I60" s="34" t="s">
+      <c r="J60" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="J60" s="16" t="s">
+      <c r="K60" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="K60" s="15">
-        <f t="shared" si="4"/>
+      <c r="L60" s="15">
+        <f>HEX2DEC(K60)</f>
         <v>1400</v>
       </c>
-      <c r="L60" t="str">
-        <f t="shared" si="5"/>
+      <c r="M60" t="str">
+        <f>"\u"&amp;TEXT(L60,"0000")&amp;"?"</f>
         <v>\u1400?</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="19.5">
+    <row r="61" spans="1:14" ht="19.5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5892,42 +6140,45 @@
       <c r="C61" s="13">
         <v>95</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="13">
+        <v>270</v>
+      </c>
+      <c r="E61" t="s">
         <v>58</v>
       </c>
-      <c r="E61" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F61" s="24" t="str">
+        <f>G61</f>
         <v>â</v>
       </c>
-      <c r="F61" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G61" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E61,2)))</f>
         <v>â</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H61" s="31" t="s">
+      <c r="I61" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="I61" s="34" t="s">
+      <c r="J61" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="J61" s="16" t="s">
+      <c r="K61" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="K61" s="15">
-        <f t="shared" si="4"/>
+      <c r="L61" s="15">
+        <f>HEX2DEC(K61)</f>
         <v>1353</v>
       </c>
-      <c r="L61" t="str">
-        <f t="shared" si="5"/>
+      <c r="M61" t="str">
+        <f>"\u"&amp;TEXT(L61,"0000")&amp;"?"</f>
         <v>\u1353?</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="19.5">
+    <row r="62" spans="1:14" ht="19.5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5937,42 +6188,45 @@
       <c r="C62" s="13">
         <v>6780</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="13">
+        <v>22948</v>
+      </c>
+      <c r="E62" t="s">
         <v>59</v>
       </c>
-      <c r="E62" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F62" s="24" t="str">
+        <f>G62</f>
         <v>ã</v>
       </c>
-      <c r="F62" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G62" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E62,2)))</f>
         <v>ã</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="H62" s="31" t="s">
+      <c r="I62" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="I62" s="34" t="s">
+      <c r="J62" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="J62" s="16" t="s">
+      <c r="K62" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="K62" s="15">
-        <f t="shared" si="4"/>
+      <c r="L62" s="15">
+        <f>HEX2DEC(K62)</f>
         <v>1401</v>
       </c>
-      <c r="L62" t="str">
-        <f t="shared" si="5"/>
+      <c r="M62" t="str">
+        <f>"\u"&amp;TEXT(L62,"0000")&amp;"?"</f>
         <v>\u1401?</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="19.5">
+    <row r="63" spans="1:14" ht="19.5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5982,42 +6236,45 @@
       <c r="C63" s="13">
         <v>627</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="13">
+        <v>905</v>
+      </c>
+      <c r="E63" t="s">
         <v>60</v>
       </c>
-      <c r="E63" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F63" s="24" t="str">
+        <f>G63</f>
         <v>ä</v>
       </c>
-      <c r="F63" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G63" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E63,2)))</f>
         <v>ä</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H63" s="31" t="s">
+      <c r="I63" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="I63" s="34" t="s">
+      <c r="J63" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="J63" s="16" t="s">
+      <c r="K63" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="K63" s="15">
-        <f t="shared" si="4"/>
+      <c r="L63" s="15">
+        <f>HEX2DEC(K63)</f>
         <v>1354</v>
       </c>
-      <c r="L63" t="str">
-        <f t="shared" si="5"/>
+      <c r="M63" t="str">
+        <f>"\u"&amp;TEXT(L63,"0000")&amp;"?"</f>
         <v>\u1354?</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="19.5">
+    <row r="64" spans="1:14" ht="19.5">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6027,42 +6284,45 @@
       <c r="C64" s="13">
         <v>7164</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="13">
+        <v>29190</v>
+      </c>
+      <c r="E64" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F64" s="24" t="str">
+        <f>G64</f>
         <v>å</v>
       </c>
-      <c r="F64" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G64" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E64,2)))</f>
         <v>å</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="H64" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="H64" s="31" t="s">
+      <c r="I64" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="I64" s="34" t="s">
+      <c r="J64" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="J64" s="16" t="s">
+      <c r="K64" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="K64" s="15">
-        <f t="shared" si="4"/>
+      <c r="L64" s="15">
+        <f>HEX2DEC(K64)</f>
         <v>1402</v>
       </c>
-      <c r="L64" t="str">
-        <f t="shared" si="5"/>
+      <c r="M64" t="str">
+        <f>"\u"&amp;TEXT(L64,"0000")&amp;"?"</f>
         <v>\u1402?</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="19.5">
+    <row r="65" spans="1:14" ht="19.5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6072,42 +6332,45 @@
       <c r="C65" s="13">
         <v>12</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="13">
+        <v>2866</v>
+      </c>
+      <c r="E65" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F65" s="24" t="str">
+        <f>G65</f>
         <v>æ</v>
       </c>
-      <c r="F65" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G65" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E65,2)))</f>
         <v>æ</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H65" s="31" t="s">
+      <c r="I65" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="I65" s="34" t="s">
+      <c r="J65" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="J65" s="16" t="s">
+      <c r="K65" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="K65" s="15">
-        <f t="shared" si="4"/>
+      <c r="L65" s="15">
+        <f>HEX2DEC(K65)</f>
         <v>1355</v>
       </c>
-      <c r="L65" t="str">
-        <f t="shared" si="5"/>
+      <c r="M65" t="str">
+        <f>"\u"&amp;TEXT(L65,"0000")&amp;"?"</f>
         <v>\u1355?</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="19.5">
+    <row r="66" spans="1:14" ht="19.5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6117,42 +6380,45 @@
       <c r="C66" s="13">
         <v>3491</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="13">
+        <v>15273</v>
+      </c>
+      <c r="E66" t="s">
         <v>63</v>
       </c>
-      <c r="E66" s="24" t="str">
-        <f t="shared" si="6"/>
+      <c r="F66" s="24" t="str">
+        <f>G66</f>
         <v>ç</v>
       </c>
-      <c r="F66" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="G66" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E66,2)))</f>
         <v>ç</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="H66" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="H66" s="31" t="s">
+      <c r="I66" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="I66" s="34" t="s">
+      <c r="J66" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="J66" s="16" t="s">
+      <c r="K66" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="K66" s="15">
-        <f t="shared" ref="K66:K96" si="8">HEX2DEC(J66)</f>
+      <c r="L66" s="15">
+        <f>HEX2DEC(K66)</f>
         <v>1403</v>
       </c>
-      <c r="L66" t="str">
-        <f t="shared" ref="L66:L96" si="9">"\u"&amp;TEXT(K66,"0000")&amp;"?"</f>
+      <c r="M66" t="str">
+        <f>"\u"&amp;TEXT(L66,"0000")&amp;"?"</f>
         <v>\u1403?</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="19.5">
+    <row r="67" spans="1:14" ht="19.5">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6162,42 +6428,45 @@
       <c r="C67" s="13">
         <v>53</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="13">
+        <v>567</v>
+      </c>
+      <c r="E67" t="s">
         <v>64</v>
       </c>
-      <c r="E67" s="24" t="str">
-        <f t="shared" ref="E67:E88" si="10">F67</f>
+      <c r="F67" s="24" t="str">
+        <f>G67</f>
         <v>è</v>
       </c>
-      <c r="F67" s="7" t="str">
-        <f t="shared" ref="F67:F88" si="11">CHAR(HEX2DEC(RIGHT(D67,2)))</f>
+      <c r="G67" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E67,2)))</f>
         <v>è</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="H67" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H67" s="31" t="s">
+      <c r="I67" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="I67" s="34" t="s">
+      <c r="J67" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="J67" s="16" t="s">
+      <c r="K67" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="K67" s="15">
-        <f t="shared" si="8"/>
+      <c r="L67" s="15">
+        <f>HEX2DEC(K67)</f>
         <v>1356</v>
       </c>
-      <c r="L67" t="str">
-        <f t="shared" si="9"/>
+      <c r="M67" t="str">
+        <f>"\u"&amp;TEXT(L67,"0000")&amp;"?"</f>
         <v>\u1356?</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="19.5">
+    <row r="68" spans="1:14" ht="19.5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6207,42 +6476,45 @@
       <c r="C68" s="13">
         <v>4126</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="13">
+        <v>19226</v>
+      </c>
+      <c r="E68" t="s">
         <v>65</v>
       </c>
-      <c r="E68" s="24" t="str">
-        <f t="shared" si="10"/>
+      <c r="F68" s="24" t="str">
+        <f>G68</f>
         <v>é</v>
       </c>
-      <c r="F68" s="7" t="str">
-        <f t="shared" si="11"/>
+      <c r="G68" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E68,2)))</f>
         <v>é</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="H68" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="H68" s="31" t="s">
+      <c r="I68" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="I68" s="34" t="s">
+      <c r="J68" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="J68" s="16" t="s">
+      <c r="K68" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="K68" s="15">
-        <f t="shared" si="8"/>
+      <c r="L68" s="15">
+        <f>HEX2DEC(K68)</f>
         <v>1404</v>
       </c>
-      <c r="L68" t="str">
-        <f t="shared" si="9"/>
+      <c r="M68" t="str">
+        <f>"\u"&amp;TEXT(L68,"0000")&amp;"?"</f>
         <v>\u1404?</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="19.5">
+    <row r="69" spans="1:14" ht="19.5">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6252,42 +6524,45 @@
       <c r="C69" s="13">
         <v>916</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="13">
+        <v>4746</v>
+      </c>
+      <c r="E69" t="s">
         <v>66</v>
       </c>
-      <c r="E69" s="24" t="str">
-        <f t="shared" si="10"/>
+      <c r="F69" s="24" t="str">
+        <f>G69</f>
         <v>ê</v>
       </c>
-      <c r="F69" s="7" t="str">
-        <f t="shared" si="11"/>
+      <c r="G69" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E69,2)))</f>
         <v>ê</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="H69" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H69" s="31" t="s">
+      <c r="I69" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="I69" s="34" t="s">
+      <c r="J69" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="J69" s="16" t="s">
+      <c r="K69" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="K69" s="15">
-        <f t="shared" si="8"/>
+      <c r="L69" s="15">
+        <f>HEX2DEC(K69)</f>
         <v>1357</v>
       </c>
-      <c r="L69" t="str">
-        <f t="shared" si="9"/>
+      <c r="M69" t="str">
+        <f>"\u"&amp;TEXT(L69,"0000")&amp;"?"</f>
         <v>\u1357?</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="19.5">
+    <row r="70" spans="1:14" ht="19.5">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6297,42 +6572,45 @@
       <c r="C70" s="13">
         <v>24493</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="13">
+        <v>89090</v>
+      </c>
+      <c r="E70" t="s">
         <v>67</v>
       </c>
-      <c r="E70" s="24" t="str">
-        <f t="shared" si="10"/>
+      <c r="F70" s="24" t="str">
+        <f>G70</f>
         <v>ë</v>
       </c>
-      <c r="F70" s="7" t="str">
-        <f t="shared" si="11"/>
+      <c r="G70" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E70,2)))</f>
         <v>ë</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="H70" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="H70" s="31" t="s">
+      <c r="I70" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="I70" s="34" t="s">
+      <c r="J70" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="J70" s="16" t="s">
+      <c r="K70" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="K70" s="15">
-        <f t="shared" si="8"/>
+      <c r="L70" s="15">
+        <f>HEX2DEC(K70)</f>
         <v>1405</v>
       </c>
-      <c r="L70" t="str">
-        <f t="shared" si="9"/>
+      <c r="M70" t="str">
+        <f>"\u"&amp;TEXT(L70,"0000")&amp;"?"</f>
         <v>\u1405?</v>
       </c>
-      <c r="M70" t="s">
+      <c r="N70" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="19.5">
+    <row r="71" spans="1:14" ht="19.5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6342,42 +6620,45 @@
       <c r="C71" s="13">
         <v>181</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="13">
+        <v>635</v>
+      </c>
+      <c r="E71" t="s">
         <v>68</v>
       </c>
-      <c r="E71" s="24" t="str">
-        <f t="shared" si="10"/>
+      <c r="F71" s="24" t="str">
+        <f>G71</f>
         <v>ì</v>
       </c>
-      <c r="F71" s="7" t="str">
-        <f t="shared" si="11"/>
+      <c r="G71" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E71,2)))</f>
         <v>ì</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="H71" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H71" s="31" t="s">
+      <c r="I71" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="I71" s="34" t="s">
+      <c r="J71" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="J71" s="16" t="s">
+      <c r="K71" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="K71" s="15">
-        <f t="shared" si="8"/>
+      <c r="L71" s="15">
+        <f>HEX2DEC(K71)</f>
         <v>1358</v>
       </c>
-      <c r="L71" t="str">
-        <f t="shared" si="9"/>
+      <c r="M71" t="str">
+        <f>"\u"&amp;TEXT(L71,"0000")&amp;"?"</f>
         <v>\u1358?</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="19.5">
+    <row r="72" spans="1:14" ht="19.5">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6387,42 +6668,45 @@
       <c r="C72" s="13">
         <v>20139</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="13">
+        <v>81172</v>
+      </c>
+      <c r="E72" t="s">
         <v>69</v>
       </c>
-      <c r="E72" s="24" t="str">
-        <f t="shared" si="10"/>
+      <c r="F72" s="24" t="str">
+        <f>G72</f>
         <v>í</v>
       </c>
-      <c r="F72" s="7" t="str">
-        <f t="shared" si="11"/>
+      <c r="G72" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E72,2)))</f>
         <v>í</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="H72" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="H72" s="31" t="s">
+      <c r="I72" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="I72" s="34" t="s">
+      <c r="J72" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="J72" s="16" t="s">
+      <c r="K72" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="K72" s="15">
-        <f t="shared" si="8"/>
+      <c r="L72" s="15">
+        <f>HEX2DEC(K72)</f>
         <v>1406</v>
       </c>
-      <c r="L72" t="str">
-        <f t="shared" si="9"/>
+      <c r="M72" t="str">
+        <f>"\u"&amp;TEXT(L72,"0000")&amp;"?"</f>
         <v>\u1406?</v>
       </c>
-      <c r="M72" t="s">
+      <c r="N72" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="19.5">
+    <row r="73" spans="1:14" ht="19.5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6432,42 +6716,45 @@
       <c r="C73" s="13">
         <v>971</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="13">
+        <v>8911</v>
+      </c>
+      <c r="E73" t="s">
         <v>70</v>
       </c>
-      <c r="E73" s="24" t="str">
-        <f t="shared" si="10"/>
+      <c r="F73" s="24" t="str">
+        <f>G73</f>
         <v>î</v>
       </c>
-      <c r="F73" s="7" t="str">
-        <f t="shared" si="11"/>
+      <c r="G73" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E73,2)))</f>
         <v>î</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="H73" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="H73" s="31" t="s">
+      <c r="I73" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="I73" s="34" t="s">
+      <c r="J73" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="J73" s="16" t="s">
+      <c r="K73" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="K73" s="15">
-        <f t="shared" si="8"/>
+      <c r="L73" s="15">
+        <f>HEX2DEC(K73)</f>
         <v>1359</v>
       </c>
-      <c r="L73" t="str">
-        <f t="shared" si="9"/>
+      <c r="M73" t="str">
+        <f>"\u"&amp;TEXT(L73,"0000")&amp;"?"</f>
         <v>\u1359?</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="19.5">
+    <row r="74" spans="1:14" ht="19.5">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6477,42 +6764,45 @@
       <c r="C74" s="13">
         <v>21030</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="13">
+        <v>75792</v>
+      </c>
+      <c r="E74" t="s">
         <v>71</v>
       </c>
-      <c r="E74" s="24" t="str">
-        <f t="shared" si="10"/>
+      <c r="F74" s="24" t="str">
+        <f>G74</f>
         <v>ï</v>
       </c>
-      <c r="F74" s="7" t="str">
-        <f t="shared" si="11"/>
+      <c r="G74" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E74,2)))</f>
         <v>ï</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="H74" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="H74" s="31" t="s">
+      <c r="I74" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I74" s="34" t="s">
+      <c r="J74" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="J74" s="16" t="s">
+      <c r="K74" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="K74" s="15">
-        <f t="shared" si="8"/>
+      <c r="L74" s="15">
+        <f>HEX2DEC(K74)</f>
         <v>1407</v>
       </c>
-      <c r="L74" t="str">
-        <f t="shared" si="9"/>
+      <c r="M74" t="str">
+        <f>"\u"&amp;TEXT(L74,"0000")&amp;"?"</f>
         <v>\u1407?</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="19.5">
+    <row r="75" spans="1:14" ht="19.5">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6522,42 +6812,45 @@
       <c r="C75" s="13">
         <v>54</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="13">
+        <v>7116</v>
+      </c>
+      <c r="E75" t="s">
         <v>72</v>
       </c>
-      <c r="E75" s="24" t="str">
-        <f t="shared" si="10"/>
+      <c r="F75" s="24" t="str">
+        <f>G75</f>
         <v>ð</v>
       </c>
-      <c r="F75" s="7" t="str">
-        <f t="shared" si="11"/>
+      <c r="G75" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E75,2)))</f>
         <v>ð</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="H75" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H75" s="31" t="s">
+      <c r="I75" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="I75" s="34" t="s">
+      <c r="J75" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="J75" s="16" t="s">
+      <c r="K75" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="K75" s="15">
-        <f t="shared" si="8"/>
+      <c r="L75" s="15">
+        <f>HEX2DEC(K75)</f>
         <v>1360</v>
       </c>
-      <c r="L75" t="str">
-        <f t="shared" si="9"/>
+      <c r="M75" t="str">
+        <f>"\u"&amp;TEXT(L75,"0000")&amp;"?"</f>
         <v>\u1360?</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="19.5">
+    <row r="76" spans="1:14" ht="19.5">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6567,42 +6860,45 @@
       <c r="C76" s="13">
         <v>57634</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="13">
+        <v>247102</v>
+      </c>
+      <c r="E76" t="s">
         <v>73</v>
       </c>
-      <c r="E76" s="24" t="str">
-        <f t="shared" si="10"/>
+      <c r="F76" s="24" t="str">
+        <f>G76</f>
         <v>ñ</v>
       </c>
-      <c r="F76" s="7" t="str">
-        <f t="shared" si="11"/>
+      <c r="G76" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E76,2)))</f>
         <v>ñ</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="H76" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="H76" s="31" t="s">
+      <c r="I76" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="I76" s="34" t="s">
+      <c r="J76" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="J76" s="16" t="s">
+      <c r="K76" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="K76" s="15">
-        <f t="shared" si="8"/>
+      <c r="L76" s="15">
+        <f>HEX2DEC(K76)</f>
         <v>1408</v>
       </c>
-      <c r="L76" t="str">
-        <f t="shared" si="9"/>
+      <c r="M76" t="str">
+        <f>"\u"&amp;TEXT(L76,"0000")&amp;"?"</f>
         <v>\u1408?</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="19.5">
+    <row r="77" spans="1:14" ht="19.5">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6612,42 +6908,45 @@
       <c r="C77" s="13">
         <v>21</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="13">
+        <v>204</v>
+      </c>
+      <c r="E77" t="s">
         <v>74</v>
       </c>
-      <c r="E77" s="24" t="str">
-        <f t="shared" si="10"/>
+      <c r="F77" s="24" t="str">
+        <f>G77</f>
         <v>ò</v>
       </c>
-      <c r="F77" s="7" t="str">
-        <f t="shared" si="11"/>
+      <c r="G77" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E77,2)))</f>
         <v>ò</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="H77" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H77" s="31" t="s">
+      <c r="I77" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="I77" s="34" t="s">
+      <c r="J77" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="J77" s="16" t="s">
+      <c r="K77" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="K77" s="15">
-        <f t="shared" si="8"/>
+      <c r="L77" s="15">
+        <f>HEX2DEC(K77)</f>
         <v>1361</v>
       </c>
-      <c r="L77" t="str">
-        <f t="shared" si="9"/>
+      <c r="M77" t="str">
+        <f>"\u"&amp;TEXT(L77,"0000")&amp;"?"</f>
         <v>\u1361?</v>
       </c>
-      <c r="M77" t="s">
+      <c r="N77" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="19.5">
+    <row r="78" spans="1:14" ht="19.5">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6657,42 +6956,45 @@
       <c r="C78" s="13">
         <v>16858</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="13">
+        <v>70550</v>
+      </c>
+      <c r="E78" t="s">
         <v>75</v>
       </c>
-      <c r="E78" s="24" t="str">
-        <f t="shared" si="10"/>
+      <c r="F78" s="24" t="str">
+        <f>G78</f>
         <v>ó</v>
       </c>
-      <c r="F78" s="7" t="str">
-        <f t="shared" si="11"/>
+      <c r="G78" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E78,2)))</f>
         <v>ó</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="H78" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="H78" s="31" t="s">
+      <c r="I78" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="I78" s="34" t="s">
+      <c r="J78" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="J78" s="16" t="s">
+      <c r="K78" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="K78" s="15">
-        <f t="shared" si="8"/>
+      <c r="L78" s="15">
+        <f>HEX2DEC(K78)</f>
         <v>1409</v>
       </c>
-      <c r="L78" t="str">
-        <f t="shared" si="9"/>
+      <c r="M78" t="str">
+        <f>"\u"&amp;TEXT(L78,"0000")&amp;"?"</f>
         <v>\u1409?</v>
       </c>
-      <c r="M78" t="s">
+      <c r="N78" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="19.5">
+    <row r="79" spans="1:14" ht="19.5">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6702,42 +7004,45 @@
       <c r="C79" s="13">
         <v>25</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="13">
+        <v>77</v>
+      </c>
+      <c r="E79" t="s">
         <v>76</v>
       </c>
-      <c r="E79" s="24" t="str">
-        <f t="shared" si="10"/>
+      <c r="F79" s="24" t="str">
+        <f>G79</f>
         <v>ô</v>
       </c>
-      <c r="F79" s="7" t="str">
-        <f t="shared" si="11"/>
+      <c r="G79" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E79,2)))</f>
         <v>ô</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="H79" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="H79" s="31" t="s">
+      <c r="I79" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="I79" s="34" t="s">
+      <c r="J79" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="J79" s="16" t="s">
+      <c r="K79" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="K79" s="15">
-        <f t="shared" si="8"/>
+      <c r="L79" s="15">
+        <f>HEX2DEC(K79)</f>
         <v>1362</v>
       </c>
-      <c r="L79" t="str">
-        <f t="shared" si="9"/>
+      <c r="M79" t="str">
+        <f>"\u"&amp;TEXT(L79,"0000")&amp;"?"</f>
         <v>\u1362?</v>
       </c>
-      <c r="M79" t="s">
+      <c r="N79" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="19.5">
+    <row r="80" spans="1:14" ht="19.5">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6747,42 +7052,45 @@
       <c r="C80" s="13">
         <v>26335</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="13">
+        <v>108881</v>
+      </c>
+      <c r="E80" t="s">
         <v>77</v>
       </c>
-      <c r="E80" s="24" t="str">
-        <f t="shared" si="10"/>
+      <c r="F80" s="24" t="str">
+        <f>G80</f>
         <v>õ</v>
       </c>
-      <c r="F80" s="7" t="str">
-        <f t="shared" si="11"/>
+      <c r="G80" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E80,2)))</f>
         <v>õ</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="H80" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="H80" s="31" t="s">
+      <c r="I80" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="I80" s="34" t="s">
+      <c r="J80" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="J80" s="16" t="s">
+      <c r="K80" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="K80" s="15">
-        <f t="shared" si="8"/>
+      <c r="L80" s="15">
+        <f>HEX2DEC(K80)</f>
         <v>1410</v>
       </c>
-      <c r="L80" t="str">
-        <f t="shared" si="9"/>
+      <c r="M80" t="str">
+        <f>"\u"&amp;TEXT(L80,"0000")&amp;"?"</f>
         <v>\u1410?</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="19.5">
+    <row r="81" spans="1:15" ht="19.5">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6792,42 +7100,45 @@
       <c r="C81" s="13">
         <v>187</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="13">
+        <v>964</v>
+      </c>
+      <c r="E81" t="s">
         <v>78</v>
       </c>
-      <c r="E81" s="24" t="str">
-        <f t="shared" si="10"/>
+      <c r="F81" s="24" t="str">
+        <f>G81</f>
         <v>ö</v>
       </c>
-      <c r="F81" s="7" t="str">
-        <f t="shared" si="11"/>
+      <c r="G81" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E81,2)))</f>
         <v>ö</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="H81" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H81" s="31" t="s">
+      <c r="I81" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="I81" s="34" t="s">
+      <c r="J81" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="J81" s="16" t="s">
+      <c r="K81" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="K81" s="15">
-        <f t="shared" si="8"/>
+      <c r="L81" s="15">
+        <f>HEX2DEC(K81)</f>
         <v>1363</v>
       </c>
-      <c r="L81" t="str">
-        <f t="shared" si="9"/>
+      <c r="M81" t="str">
+        <f>"\u"&amp;TEXT(L81,"0000")&amp;"?"</f>
         <v>\u1363?</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="19.5">
+    <row r="82" spans="1:15" ht="19.5">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6837,42 +7148,45 @@
       <c r="C82" s="13">
         <v>1667</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="13">
+        <v>8086</v>
+      </c>
+      <c r="E82" t="s">
         <v>79</v>
       </c>
-      <c r="E82" s="24" t="str">
-        <f t="shared" si="10"/>
+      <c r="F82" s="24" t="str">
+        <f>G82</f>
         <v>÷</v>
       </c>
-      <c r="F82" s="7" t="str">
-        <f t="shared" si="11"/>
+      <c r="G82" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E82,2)))</f>
         <v>÷</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="H82" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="H82" s="31" t="s">
+      <c r="I82" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="I82" s="34" t="s">
+      <c r="J82" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="J82" s="16" t="s">
+      <c r="K82" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="K82" s="15">
-        <f t="shared" si="8"/>
+      <c r="L82" s="15">
+        <f>HEX2DEC(K82)</f>
         <v>1411</v>
       </c>
-      <c r="L82" t="str">
-        <f t="shared" si="9"/>
+      <c r="M82" t="str">
+        <f>"\u"&amp;TEXT(L82,"0000")&amp;"?"</f>
         <v>\u1411?</v>
       </c>
-      <c r="M82" t="s">
+      <c r="N82" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="19.5">
+    <row r="83" spans="1:15" ht="19.5">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6882,42 +7196,45 @@
       <c r="C83" s="13">
         <v>1122</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="13">
+        <v>4489</v>
+      </c>
+      <c r="E83" t="s">
         <v>80</v>
       </c>
-      <c r="E83" s="24" t="str">
-        <f t="shared" si="10"/>
+      <c r="F83" s="24" t="str">
+        <f>G83</f>
         <v>ø</v>
       </c>
-      <c r="F83" s="7" t="str">
-        <f t="shared" si="11"/>
+      <c r="G83" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E83,2)))</f>
         <v>ø</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="H83" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H83" s="31" t="s">
+      <c r="I83" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="I83" s="34" t="s">
+      <c r="J83" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="J83" s="16" t="s">
+      <c r="K83" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="K83" s="15">
-        <f t="shared" si="8"/>
+      <c r="L83" s="15">
+        <f>HEX2DEC(K83)</f>
         <v>1364</v>
       </c>
-      <c r="L83" t="str">
-        <f t="shared" si="9"/>
+      <c r="M83" t="str">
+        <f>"\u"&amp;TEXT(L83,"0000")&amp;"?"</f>
         <v>\u1364?</v>
       </c>
-      <c r="M83" t="s">
+      <c r="N83" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="19.5">
+    <row r="84" spans="1:15" ht="19.5">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6927,42 +7244,45 @@
       <c r="C84" s="13">
         <v>12853</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="13">
+        <v>51209</v>
+      </c>
+      <c r="E84" t="s">
         <v>81</v>
       </c>
-      <c r="E84" s="24" t="str">
-        <f t="shared" si="10"/>
+      <c r="F84" s="24" t="str">
+        <f>G84</f>
         <v>ù</v>
       </c>
-      <c r="F84" s="7" t="str">
-        <f t="shared" si="11"/>
+      <c r="G84" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E84,2)))</f>
         <v>ù</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="H84" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="H84" s="31" t="s">
+      <c r="I84" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="I84" s="34" t="s">
+      <c r="J84" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="J84" s="16" t="s">
+      <c r="K84" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="K84" s="15">
-        <f t="shared" si="8"/>
+      <c r="L84" s="15">
+        <f>HEX2DEC(K84)</f>
         <v>1412</v>
       </c>
-      <c r="L84" t="str">
-        <f t="shared" si="9"/>
+      <c r="M84" t="str">
+        <f>"\u"&amp;TEXT(L84,"0000")&amp;"?"</f>
         <v>\u1412?</v>
       </c>
-      <c r="M84" t="s">
+      <c r="N84" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="19.5">
+    <row r="85" spans="1:15" ht="19.5">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6972,42 +7292,45 @@
       <c r="C85" s="13">
         <v>256</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="13">
+        <v>605</v>
+      </c>
+      <c r="E85" t="s">
         <v>82</v>
       </c>
-      <c r="E85" s="24" t="str">
-        <f t="shared" si="10"/>
+      <c r="F85" s="24" t="str">
+        <f>G85</f>
         <v>ú</v>
       </c>
-      <c r="F85" s="7" t="str">
-        <f t="shared" si="11"/>
+      <c r="G85" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E85,2)))</f>
         <v>ú</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="H85" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="H85" s="31" t="s">
+      <c r="I85" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="I85" s="34" t="s">
+      <c r="J85" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="J85" s="16" t="s">
+      <c r="K85" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="K85" s="15">
-        <f t="shared" si="8"/>
+      <c r="L85" s="15">
+        <f>HEX2DEC(K85)</f>
         <v>1365</v>
       </c>
-      <c r="L85" t="str">
-        <f t="shared" si="9"/>
+      <c r="M85" t="str">
+        <f>"\u"&amp;TEXT(L85,"0000")&amp;"?"</f>
         <v>\u1365?</v>
       </c>
-      <c r="M85" t="s">
+      <c r="N85" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="19.5">
+    <row r="86" spans="1:15" ht="19.5">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7017,42 +7340,45 @@
       <c r="C86" s="13">
         <v>842</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="13">
+        <v>4799</v>
+      </c>
+      <c r="E86" t="s">
         <v>83</v>
       </c>
-      <c r="E86" s="24" t="str">
-        <f t="shared" si="10"/>
+      <c r="F86" s="24" t="str">
+        <f>G86</f>
         <v>û</v>
       </c>
-      <c r="F86" s="7" t="str">
-        <f t="shared" si="11"/>
+      <c r="G86" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E86,2)))</f>
         <v>û</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="H86" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H86" s="31" t="s">
+      <c r="I86" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="I86" s="34" t="s">
+      <c r="J86" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="J86" s="16" t="s">
+      <c r="K86" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="K86" s="15">
-        <f t="shared" si="8"/>
+      <c r="L86" s="15">
+        <f>HEX2DEC(K86)</f>
         <v>1413</v>
       </c>
-      <c r="L86" t="str">
-        <f t="shared" si="9"/>
+      <c r="M86" t="str">
+        <f>"\u"&amp;TEXT(L86,"0000")&amp;"?"</f>
         <v>\u1413?</v>
       </c>
-      <c r="M86" t="s">
+      <c r="N86" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="19.5">
+    <row r="87" spans="1:15" ht="19.5">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7062,42 +7388,45 @@
       <c r="C87" s="13">
         <v>16</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="13">
+        <v>16</v>
+      </c>
+      <c r="E87" t="s">
         <v>84</v>
       </c>
-      <c r="E87" s="24" t="str">
-        <f t="shared" si="10"/>
+      <c r="F87" s="24" t="str">
+        <f>G87</f>
         <v>ü</v>
       </c>
-      <c r="F87" s="7" t="str">
-        <f t="shared" si="11"/>
+      <c r="G87" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E87,2)))</f>
         <v>ü</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="H87" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H87" s="31" t="s">
+      <c r="I87" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="I87" s="34" t="s">
+      <c r="J87" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="J87" s="16" t="s">
+      <c r="K87" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="K87" s="15">
-        <f t="shared" si="8"/>
+      <c r="L87" s="15">
+        <f>HEX2DEC(K87)</f>
         <v>1366</v>
       </c>
-      <c r="L87" t="str">
-        <f t="shared" si="9"/>
+      <c r="M87" t="str">
+        <f>"\u"&amp;TEXT(L87,"0000")&amp;"?"</f>
         <v>\u1366?</v>
       </c>
-      <c r="M87" t="s">
+      <c r="N87" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="19.5">
+    <row r="88" spans="1:15" ht="19.5">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7107,82 +7436,88 @@
       <c r="C88" s="13">
         <v>9</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="13">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s">
         <v>85</v>
       </c>
-      <c r="E88" s="24" t="str">
-        <f t="shared" si="10"/>
+      <c r="F88" s="24" t="str">
+        <f>G88</f>
         <v>ý</v>
       </c>
-      <c r="F88" s="7" t="str">
-        <f t="shared" si="11"/>
+      <c r="G88" s="7" t="str">
+        <f>CHAR(HEX2DEC(RIGHT(E88,2)))</f>
         <v>ý</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="H88" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="H88" s="31" t="s">
+      <c r="I88" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="I88" s="34" t="s">
+      <c r="J88" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="J88" s="16" t="s">
+      <c r="K88" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="K88" s="15">
-        <f t="shared" si="8"/>
+      <c r="L88" s="15">
+        <f>HEX2DEC(K88)</f>
         <v>1414</v>
       </c>
-      <c r="L88" t="str">
-        <f t="shared" si="9"/>
+      <c r="M88" t="str">
+        <f>"\u"&amp;TEXT(L88,"0000")&amp;"?"</f>
         <v>\u1414?</v>
       </c>
-      <c r="M88" t="s">
+      <c r="N88" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="19.5">
+    <row r="89" spans="1:15" ht="19.5">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="13">
-        <v>0</v>
-      </c>
-      <c r="C89" s="13">
-        <v>0</v>
-      </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="3" t="s">
+      <c r="B89" s="13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C89" s="13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D89" s="13">
+        <v>1133</v>
+      </c>
+      <c r="E89" s="28"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="H89" s="31" t="s">
+      <c r="I89" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="I89" s="34" t="s">
+      <c r="J89" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="J89" s="16" t="s">
+      <c r="K89" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="K89" s="15">
-        <f t="shared" si="8"/>
+      <c r="L89" s="15">
+        <f>HEX2DEC(K89)</f>
         <v>1418</v>
       </c>
-      <c r="L89" t="str">
-        <f t="shared" si="9"/>
+      <c r="M89" t="str">
+        <f>"\u"&amp;TEXT(L89,"0000")&amp;"?"</f>
         <v>\u1418?</v>
       </c>
-      <c r="M89" t="s">
+      <c r="N89" t="s">
         <v>296</v>
       </c>
-      <c r="N89" s="25" t="s">
+      <c r="O89" s="25" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="19.5">
+    <row r="90" spans="1:15" ht="19.5">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7192,37 +7527,40 @@
       <c r="C90" s="13">
         <v>0</v>
       </c>
-      <c r="D90" s="28"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="3" t="s">
+      <c r="D90" s="13">
+        <v>0</v>
+      </c>
+      <c r="E90" s="28"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="H90" s="31" t="s">
+      <c r="I90" s="31" t="s">
         <v>594</v>
       </c>
-      <c r="I90" s="34" t="s">
+      <c r="J90" s="34" t="s">
         <v>594</v>
       </c>
-      <c r="J90" s="16" t="s">
+      <c r="K90" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="K90" s="15">
-        <f t="shared" si="8"/>
+      <c r="L90" s="15">
+        <f>HEX2DEC(K90)</f>
         <v>1375</v>
       </c>
-      <c r="L90" t="str">
-        <f t="shared" si="9"/>
+      <c r="M90" t="str">
+        <f>"\u"&amp;TEXT(L90,"0000")&amp;"?"</f>
         <v>\u1375?</v>
       </c>
-      <c r="M90" t="s">
+      <c r="N90" t="s">
         <v>592</v>
       </c>
-      <c r="N90" s="25" t="s">
+      <c r="O90" s="25" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="19.5">
+    <row r="91" spans="1:15" ht="19.5">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7232,37 +7570,40 @@
       <c r="C91" s="13">
         <v>0</v>
       </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="3" t="s">
+      <c r="D91" s="13">
+        <v>0</v>
+      </c>
+      <c r="E91" s="28"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="H91" s="31" t="s">
+      <c r="I91" s="31" t="s">
         <v>590</v>
       </c>
-      <c r="I91" s="34" t="s">
+      <c r="J91" s="34" t="s">
         <v>590</v>
       </c>
-      <c r="J91" s="16" t="s">
+      <c r="K91" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="K91" s="15">
-        <f t="shared" si="8"/>
+      <c r="L91" s="15">
+        <f>HEX2DEC(K91)</f>
         <v>1423</v>
       </c>
-      <c r="L91" t="str">
-        <f t="shared" si="9"/>
+      <c r="M91" t="str">
+        <f>"\u"&amp;TEXT(L91,"0000")&amp;"?"</f>
         <v>\u1423?</v>
       </c>
-      <c r="M91" t="s">
+      <c r="N91" t="s">
         <v>562</v>
       </c>
-      <c r="N91" s="25" t="s">
+      <c r="O91" s="25" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="19.5">
+    <row r="92" spans="1:15" ht="19.5">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7272,34 +7613,37 @@
       <c r="C92" s="13">
         <v>0</v>
       </c>
-      <c r="D92" s="28"/>
+      <c r="D92" s="13">
+        <v>0</v>
+      </c>
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
-      <c r="G92" s="3" t="s">
+      <c r="G92" s="28"/>
+      <c r="H92" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="H92" s="31" t="s">
+      <c r="I92" s="31" t="s">
         <v>577</v>
       </c>
-      <c r="I92" s="34" t="s">
+      <c r="J92" s="34" t="s">
         <v>577</v>
       </c>
-      <c r="J92" s="17" t="s">
+      <c r="K92" s="17" t="s">
         <v>578</v>
       </c>
-      <c r="K92" s="15">
-        <f t="shared" si="8"/>
+      <c r="L92" s="15">
+        <f>HEX2DEC(K92)</f>
         <v>64275</v>
       </c>
-      <c r="L92" t="str">
-        <f t="shared" si="9"/>
+      <c r="M92" t="str">
+        <f>"\u"&amp;TEXT(L92,"0000")&amp;"?"</f>
         <v>\u64275?</v>
       </c>
-      <c r="M92" t="s">
+      <c r="N92" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="19.5">
+    <row r="93" spans="1:15" ht="19.5">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7309,34 +7653,37 @@
       <c r="C93" s="13">
         <v>0</v>
       </c>
-      <c r="D93" s="28"/>
+      <c r="D93" s="13">
+        <v>0</v>
+      </c>
       <c r="E93" s="28"/>
       <c r="F93" s="28"/>
-      <c r="G93" s="3" t="s">
+      <c r="G93" s="28"/>
+      <c r="H93" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="H93" s="31" t="s">
+      <c r="I93" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="I93" s="34" t="s">
+      <c r="J93" s="34" t="s">
         <v>586</v>
       </c>
-      <c r="J93" s="17" t="s">
+      <c r="K93" s="17" t="s">
         <v>579</v>
       </c>
-      <c r="K93" s="15">
-        <f t="shared" si="8"/>
+      <c r="L93" s="15">
+        <f>HEX2DEC(K93)</f>
         <v>64276</v>
       </c>
-      <c r="L93" t="str">
-        <f t="shared" si="9"/>
+      <c r="M93" t="str">
+        <f>"\u"&amp;TEXT(L93,"0000")&amp;"?"</f>
         <v>\u64276?</v>
       </c>
-      <c r="M93" t="s">
+      <c r="N93" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="19.5">
+    <row r="94" spans="1:15" ht="19.5">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7346,34 +7693,37 @@
       <c r="C94" s="13">
         <v>0</v>
       </c>
-      <c r="D94" s="28"/>
+      <c r="D94" s="13">
+        <v>0</v>
+      </c>
       <c r="E94" s="28"/>
       <c r="F94" s="28"/>
-      <c r="G94" s="3" t="s">
+      <c r="G94" s="28"/>
+      <c r="H94" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="H94" s="31" t="s">
+      <c r="I94" s="31" t="s">
         <v>587</v>
       </c>
-      <c r="I94" s="34" t="s">
+      <c r="J94" s="34" t="s">
         <v>587</v>
       </c>
-      <c r="J94" s="17" t="s">
+      <c r="K94" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="K94" s="15">
-        <f t="shared" si="8"/>
+      <c r="L94" s="15">
+        <f>HEX2DEC(K94)</f>
         <v>64277</v>
       </c>
-      <c r="L94" t="str">
-        <f t="shared" si="9"/>
+      <c r="M94" t="str">
+        <f>"\u"&amp;TEXT(L94,"0000")&amp;"?"</f>
         <v>\u64277?</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="19.5">
+    <row r="95" spans="1:15" ht="19.5">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7383,34 +7733,37 @@
       <c r="C95" s="13">
         <v>0</v>
       </c>
-      <c r="D95" s="28"/>
+      <c r="D95" s="13">
+        <v>0</v>
+      </c>
       <c r="E95" s="28"/>
       <c r="F95" s="28"/>
-      <c r="G95" s="3" t="s">
+      <c r="G95" s="28"/>
+      <c r="H95" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="H95" s="31" t="s">
+      <c r="I95" s="31" t="s">
         <v>588</v>
       </c>
-      <c r="I95" s="34" t="s">
+      <c r="J95" s="34" t="s">
         <v>588</v>
       </c>
-      <c r="J95" s="17" t="s">
+      <c r="K95" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="K95" s="15">
-        <f t="shared" si="8"/>
+      <c r="L95" s="15">
+        <f>HEX2DEC(K95)</f>
         <v>64278</v>
       </c>
-      <c r="L95" t="str">
-        <f t="shared" si="9"/>
+      <c r="M95" t="str">
+        <f>"\u"&amp;TEXT(L95,"0000")&amp;"?"</f>
         <v>\u64278?</v>
       </c>
-      <c r="M95" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" ht="19.5">
+      <c r="N95" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="19.5">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7420,43 +7773,50 @@
       <c r="C96" s="13">
         <v>0</v>
       </c>
-      <c r="D96" s="28"/>
+      <c r="D96" s="13">
+        <v>0</v>
+      </c>
       <c r="E96" s="28"/>
       <c r="F96" s="28"/>
-      <c r="G96" s="3" t="s">
+      <c r="G96" s="28"/>
+      <c r="H96" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="H96" s="31" t="s">
+      <c r="I96" s="31" t="s">
         <v>589</v>
       </c>
-      <c r="I96" s="34" t="s">
+      <c r="J96" s="34" t="s">
         <v>589</v>
       </c>
-      <c r="J96" s="17" t="s">
+      <c r="K96" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="K96" s="15">
-        <f t="shared" si="8"/>
+      <c r="L96" s="15">
+        <f>HEX2DEC(K96)</f>
         <v>64279</v>
       </c>
-      <c r="L96" t="str">
-        <f t="shared" si="9"/>
+      <c r="M96" t="str">
+        <f>"\u"&amp;TEXT(L96,"0000")&amp;"?"</f>
         <v>\u64279?</v>
       </c>
-      <c r="M96" t="s">
+      <c r="N96" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="98" spans="7:9" ht="19.5">
-      <c r="G98" s="3"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="34"/>
+    <row r="97" spans="4:10">
+      <c r="D97" s="13"/>
+    </row>
+    <row r="98" spans="4:10" ht="19.5">
+      <c r="H98" s="3"/>
+      <c r="I98" s="31"/>
+      <c r="J98" s="34"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
-  <autoFilter ref="A1:N96">
-    <filterColumn colId="7"/>
-    <filterColumn colId="8"/>
+  <autoFilter ref="A1:O96">
+    <sortState ref="A2:O96">
+      <sortCondition ref="A1"/>
+    </sortState>
   </autoFilter>
   <sortState ref="A2:L96">
     <sortCondition ref="A1"/>
